--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="480">
   <si>
     <t>supplier_name</t>
   </si>
@@ -1640,12 +1640,15 @@
   <si>
     <t>ระดับการอนุมัติปัจจุบันของ Workflow = level_id</t>
   </si>
+  <si>
+    <t>ตาราง: approval_workflow (รูปแบบการอนุมัติ)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1678,29 +1681,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="TH Sarabun New"/>
@@ -1711,6 +1691,42 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1782,60 +1798,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1843,26 +1821,67 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2155,1850 +2174,1856 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="8"/>
-    <col min="5" max="5" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="32.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="14"/>
+    <col min="5" max="5" width="16.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" ht="14.4">
+      <c r="A1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:3" ht="14.4">
+      <c r="A6" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:3" ht="14.4">
+      <c r="A11" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A12" s="9" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:3" ht="14.4">
+      <c r="A16" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A17" s="9" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="63" x14ac:dyDescent="0.6">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:3" ht="41.4">
+      <c r="A27" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="63" x14ac:dyDescent="0.6">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:3" ht="41.4">
+      <c r="A28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:6" ht="14.4">
+      <c r="A35" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A36" s="9" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="19">
         <v>0</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="19" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="19">
         <v>1</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="19" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="E39" s="23">
+    <row r="39" spans="1:6">
+      <c r="E39" s="19">
         <v>2</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="19" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="E40" s="23">
+    <row r="40" spans="1:6">
+      <c r="E40" s="19">
         <v>3</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="19" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:6" ht="14.4">
+      <c r="A41" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A42" s="9" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="18" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="19">
         <v>0</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="19" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="19">
         <v>1</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="19" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="E45" s="23">
+    <row r="45" spans="1:6">
+      <c r="E45" s="19">
         <v>2</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="19" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A46" s="19" t="s">
+    <row r="46" spans="1:6" ht="14.4">
+      <c r="A46" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A47" s="9" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="42" x14ac:dyDescent="0.6">
-      <c r="A57" s="10" t="s">
+    <row r="57" spans="1:3" ht="27.6">
+      <c r="A57" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A59" s="19" t="s">
+    <row r="59" spans="1:3" ht="14.4">
+      <c r="A59" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A60" s="9" t="s">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:3" ht="27.6">
+      <c r="A65" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:3" ht="27.6">
+      <c r="A67" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:3" ht="27.6">
+      <c r="A70" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:3" ht="27.6">
+      <c r="A71" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A72" s="10" t="s">
+    <row r="72" spans="1:3" ht="27.6">
+      <c r="A72" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A73" s="10" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A74" s="10" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A75" s="10" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A76" s="10" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:3" ht="27.6">
+      <c r="A77" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:3" ht="27.6">
+      <c r="A78" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A79" s="10" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A81" s="10" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="17" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="17" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A84" s="19" t="s">
+    <row r="84" spans="1:3" ht="14.4">
+      <c r="A84" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A85" s="9" t="s">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A86" s="10" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A87" s="10" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A88" s="10" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A89" s="10" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A90" s="10" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A92" s="19" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+    </row>
+    <row r="92" spans="1:3" ht="14.4">
+      <c r="A92" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A93" s="9" t="s">
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A94" s="10" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="17" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A95" s="10" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A97" s="19" t="s">
+    <row r="97" spans="1:10" ht="14.4">
+      <c r="A97" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A98" s="9" t="s">
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A99" s="10" t="s">
+    <row r="99" spans="1:10">
+      <c r="A99" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A100" s="10" t="s">
+    <row r="100" spans="1:10">
+      <c r="A100" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A102" s="19" t="s">
+    <row r="102" spans="1:10" ht="14.4">
+      <c r="A102" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A103" s="9" t="s">
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F103" s="23" t="s">
+      <c r="F103" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G103" s="23" t="s">
+      <c r="G103" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H103" s="23" t="s">
+      <c r="H103" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I103" s="23" t="s">
+      <c r="I103" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J103" s="23" t="s">
+      <c r="J103" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A104" s="10" t="s">
+    <row r="104" spans="1:10">
+      <c r="A104" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E104" s="23">
+      <c r="E104" s="19">
         <v>1001</v>
       </c>
-      <c r="F104" s="23" t="s">
+      <c r="F104" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G104" s="23" t="s">
+      <c r="G104" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H104" s="23" t="s">
+      <c r="H104" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I104" s="23" t="s">
+      <c r="I104" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="J104" s="23"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A105" s="10" t="s">
+      <c r="J104" s="19"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="23">
+      <c r="E105" s="19">
         <v>1002</v>
       </c>
-      <c r="F105" s="23" t="s">
+      <c r="F105" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G105" s="23" t="s">
+      <c r="G105" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H105" s="23" t="s">
+      <c r="H105" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="I105" s="24" t="s">
+      <c r="I105" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="J105" s="23"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A106" s="10" t="s">
+      <c r="J105" s="19"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E106" s="23">
+      <c r="E106" s="19">
         <v>1003</v>
       </c>
-      <c r="F106" s="23" t="s">
+      <c r="F106" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="G106" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H106" s="23" t="s">
+      <c r="H106" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="I106" s="24" t="s">
+      <c r="I106" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="J106" s="23"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A107" s="10" t="s">
+      <c r="J106" s="19"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E107" s="23">
+      <c r="E107" s="19">
         <v>1004</v>
       </c>
-      <c r="F107" s="23" t="s">
+      <c r="F107" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G107" s="23" t="s">
+      <c r="G107" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="23" t="s">
+      <c r="H107" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I107" s="24" t="s">
+      <c r="I107" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="J107" s="23"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A108" s="10" t="s">
+      <c r="J107" s="19"/>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E108" s="23">
+      <c r="E108" s="19">
         <v>1005</v>
       </c>
-      <c r="F108" s="23" t="s">
+      <c r="F108" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G108" s="23" t="s">
+      <c r="G108" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="H108" s="23" t="s">
+      <c r="H108" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I108" s="23" t="s">
+      <c r="I108" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="J108" s="23"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A109" s="10" t="s">
+      <c r="J108" s="19"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A111" s="19" t="s">
+    <row r="111" spans="1:10" ht="14.4">
+      <c r="A111" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A112" s="9" t="s">
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E112" s="22" t="s">
+      <c r="E112" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F112" s="22" t="s">
+      <c r="F112" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A113" s="10" t="s">
+    <row r="113" spans="1:8">
+      <c r="A113" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="19">
         <v>0</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="F113" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A114" s="10" t="s">
+    <row r="114" spans="1:8">
+      <c r="A114" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E114" s="23">
+      <c r="E114" s="19">
         <v>1</v>
       </c>
-      <c r="F114" s="23" t="s">
+      <c r="F114" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="E115" s="23">
+    <row r="115" spans="1:8">
+      <c r="E115" s="19">
         <v>2</v>
       </c>
-      <c r="F115" s="23" t="s">
+      <c r="F115" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A116" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A117" s="9" t="s">
+    <row r="116" spans="1:8" ht="14.4">
+      <c r="A116" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="E117" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F117" s="22" t="s">
+      <c r="F117" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A118" s="10" t="s">
+    <row r="118" spans="1:8">
+      <c r="A118" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E118" s="23">
+      <c r="E118" s="19">
         <v>1</v>
       </c>
-      <c r="F118" s="23" t="s">
+      <c r="F118" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A119" s="10" t="s">
+    <row r="119" spans="1:8">
+      <c r="A119" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E119" s="23">
+      <c r="E119" s="19">
         <v>2</v>
       </c>
-      <c r="F119" s="23" t="s">
+      <c r="F119" s="19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A121" s="19" t="s">
+    <row r="121" spans="1:8" ht="14.4">
+      <c r="A121" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A122" s="9" t="s">
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+    </row>
+    <row r="122" spans="1:8" ht="27.6">
+      <c r="A122" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E122" s="24" t="s">
+      <c r="E122" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F122" s="22" t="s">
+      <c r="F122" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G122" s="24" t="s">
+      <c r="G122" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="H122" s="24" t="s">
+      <c r="H122" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A123" s="10" t="s">
+    <row r="123" spans="1:8">
+      <c r="A123" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E123" s="24">
+      <c r="E123" s="21">
         <v>1</v>
       </c>
-      <c r="F123" s="23">
+      <c r="F123" s="19">
         <v>1</v>
       </c>
-      <c r="G123" s="24">
+      <c r="G123" s="21">
         <v>1</v>
       </c>
-      <c r="H123" s="24" t="s">
+      <c r="H123" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A124" s="10" t="s">
+    <row r="124" spans="1:8">
+      <c r="A124" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E124" s="24">
+      <c r="E124" s="21">
         <v>2</v>
       </c>
-      <c r="F124" s="23">
+      <c r="F124" s="19">
         <v>1</v>
       </c>
-      <c r="G124" s="24">
+      <c r="G124" s="21">
         <v>2</v>
       </c>
-      <c r="H124" s="24" t="s">
+      <c r="H124" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A125" s="10" t="s">
+    <row r="125" spans="1:8">
+      <c r="A125" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E125" s="23">
+      <c r="E125" s="19">
         <v>3</v>
       </c>
-      <c r="F125" s="23">
+      <c r="F125" s="19">
         <v>1</v>
       </c>
-      <c r="G125" s="23">
+      <c r="G125" s="19">
         <v>3</v>
       </c>
-      <c r="H125" s="24" t="s">
+      <c r="H125" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A126" s="10" t="s">
+    <row r="126" spans="1:8">
+      <c r="A126" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E126" s="23">
+      <c r="E126" s="19">
         <v>4</v>
       </c>
-      <c r="F126" s="23">
+      <c r="F126" s="19">
         <v>2</v>
       </c>
-      <c r="G126" s="23">
+      <c r="G126" s="19">
         <v>3</v>
       </c>
-      <c r="H126" s="24" t="s">
+      <c r="H126" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="E127" s="23">
+    <row r="127" spans="1:8">
+      <c r="E127" s="19">
         <v>5</v>
       </c>
-      <c r="F127" s="23">
+      <c r="F127" s="19">
         <v>2</v>
       </c>
-      <c r="G127" s="23">
+      <c r="G127" s="19">
         <v>4</v>
       </c>
-      <c r="H127" s="23" t="s">
+      <c r="H127" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A128" s="19" t="s">
+    <row r="128" spans="1:8" ht="14.4">
+      <c r="A128" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="B128" s="20"/>
-      <c r="C128" s="20"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A129" s="9" t="s">
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+    </row>
+    <row r="129" spans="1:12" ht="27.6">
+      <c r="A129" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E129" s="24" t="s">
+      <c r="E129" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F129" s="24" t="s">
+      <c r="F129" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G129" s="24" t="s">
+      <c r="G129" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H129" s="24" t="s">
+      <c r="H129" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I129" s="24" t="s">
+      <c r="I129" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J129" s="24" t="s">
+      <c r="J129" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K129" s="24" t="s">
+      <c r="K129" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="L129" s="24" t="s">
+      <c r="L129" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A130" s="10" t="s">
+    <row r="130" spans="1:12">
+      <c r="A130" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E130" s="25">
+      <c r="E130" s="22">
         <v>1</v>
       </c>
-      <c r="F130" s="25">
+      <c r="F130" s="22">
         <v>1</v>
       </c>
-      <c r="G130" s="25">
+      <c r="G130" s="22">
         <v>1</v>
       </c>
-      <c r="H130" s="25">
+      <c r="H130" s="22">
         <v>1</v>
       </c>
-      <c r="I130" s="25">
+      <c r="I130" s="22">
         <v>1002</v>
       </c>
-      <c r="J130" s="25" t="s">
+      <c r="J130" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="K130" s="25" t="s">
+      <c r="K130" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L130" s="25" t="s">
+      <c r="L130" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A131" s="10" t="s">
+    <row r="131" spans="1:12">
+      <c r="A131" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E131" s="25">
+      <c r="E131" s="22">
         <v>2</v>
       </c>
-      <c r="F131" s="25">
+      <c r="F131" s="22">
         <v>1</v>
       </c>
-      <c r="G131" s="25">
+      <c r="G131" s="22">
         <v>1</v>
       </c>
-      <c r="H131" s="25">
+      <c r="H131" s="22">
         <v>2</v>
       </c>
-      <c r="I131" s="25">
+      <c r="I131" s="22">
         <v>1003</v>
       </c>
-      <c r="J131" s="25" t="s">
+      <c r="J131" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="K131" s="25" t="s">
+      <c r="K131" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L131" s="25" t="s">
+      <c r="L131" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A132" s="10" t="s">
+    <row r="132" spans="1:12">
+      <c r="A132" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E132" s="25">
+      <c r="E132" s="22">
         <v>3</v>
       </c>
-      <c r="F132" s="25">
+      <c r="F132" s="22">
         <v>1</v>
       </c>
-      <c r="G132" s="25">
+      <c r="G132" s="22">
         <v>1</v>
       </c>
-      <c r="H132" s="25">
+      <c r="H132" s="22">
         <v>3</v>
       </c>
-      <c r="I132" s="25">
+      <c r="I132" s="22">
         <v>1004</v>
       </c>
-      <c r="J132" s="25" t="s">
+      <c r="J132" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="K132" s="25" t="s">
+      <c r="K132" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L132" s="25" t="s">
+      <c r="L132" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A133" s="10" t="s">
+    <row r="133" spans="1:12">
+      <c r="A133" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E133" s="26">
+      <c r="E133" s="23">
         <v>4</v>
       </c>
-      <c r="F133" s="26">
+      <c r="F133" s="23">
         <v>1</v>
       </c>
-      <c r="G133" s="26">
+      <c r="G133" s="23">
         <v>2</v>
       </c>
-      <c r="H133" s="26">
+      <c r="H133" s="23">
         <v>1</v>
       </c>
-      <c r="I133" s="26">
+      <c r="I133" s="23">
         <v>1002</v>
       </c>
-      <c r="J133" s="26" t="s">
+      <c r="J133" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="K133" s="29">
+      <c r="K133" s="24">
         <v>45500.625</v>
       </c>
-      <c r="L133" s="26" t="s">
+      <c r="L133" s="23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A134" s="10" t="s">
+    <row r="134" spans="1:12">
+      <c r="A134" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E134" s="26">
+      <c r="E134" s="23">
         <v>5</v>
       </c>
-      <c r="F134" s="26">
+      <c r="F134" s="23">
         <v>1</v>
       </c>
-      <c r="G134" s="26">
+      <c r="G134" s="23">
         <v>2</v>
       </c>
-      <c r="H134" s="26">
+      <c r="H134" s="23">
         <v>2</v>
       </c>
-      <c r="I134" s="26">
+      <c r="I134" s="23">
         <v>1003</v>
       </c>
-      <c r="J134" s="26" t="s">
+      <c r="J134" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="K134" s="29">
+      <c r="K134" s="24">
         <v>45500.645833333336</v>
       </c>
-      <c r="L134" s="26" t="s">
+      <c r="L134" s="23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A135" s="10" t="s">
+    <row r="135" spans="1:12">
+      <c r="A135" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E135" s="26">
+      <c r="E135" s="23">
         <v>6</v>
       </c>
-      <c r="F135" s="26">
+      <c r="F135" s="23">
         <v>1</v>
       </c>
-      <c r="G135" s="26">
+      <c r="G135" s="23">
         <v>2</v>
       </c>
-      <c r="H135" s="26">
+      <c r="H135" s="23">
         <v>3</v>
       </c>
-      <c r="I135" s="26">
+      <c r="I135" s="23">
         <v>1004</v>
       </c>
-      <c r="J135" s="26" t="s">
+      <c r="J135" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K135" s="26" t="s">
+      <c r="K135" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="L135" s="26" t="s">
+      <c r="L135" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A136" s="10" t="s">
+    <row r="136" spans="1:12">
+      <c r="A136" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E136" s="27">
+      <c r="E136" s="25">
         <v>7</v>
       </c>
-      <c r="F136" s="27">
+      <c r="F136" s="25">
         <v>2</v>
       </c>
-      <c r="G136" s="27">
+      <c r="G136" s="25">
         <v>1</v>
       </c>
-      <c r="H136" s="28">
+      <c r="H136" s="26">
         <v>4</v>
       </c>
-      <c r="I136" s="28">
+      <c r="I136" s="26">
         <v>1004</v>
       </c>
-      <c r="J136" s="27" t="s">
+      <c r="J136" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="K136" s="30">
+      <c r="K136" s="27">
         <v>45500.625</v>
       </c>
-      <c r="L136" s="27" t="s">
+      <c r="L136" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A137" s="10" t="s">
+    <row r="137" spans="1:12">
+      <c r="A137" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E137" s="27">
+      <c r="E137" s="25">
         <v>8</v>
       </c>
-      <c r="F137" s="27">
+      <c r="F137" s="25">
         <v>2</v>
       </c>
-      <c r="G137" s="27">
+      <c r="G137" s="25">
         <v>1</v>
       </c>
-      <c r="H137" s="28">
+      <c r="H137" s="26">
         <v>5</v>
       </c>
-      <c r="I137" s="28">
+      <c r="I137" s="26">
         <v>1005</v>
       </c>
-      <c r="J137" s="27" t="s">
+      <c r="J137" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="K137" s="27" t="s">
+      <c r="K137" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="L137" s="27" t="s">
+      <c r="L137" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A139" s="21" t="s">
+    <row r="139" spans="1:12">
+      <c r="A139" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A140" s="18"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A142" s="18"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A143" s="18"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A145" s="17" t="s">
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="29"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="29"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="30"/>
+      <c r="B144" s="30"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="B145" s="18"/>
-      <c r="C145" s="18"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A146" s="18"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A147" s="18"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A148" s="18"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A149" s="18"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="29"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="29"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="29"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="29"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A145:C149"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A139:C143"/>
     <mergeCell ref="A102:C102"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
@@ -4011,12 +4036,6 @@
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A145:C149"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A139:C143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4028,110 +4047,110 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51.21875" customWidth="1"/>
     <col min="2" max="2" width="51.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>183</v>
       </c>
@@ -4152,727 +4171,727 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="179" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1" ht="17.399999999999999">
+      <c r="A1" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1" ht="17.399999999999999">
+      <c r="A2" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:1" ht="17.399999999999999">
+      <c r="A3" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:1" ht="17.399999999999999">
+      <c r="A4" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1" ht="17.399999999999999">
+      <c r="A5" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="6" spans="1:1" ht="17.399999999999999">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1" ht="17.399999999999999">
+      <c r="A7" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:1" ht="17.399999999999999">
+      <c r="A8" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1" ht="17.399999999999999">
+      <c r="A9" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:1" ht="17.399999999999999">
+      <c r="A10" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:1" ht="17.399999999999999">
+      <c r="A11" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="12" spans="1:1" ht="17.399999999999999">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1" ht="17.399999999999999">
+      <c r="A13" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:1" ht="17.399999999999999">
+      <c r="A14" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:1" ht="17.399999999999999">
+      <c r="A15" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:1" ht="17.399999999999999">
+      <c r="A16" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1" ht="17.399999999999999">
+      <c r="A17" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="18" spans="1:1" ht="17.399999999999999">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="17.399999999999999">
+      <c r="A19" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:1" ht="17.399999999999999">
+      <c r="A20" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1" ht="17.399999999999999">
+      <c r="A21" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:1" ht="17.399999999999999">
+      <c r="A22" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:1" ht="17.399999999999999">
+      <c r="A23" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:1" ht="17.399999999999999">
+      <c r="A24" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:1" ht="17.399999999999999">
+      <c r="A25" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:1" ht="17.399999999999999">
+      <c r="A26" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1" ht="17.399999999999999">
+      <c r="A27" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:1" ht="17.399999999999999">
+      <c r="A28" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:1" ht="17.399999999999999">
+      <c r="A29" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:1" ht="17.399999999999999">
+      <c r="A30" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:1" ht="17.399999999999999">
+      <c r="A31" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:1" ht="17.399999999999999">
+      <c r="A32" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1" ht="17.399999999999999">
+      <c r="A33" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:1" ht="17.399999999999999">
+      <c r="A34" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:1" ht="17.399999999999999">
+      <c r="A35" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:1" ht="17.399999999999999">
+      <c r="A36" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:1" ht="17.399999999999999">
+      <c r="A37" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+    <row r="38" spans="1:1" ht="17.399999999999999">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" ht="17.399999999999999">
+      <c r="A39" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:1" ht="17.399999999999999">
+      <c r="A40" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:1" ht="17.399999999999999">
+      <c r="A41" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:1" ht="17.399999999999999">
+      <c r="A42" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:1" ht="17.399999999999999">
+      <c r="A43" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:1" ht="17.399999999999999">
+      <c r="A44" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:1" ht="17.399999999999999">
+      <c r="A45" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:1" ht="17.399999999999999">
+      <c r="A46" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:1" ht="17.399999999999999">
+      <c r="A47" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:1" ht="17.399999999999999">
+      <c r="A48" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:1" ht="17.399999999999999">
+      <c r="A49" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:1" ht="17.399999999999999">
+      <c r="A50" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:1" ht="17.399999999999999">
+      <c r="A51" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+    <row r="52" spans="1:1" ht="17.399999999999999">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" ht="17.399999999999999">
+      <c r="A53" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:1" ht="17.399999999999999">
+      <c r="A54" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:1" ht="17.399999999999999">
+      <c r="A55" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:1" ht="17.399999999999999">
+      <c r="A56" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:1" ht="17.399999999999999">
+      <c r="A57" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:1" ht="17.399999999999999">
+      <c r="A58" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:1" ht="17.399999999999999">
+      <c r="A59" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:1" ht="17.399999999999999">
+      <c r="A60" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:1" ht="17.399999999999999">
+      <c r="A61" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:1" ht="17.399999999999999">
+      <c r="A62" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:1" ht="17.399999999999999">
+      <c r="A63" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:1" ht="17.399999999999999">
+      <c r="A64" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:1" ht="17.399999999999999">
+      <c r="A65" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:1" ht="17.399999999999999">
+      <c r="A66" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:1" ht="17.399999999999999">
+      <c r="A67" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:1" ht="17.399999999999999">
+      <c r="A68" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:1" ht="17.399999999999999">
+      <c r="A69" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:1" ht="17.399999999999999">
+      <c r="A70" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:1" ht="17.399999999999999">
+      <c r="A71" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:1" ht="17.399999999999999">
+      <c r="A72" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:1" ht="17.399999999999999">
+      <c r="A73" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:1" ht="17.399999999999999">
+      <c r="A74" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:1" ht="17.399999999999999">
+      <c r="A75" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:1" ht="17.399999999999999">
+      <c r="A76" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:1" ht="17.399999999999999">
+      <c r="A77" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:1" ht="17.399999999999999">
+      <c r="A78" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-    </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+    <row r="79" spans="1:1" ht="17.399999999999999">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:1" ht="17.399999999999999">
+      <c r="A80" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:1" ht="17.399999999999999">
+      <c r="A81" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:1" ht="17.399999999999999">
+      <c r="A82" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:1" ht="17.399999999999999">
+      <c r="A83" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:1" ht="17.399999999999999">
+      <c r="A84" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:1" ht="17.399999999999999">
+      <c r="A85" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:1" ht="17.399999999999999">
+      <c r="A86" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:1" ht="17.399999999999999">
+      <c r="A87" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-    </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+    <row r="88" spans="1:1" ht="17.399999999999999">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" ht="17.399999999999999">
+      <c r="A89" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:1" ht="17.399999999999999">
+      <c r="A90" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:1" ht="17.399999999999999">
+      <c r="A91" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:1" ht="17.399999999999999">
+      <c r="A92" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:1" ht="17.399999999999999">
+      <c r="A93" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-    </row>
-    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+    <row r="94" spans="1:1" ht="17.399999999999999">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:1" ht="17.399999999999999">
+      <c r="A95" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:1" ht="17.399999999999999">
+      <c r="A96" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:1" ht="17.399999999999999">
+      <c r="A97" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:1" ht="17.399999999999999">
+      <c r="A98" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:1" ht="17.399999999999999">
+      <c r="A99" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-    </row>
-    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
+    <row r="100" spans="1:1" ht="17.399999999999999">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101" spans="1:1" ht="17.399999999999999">
+      <c r="A101" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
+    <row r="102" spans="1:1" ht="17.399999999999999">
+      <c r="A102" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:1" ht="17.399999999999999">
+      <c r="A103" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:1" ht="17.399999999999999">
+      <c r="A104" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:1" ht="17.399999999999999">
+      <c r="A105" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:1" ht="17.399999999999999">
+      <c r="A106" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:1" ht="17.399999999999999">
+      <c r="A107" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
+    <row r="108" spans="1:1" ht="17.399999999999999">
+      <c r="A108" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
+    <row r="109" spans="1:1" ht="17.399999999999999">
+      <c r="A109" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
-    </row>
-    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
+    <row r="110" spans="1:1" ht="17.399999999999999">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:1" ht="17.399999999999999">
+      <c r="A111" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
+    <row r="112" spans="1:1" ht="17.399999999999999">
+      <c r="A112" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:1" ht="17.399999999999999">
+      <c r="A113" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
+    <row r="114" spans="1:1" ht="17.399999999999999">
+      <c r="A114" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+    <row r="115" spans="1:1" ht="17.399999999999999">
+      <c r="A115" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
-    </row>
-    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
+    <row r="116" spans="1:1" ht="17.399999999999999">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117" spans="1:1" ht="17.399999999999999">
+      <c r="A117" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
+    <row r="118" spans="1:1" ht="17.399999999999999">
+      <c r="A118" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+    <row r="119" spans="1:1" ht="17.399999999999999">
+      <c r="A119" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
+    <row r="120" spans="1:1" ht="17.399999999999999">
+      <c r="A120" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
+    <row r="121" spans="1:1" ht="17.399999999999999">
+      <c r="A121" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
+    <row r="122" spans="1:1" ht="17.399999999999999">
+      <c r="A122" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
+    <row r="123" spans="1:1" ht="17.399999999999999">
+      <c r="A123" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
-    </row>
-    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
+    <row r="124" spans="1:1" ht="17.399999999999999">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125" spans="1:1" ht="17.399999999999999">
+      <c r="A125" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
+    <row r="126" spans="1:1" ht="17.399999999999999">
+      <c r="A126" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
+    <row r="127" spans="1:1" ht="17.399999999999999">
+      <c r="A127" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
+    <row r="128" spans="1:1" ht="17.399999999999999">
+      <c r="A128" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
+    <row r="129" spans="1:1" ht="17.399999999999999">
+      <c r="A129" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
+    <row r="130" spans="1:1" ht="17.399999999999999">
+      <c r="A130" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A131" s="5" t="s">
+    <row r="131" spans="1:1" ht="17.399999999999999">
+      <c r="A131" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
+    <row r="132" spans="1:1" ht="17.399999999999999">
+      <c r="A132" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
+    <row r="133" spans="1:1" ht="17.399999999999999">
+      <c r="A133" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
+    <row r="134" spans="1:1" ht="17.399999999999999">
+      <c r="A134" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
+    <row r="135" spans="1:1" ht="17.399999999999999">
+      <c r="A135" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
-    </row>
-    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
+    <row r="136" spans="1:1" ht="17.399999999999999">
+      <c r="A136" s="4"/>
+    </row>
+    <row r="137" spans="1:1" ht="17.399999999999999">
+      <c r="A137" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
+    <row r="138" spans="1:1" ht="17.399999999999999">
+      <c r="A138" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
+    <row r="139" spans="1:1" ht="17.399999999999999">
+      <c r="A139" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:1" ht="17.399999999999999">
+      <c r="A140" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
+    <row r="141" spans="1:1" ht="17.399999999999999">
+      <c r="A141" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
+    <row r="142" spans="1:1" ht="17.399999999999999">
+      <c r="A142" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
+    <row r="143" spans="1:1" ht="17.399999999999999">
+      <c r="A143" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
+    <row r="144" spans="1:1" ht="17.399999999999999">
+      <c r="A144" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
+    <row r="145" spans="1:1" ht="17.399999999999999">
+      <c r="A145" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
+    <row r="146" spans="1:1" ht="17.399999999999999">
+      <c r="A146" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
+    <row r="147" spans="1:1" ht="17.399999999999999">
+      <c r="A147" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
+    <row r="148" spans="1:1" ht="17.399999999999999">
+      <c r="A148" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
+    <row r="149" spans="1:1" ht="17.399999999999999">
+      <c r="A149" s="4" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4889,773 +4908,773 @@
       <selection sqref="A1:A168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="11" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="11" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="11" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="11" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="11" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="11" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="11" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="11" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="11" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="11" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="11" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="11" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="11" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="11" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="11" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="11" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="11" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="11" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="11" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="11" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="11" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="11" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="11" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="11" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="11" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="11" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="11" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="11" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="11" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="11" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="11" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="11" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="11" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="11" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="11" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="11" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="11" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="11" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="11" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="11" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="11" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="11" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="11" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="11" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="11" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="11" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="11" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="11" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="11" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="16" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="11" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="11" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="11" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="16" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="11" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="11" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="11" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="11" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="11" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="11" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="16" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" s="11" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="11" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="16" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="11" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="11" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="16" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="11" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="16" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="11" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="16" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="11" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="16" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" s="11" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="16" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="16" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="11" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="16" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="11" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="16" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="11" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="16" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="16" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" s="11" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="16" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="11" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="16" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="16" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" s="11" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="16" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" s="11" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="16" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" s="11" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="16" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="16" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" s="11" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="16" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="11" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="16" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" s="11" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="16" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" s="11" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="16" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="16" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" s="11" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="16" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" s="11" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="16" t="s">
+    <row r="116" spans="1:1">
+      <c r="A116" s="11" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="16" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" s="11" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="16" t="s">
+    <row r="118" spans="1:1">
+      <c r="A118" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="16" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" s="11" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="16" t="s">
+    <row r="121" spans="1:1">
+      <c r="A121" s="11" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="16" t="s">
+    <row r="122" spans="1:1">
+      <c r="A122" s="11" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="16" t="s">
+    <row r="123" spans="1:1">
+      <c r="A123" s="11" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="16" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="11" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="16" t="s">
+    <row r="125" spans="1:1">
+      <c r="A125" s="11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="16" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="11" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="16" t="s">
+    <row r="127" spans="1:1">
+      <c r="A127" s="11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="16" t="s">
+    <row r="128" spans="1:1">
+      <c r="A128" s="11" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="16" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="11" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="16" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="16" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="11" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="16" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" s="11" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="16" t="s">
+    <row r="134" spans="1:1">
+      <c r="A134" s="11" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="16" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" s="11" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="16" t="s">
+    <row r="136" spans="1:1">
+      <c r="A136" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="16" t="s">
+    <row r="138" spans="1:1">
+      <c r="A138" s="11" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="16" t="s">
+    <row r="139" spans="1:1">
+      <c r="A139" s="11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="16" t="s">
+    <row r="140" spans="1:1">
+      <c r="A140" s="11" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="16" t="s">
+    <row r="141" spans="1:1">
+      <c r="A141" s="11" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="16" t="s">
+    <row r="142" spans="1:1">
+      <c r="A142" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="16" t="s">
+    <row r="144" spans="1:1">
+      <c r="A144" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="16" t="s">
+    <row r="145" spans="1:1">
+      <c r="A145" s="11" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="16" t="s">
+    <row r="146" spans="1:1">
+      <c r="A146" s="11" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="16" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" s="11" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="16" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="16" t="s">
+    <row r="149" spans="1:1">
+      <c r="A149" s="11" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="16" t="s">
+    <row r="150" spans="1:1">
+      <c r="A150" s="11" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="16" t="s">
+    <row r="151" spans="1:1">
+      <c r="A151" s="11" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="16" t="s">
+    <row r="152" spans="1:1">
+      <c r="A152" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="16" t="s">
+    <row r="154" spans="1:1">
+      <c r="A154" s="11" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="16" t="s">
+    <row r="155" spans="1:1">
+      <c r="A155" s="11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="16" t="s">
+    <row r="156" spans="1:1">
+      <c r="A156" s="11" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="16" t="s">
+    <row r="157" spans="1:1">
+      <c r="A157" s="11" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="16" t="s">
+    <row r="158" spans="1:1">
+      <c r="A158" s="11" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="16" t="s">
+    <row r="159" spans="1:1">
+      <c r="A159" s="11" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="16" t="s">
+    <row r="160" spans="1:1">
+      <c r="A160" s="11" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="16" t="s">
+    <row r="161" spans="1:1">
+      <c r="A161" s="11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="16" t="s">
+    <row r="162" spans="1:1">
+      <c r="A162" s="11" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="16" t="s">
+    <row r="163" spans="1:1">
+      <c r="A163" s="11" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="16" t="s">
+    <row r="164" spans="1:1">
+      <c r="A164" s="11" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="16" t="s">
+    <row r="165" spans="1:1">
+      <c r="A165" s="11" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="16" t="s">
+    <row r="166" spans="1:1">
+      <c r="A166" s="11" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="16" t="s">
+    <row r="167" spans="1:1">
+      <c r="A167" s="11" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="16" t="s">
+    <row r="168" spans="1:1">
+      <c r="A168" s="11" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5672,663 +5691,663 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="58.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:1" ht="17.399999999999999">
+      <c r="A2" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:1" ht="17.399999999999999">
+      <c r="A3" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:1" ht="17.399999999999999">
+      <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:1" ht="17.399999999999999">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="6" spans="1:1" ht="17.399999999999999">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:1" ht="17.399999999999999">
+      <c r="A7" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:1" ht="17.399999999999999">
+      <c r="A8" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:1" ht="17.399999999999999">
+      <c r="A9" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:1" ht="17.399999999999999">
+      <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="11" spans="1:1" ht="17.399999999999999">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:1" ht="17.399999999999999">
+      <c r="A12" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:1" ht="17.399999999999999">
+      <c r="A13" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:1" ht="17.399999999999999">
+      <c r="A14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:1" ht="17.399999999999999">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="16" spans="1:1" ht="17.399999999999999">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" ht="17.399999999999999">
+      <c r="A17" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:1" ht="17.399999999999999">
+      <c r="A18" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:1" ht="17.399999999999999">
+      <c r="A19" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:1" ht="17.399999999999999">
+      <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:1" ht="17.399999999999999">
+      <c r="A21" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:1" ht="17.399999999999999">
+      <c r="A22" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:1" ht="17.399999999999999">
+      <c r="A23" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:1" ht="17.399999999999999">
+      <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:1" ht="17.399999999999999">
+      <c r="A25" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:1" ht="17.399999999999999">
+      <c r="A26" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:1" ht="17.399999999999999">
+      <c r="A27" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:1" ht="17.399999999999999">
+      <c r="A28" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:1" ht="17.399999999999999">
+      <c r="A29" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:1" ht="17.399999999999999">
+      <c r="A30" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:1" ht="17.399999999999999">
+      <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:1" ht="17.399999999999999">
+      <c r="A32" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:1" ht="17.399999999999999">
+      <c r="A33" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:1" ht="17.399999999999999">
+      <c r="A34" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+    <row r="35" spans="1:1" ht="17.399999999999999">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" ht="17.399999999999999">
+      <c r="A36" s="7" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:1" ht="17.399999999999999">
+      <c r="A37" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:1" ht="17.399999999999999">
+      <c r="A38" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:1" ht="17.399999999999999">
+      <c r="A39" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="40" spans="1:1" ht="17.399999999999999">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" ht="17.399999999999999">
+      <c r="A41" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:1" ht="17.399999999999999">
+      <c r="A42" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:1" ht="17.399999999999999">
+      <c r="A43" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:1" ht="17.399999999999999">
+      <c r="A44" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+    <row r="45" spans="1:1" ht="17.399999999999999">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:1" ht="17.399999999999999">
+      <c r="A46" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:1" ht="17.399999999999999">
+      <c r="A47" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+    <row r="48" spans="1:1" ht="17.399999999999999">
+      <c r="A48" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+    <row r="49" spans="1:1" ht="17.399999999999999">
+      <c r="A49" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+    <row r="50" spans="1:1" ht="17.399999999999999">
+      <c r="A50" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+    <row r="51" spans="1:1" ht="17.399999999999999">
+      <c r="A51" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+    <row r="52" spans="1:1" ht="17.399999999999999">
+      <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+    <row r="53" spans="1:1" ht="17.399999999999999">
+      <c r="A53" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:1" ht="17.399999999999999">
+      <c r="A54" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+    <row r="55" spans="1:1" ht="17.399999999999999">
+      <c r="A55" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+    <row r="56" spans="1:1" ht="17.399999999999999">
+      <c r="A56" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+    <row r="57" spans="1:1" ht="17.399999999999999">
+      <c r="A57" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-    </row>
-    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+    <row r="58" spans="1:1" ht="17.399999999999999">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:1" ht="17.399999999999999">
+      <c r="A59" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:1" ht="17.399999999999999">
+      <c r="A60" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
+    <row r="61" spans="1:1" ht="17.399999999999999">
+      <c r="A61" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+    <row r="62" spans="1:1" ht="17.399999999999999">
+      <c r="A62" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+    <row r="63" spans="1:1" ht="17.399999999999999">
+      <c r="A63" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+    <row r="64" spans="1:1" ht="17.399999999999999">
+      <c r="A64" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+    <row r="65" spans="1:1" ht="17.399999999999999">
+      <c r="A65" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+    <row r="66" spans="1:1" ht="17.399999999999999">
+      <c r="A66" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
+    <row r="67" spans="1:1" ht="17.399999999999999">
+      <c r="A67" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
+    <row r="68" spans="1:1" ht="17.399999999999999">
+      <c r="A68" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
+    <row r="69" spans="1:1" ht="17.399999999999999">
+      <c r="A69" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+    <row r="70" spans="1:1" ht="17.399999999999999">
+      <c r="A70" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+    <row r="71" spans="1:1" ht="17.399999999999999">
+      <c r="A71" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
+    <row r="72" spans="1:1" ht="17.399999999999999">
+      <c r="A72" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
+    <row r="73" spans="1:1" ht="17.399999999999999">
+      <c r="A73" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:1" ht="17.399999999999999">
+      <c r="A74" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
+    <row r="75" spans="1:1" ht="17.399999999999999">
+      <c r="A75" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
+    <row r="76" spans="1:1" ht="17.399999999999999">
+      <c r="A76" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
+    <row r="77" spans="1:1" ht="17.399999999999999">
+      <c r="A77" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
+    <row r="78" spans="1:1" ht="17.399999999999999">
+      <c r="A78" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
+    <row r="79" spans="1:1" ht="17.399999999999999">
+      <c r="A79" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+    <row r="80" spans="1:1" ht="17.399999999999999">
+      <c r="A80" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
+    <row r="81" spans="1:1" ht="17.399999999999999">
+      <c r="A81" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
+    <row r="82" spans="1:1" ht="17.399999999999999">
+      <c r="A82" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-    </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+    <row r="83" spans="1:1" ht="17.399999999999999">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:1" ht="17.399999999999999">
+      <c r="A84" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+    <row r="85" spans="1:1" ht="17.399999999999999">
+      <c r="A85" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
+    <row r="86" spans="1:1" ht="17.399999999999999">
+      <c r="A86" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+    <row r="87" spans="1:1" ht="17.399999999999999">
+      <c r="A87" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
+    <row r="88" spans="1:1" ht="17.399999999999999">
+      <c r="A88" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="14" t="s">
+    <row r="89" spans="1:1" ht="17.399999999999999">
+      <c r="A89" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A90" s="14" t="s">
+    <row r="90" spans="1:1" ht="17.399999999999999">
+      <c r="A90" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A91" s="15"/>
-    </row>
-    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
+    <row r="91" spans="1:1" ht="17.399999999999999">
+      <c r="A91" s="10"/>
+    </row>
+    <row r="92" spans="1:1" ht="17.399999999999999">
+      <c r="A92" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
+    <row r="93" spans="1:1" ht="17.399999999999999">
+      <c r="A93" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
+    <row r="94" spans="1:1" ht="17.399999999999999">
+      <c r="A94" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
+    <row r="95" spans="1:1" ht="17.399999999999999">
+      <c r="A95" s="9" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
-    </row>
-    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
+    <row r="96" spans="1:1" ht="17.399999999999999">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:1" ht="17.399999999999999">
+      <c r="A97" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
+    <row r="98" spans="1:1" ht="17.399999999999999">
+      <c r="A98" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A99" s="14" t="s">
+    <row r="99" spans="1:1" ht="17.399999999999999">
+      <c r="A99" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A100" s="14" t="s">
+    <row r="100" spans="1:1" ht="17.399999999999999">
+      <c r="A100" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-    </row>
-    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A102" s="12" t="s">
+    <row r="101" spans="1:1" ht="17.399999999999999">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:1" ht="17.399999999999999">
+      <c r="A102" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A103" s="13" t="s">
+    <row r="103" spans="1:1" ht="17.399999999999999">
+      <c r="A103" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A104" s="14" t="s">
+    <row r="104" spans="1:1" ht="17.399999999999999">
+      <c r="A104" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
+    <row r="105" spans="1:1" ht="17.399999999999999">
+      <c r="A105" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A106" s="14" t="s">
+    <row r="106" spans="1:1" ht="17.399999999999999">
+      <c r="A106" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A107" s="14" t="s">
+    <row r="107" spans="1:1" ht="17.399999999999999">
+      <c r="A107" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A108" s="14" t="s">
+    <row r="108" spans="1:1" ht="17.399999999999999">
+      <c r="A108" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A109" s="14" t="s">
+    <row r="109" spans="1:1" ht="17.399999999999999">
+      <c r="A109" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A110" s="7"/>
-    </row>
-    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A111" s="12" t="s">
+    <row r="110" spans="1:1" ht="17.399999999999999">
+      <c r="A110" s="6"/>
+    </row>
+    <row r="111" spans="1:1" ht="17.399999999999999">
+      <c r="A111" s="7" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A112" s="13" t="s">
+    <row r="112" spans="1:1" ht="17.399999999999999">
+      <c r="A112" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A113" s="14" t="s">
+    <row r="113" spans="1:1" ht="17.399999999999999">
+      <c r="A113" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A114" s="14" t="s">
+    <row r="114" spans="1:1" ht="17.399999999999999">
+      <c r="A114" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
-    </row>
-    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
+    <row r="115" spans="1:1" ht="17.399999999999999">
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:1" ht="17.399999999999999">
+      <c r="A116" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A117" s="13" t="s">
+    <row r="117" spans="1:1" ht="17.399999999999999">
+      <c r="A117" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A118" s="14" t="s">
+    <row r="118" spans="1:1" ht="17.399999999999999">
+      <c r="A118" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A119" s="14" t="s">
+    <row r="119" spans="1:1" ht="17.399999999999999">
+      <c r="A119" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-    </row>
-    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
+    <row r="120" spans="1:1" ht="17.399999999999999">
+      <c r="A120" s="6"/>
+    </row>
+    <row r="121" spans="1:1" ht="17.399999999999999">
+      <c r="A121" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A122" s="13" t="s">
+    <row r="122" spans="1:1" ht="17.399999999999999">
+      <c r="A122" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A123" s="14" t="s">
+    <row r="123" spans="1:1" ht="17.399999999999999">
+      <c r="A123" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="14" t="s">
+    <row r="124" spans="1:1" ht="17.399999999999999">
+      <c r="A124" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A125" s="14" t="s">
+    <row r="125" spans="1:1" ht="17.399999999999999">
+      <c r="A125" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
+    <row r="126" spans="1:1" ht="17.399999999999999">
+      <c r="A126" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A127" s="7"/>
-    </row>
-    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
+    <row r="127" spans="1:1" ht="17.399999999999999">
+      <c r="A127" s="6"/>
+    </row>
+    <row r="128" spans="1:1" ht="17.399999999999999">
+      <c r="A128" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A129" s="13" t="s">
+    <row r="129" spans="1:1" ht="17.399999999999999">
+      <c r="A129" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A130" s="14" t="s">
+    <row r="130" spans="1:1" ht="17.399999999999999">
+      <c r="A130" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A131" s="14" t="s">
+    <row r="131" spans="1:1" ht="17.399999999999999">
+      <c r="A131" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A132" s="14" t="s">
+    <row r="132" spans="1:1" ht="17.399999999999999">
+      <c r="A132" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A133" s="14" t="s">
+    <row r="133" spans="1:1" ht="17.399999999999999">
+      <c r="A133" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A134" s="14" t="s">
+    <row r="134" spans="1:1" ht="17.399999999999999">
+      <c r="A134" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A135" s="14" t="s">
+    <row r="135" spans="1:1" ht="17.399999999999999">
+      <c r="A135" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A136" s="14" t="s">
+    <row r="136" spans="1:1" ht="17.399999999999999">
+      <c r="A136" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A137" s="14" t="s">
+    <row r="137" spans="1:1" ht="17.399999999999999">
+      <c r="A137" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6345,660 +6364,660 @@
       <selection sqref="A1:A137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:1" ht="17.399999999999999">
+      <c r="A2" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:1" ht="17.399999999999999">
+      <c r="A3" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:1" ht="17.399999999999999">
+      <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:1" ht="17.399999999999999">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="6" spans="1:1" ht="17.399999999999999">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:1" ht="17.399999999999999">
+      <c r="A7" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:1" ht="17.399999999999999">
+      <c r="A8" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:1" ht="17.399999999999999">
+      <c r="A9" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:1" ht="17.399999999999999">
+      <c r="A10" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="11" spans="1:1" ht="17.399999999999999">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:1" ht="17.399999999999999">
+      <c r="A12" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:1" ht="17.399999999999999">
+      <c r="A13" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:1" ht="17.399999999999999">
+      <c r="A14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:1" ht="17.399999999999999">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="16" spans="1:1" ht="17.399999999999999">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" ht="17.399999999999999">
+      <c r="A17" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:1" ht="17.399999999999999">
+      <c r="A18" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:1" ht="17.399999999999999">
+      <c r="A19" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:1" ht="17.399999999999999">
+      <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:1" ht="17.399999999999999">
+      <c r="A21" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:1" ht="17.399999999999999">
+      <c r="A22" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:1" ht="17.399999999999999">
+      <c r="A23" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:1" ht="17.399999999999999">
+      <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:1" ht="17.399999999999999">
+      <c r="A25" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:1" ht="17.399999999999999">
+      <c r="A26" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:1" ht="17.399999999999999">
+      <c r="A27" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:1" ht="17.399999999999999">
+      <c r="A28" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:1" ht="17.399999999999999">
+      <c r="A29" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:1" ht="17.399999999999999">
+      <c r="A30" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:1" ht="17.399999999999999">
+      <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:1" ht="17.399999999999999">
+      <c r="A32" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:1" ht="17.399999999999999">
+      <c r="A33" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:1" ht="17.399999999999999">
+      <c r="A34" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+    <row r="35" spans="1:1" ht="17.399999999999999">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" ht="17.399999999999999">
+      <c r="A36" s="7" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:1" ht="17.399999999999999">
+      <c r="A37" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:1" ht="17.399999999999999">
+      <c r="A38" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:1" ht="17.399999999999999">
+      <c r="A39" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="40" spans="1:1" ht="17.399999999999999">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" ht="17.399999999999999">
+      <c r="A41" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:1" ht="17.399999999999999">
+      <c r="A42" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:1" ht="17.399999999999999">
+      <c r="A43" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:1" ht="17.399999999999999">
+      <c r="A44" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+    <row r="45" spans="1:1" ht="17.399999999999999">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:1" ht="17.399999999999999">
+      <c r="A46" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:1" ht="17.399999999999999">
+      <c r="A47" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+    <row r="48" spans="1:1" ht="17.399999999999999">
+      <c r="A48" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+    <row r="49" spans="1:1" ht="17.399999999999999">
+      <c r="A49" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+    <row r="50" spans="1:1" ht="17.399999999999999">
+      <c r="A50" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+    <row r="51" spans="1:1" ht="17.399999999999999">
+      <c r="A51" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+    <row r="52" spans="1:1" ht="17.399999999999999">
+      <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+    <row r="53" spans="1:1" ht="17.399999999999999">
+      <c r="A53" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:1" ht="17.399999999999999">
+      <c r="A54" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
+    <row r="55" spans="1:1" ht="17.399999999999999">
+      <c r="A55" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+    <row r="56" spans="1:1" ht="17.399999999999999">
+      <c r="A56" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+    <row r="57" spans="1:1" ht="17.399999999999999">
+      <c r="A57" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-    </row>
-    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+    <row r="58" spans="1:1" ht="17.399999999999999">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:1" ht="17.399999999999999">
+      <c r="A59" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:1" ht="17.399999999999999">
+      <c r="A60" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
+    <row r="61" spans="1:1" ht="17.399999999999999">
+      <c r="A61" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+    <row r="62" spans="1:1" ht="17.399999999999999">
+      <c r="A62" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+    <row r="63" spans="1:1" ht="17.399999999999999">
+      <c r="A63" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+    <row r="64" spans="1:1" ht="17.399999999999999">
+      <c r="A64" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+    <row r="65" spans="1:1" ht="17.399999999999999">
+      <c r="A65" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+    <row r="66" spans="1:1" ht="17.399999999999999">
+      <c r="A66" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
+    <row r="67" spans="1:1" ht="17.399999999999999">
+      <c r="A67" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
+    <row r="68" spans="1:1" ht="17.399999999999999">
+      <c r="A68" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
+    <row r="69" spans="1:1" ht="17.399999999999999">
+      <c r="A69" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+    <row r="70" spans="1:1" ht="17.399999999999999">
+      <c r="A70" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+    <row r="71" spans="1:1" ht="17.399999999999999">
+      <c r="A71" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
+    <row r="72" spans="1:1" ht="17.399999999999999">
+      <c r="A72" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
+    <row r="73" spans="1:1" ht="17.399999999999999">
+      <c r="A73" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:1" ht="17.399999999999999">
+      <c r="A74" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
+    <row r="75" spans="1:1" ht="17.399999999999999">
+      <c r="A75" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
+    <row r="76" spans="1:1" ht="17.399999999999999">
+      <c r="A76" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
+    <row r="77" spans="1:1" ht="17.399999999999999">
+      <c r="A77" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
+    <row r="78" spans="1:1" ht="17.399999999999999">
+      <c r="A78" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
+    <row r="79" spans="1:1" ht="17.399999999999999">
+      <c r="A79" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+    <row r="80" spans="1:1" ht="17.399999999999999">
+      <c r="A80" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
+    <row r="81" spans="1:1" ht="17.399999999999999">
+      <c r="A81" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
+    <row r="82" spans="1:1" ht="17.399999999999999">
+      <c r="A82" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-    </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+    <row r="83" spans="1:1" ht="17.399999999999999">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:1" ht="17.399999999999999">
+      <c r="A84" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+    <row r="85" spans="1:1" ht="17.399999999999999">
+      <c r="A85" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
+    <row r="86" spans="1:1" ht="17.399999999999999">
+      <c r="A86" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+    <row r="87" spans="1:1" ht="17.399999999999999">
+      <c r="A87" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
+    <row r="88" spans="1:1" ht="17.399999999999999">
+      <c r="A88" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="14" t="s">
+    <row r="89" spans="1:1" ht="17.399999999999999">
+      <c r="A89" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A90" s="14" t="s">
+    <row r="90" spans="1:1" ht="17.399999999999999">
+      <c r="A90" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A91" s="15"/>
-    </row>
-    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
+    <row r="91" spans="1:1" ht="17.399999999999999">
+      <c r="A91" s="10"/>
+    </row>
+    <row r="92" spans="1:1" ht="17.399999999999999">
+      <c r="A92" s="7" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
+    <row r="93" spans="1:1" ht="17.399999999999999">
+      <c r="A93" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
+    <row r="94" spans="1:1" ht="17.399999999999999">
+      <c r="A94" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
+    <row r="95" spans="1:1" ht="17.399999999999999">
+      <c r="A95" s="9" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
-    </row>
-    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
+    <row r="96" spans="1:1" ht="17.399999999999999">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:1" ht="17.399999999999999">
+      <c r="A97" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
+    <row r="98" spans="1:1" ht="17.399999999999999">
+      <c r="A98" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A99" s="14" t="s">
+    <row r="99" spans="1:1" ht="17.399999999999999">
+      <c r="A99" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A100" s="14" t="s">
+    <row r="100" spans="1:1" ht="17.399999999999999">
+      <c r="A100" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-    </row>
-    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A102" s="12" t="s">
+    <row r="101" spans="1:1" ht="17.399999999999999">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:1" ht="17.399999999999999">
+      <c r="A102" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A103" s="13" t="s">
+    <row r="103" spans="1:1" ht="17.399999999999999">
+      <c r="A103" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A104" s="14" t="s">
+    <row r="104" spans="1:1" ht="17.399999999999999">
+      <c r="A104" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
+    <row r="105" spans="1:1" ht="17.399999999999999">
+      <c r="A105" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A106" s="14" t="s">
+    <row r="106" spans="1:1" ht="17.399999999999999">
+      <c r="A106" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A107" s="14" t="s">
+    <row r="107" spans="1:1" ht="17.399999999999999">
+      <c r="A107" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A108" s="14" t="s">
+    <row r="108" spans="1:1" ht="17.399999999999999">
+      <c r="A108" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A109" s="14" t="s">
+    <row r="109" spans="1:1" ht="17.399999999999999">
+      <c r="A109" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A110" s="7"/>
-    </row>
-    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A111" s="12" t="s">
+    <row r="110" spans="1:1" ht="17.399999999999999">
+      <c r="A110" s="6"/>
+    </row>
+    <row r="111" spans="1:1" ht="17.399999999999999">
+      <c r="A111" s="7" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A112" s="13" t="s">
+    <row r="112" spans="1:1" ht="17.399999999999999">
+      <c r="A112" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A113" s="14" t="s">
+    <row r="113" spans="1:1" ht="17.399999999999999">
+      <c r="A113" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A114" s="14" t="s">
+    <row r="114" spans="1:1" ht="17.399999999999999">
+      <c r="A114" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
-    </row>
-    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
+    <row r="115" spans="1:1" ht="17.399999999999999">
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:1" ht="17.399999999999999">
+      <c r="A116" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A117" s="13" t="s">
+    <row r="117" spans="1:1" ht="17.399999999999999">
+      <c r="A117" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A118" s="14" t="s">
+    <row r="118" spans="1:1" ht="17.399999999999999">
+      <c r="A118" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A119" s="14" t="s">
+    <row r="119" spans="1:1" ht="17.399999999999999">
+      <c r="A119" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-    </row>
-    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
+    <row r="120" spans="1:1" ht="17.399999999999999">
+      <c r="A120" s="6"/>
+    </row>
+    <row r="121" spans="1:1" ht="17.399999999999999">
+      <c r="A121" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A122" s="13" t="s">
+    <row r="122" spans="1:1" ht="17.399999999999999">
+      <c r="A122" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A123" s="14" t="s">
+    <row r="123" spans="1:1" ht="17.399999999999999">
+      <c r="A123" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="14" t="s">
+    <row r="124" spans="1:1" ht="17.399999999999999">
+      <c r="A124" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A125" s="14" t="s">
+    <row r="125" spans="1:1" ht="17.399999999999999">
+      <c r="A125" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
+    <row r="126" spans="1:1" ht="17.399999999999999">
+      <c r="A126" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A127" s="7"/>
-    </row>
-    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
+    <row r="127" spans="1:1" ht="17.399999999999999">
+      <c r="A127" s="6"/>
+    </row>
+    <row r="128" spans="1:1" ht="17.399999999999999">
+      <c r="A128" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A129" s="13" t="s">
+    <row r="129" spans="1:1" ht="17.399999999999999">
+      <c r="A129" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A130" s="14" t="s">
+    <row r="130" spans="1:1" ht="17.399999999999999">
+      <c r="A130" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A131" s="14" t="s">
+    <row r="131" spans="1:1" ht="17.399999999999999">
+      <c r="A131" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A132" s="14" t="s">
+    <row r="132" spans="1:1" ht="17.399999999999999">
+      <c r="A132" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A133" s="14" t="s">
+    <row r="133" spans="1:1" ht="17.399999999999999">
+      <c r="A133" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A134" s="14" t="s">
+    <row r="134" spans="1:1" ht="17.399999999999999">
+      <c r="A134" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A135" s="14" t="s">
+    <row r="135" spans="1:1" ht="17.399999999999999">
+      <c r="A135" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A136" s="14" t="s">
+    <row r="136" spans="1:1" ht="17.399999999999999">
+      <c r="A136" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A137" s="14" t="s">
+    <row r="137" spans="1:1" ht="17.399999999999999">
+      <c r="A137" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -7015,57 +7034,57 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -1821,7 +1821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1891,11 +1891,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1903,20 +1903,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2209,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.5"/>
@@ -2310,42 +2313,42 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="28" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2356,7 +2359,7 @@
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="14" t="s">
         <v>115</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="15" t="s">
         <v>75</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="15" t="s">
         <v>2</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="15" t="s">
         <v>10</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="15" t="s">
         <v>72</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="15" t="s">
         <v>73</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="15" t="s">
         <v>37</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="15" t="s">
         <v>35</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" s="15" t="s">
         <v>46</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" s="15" t="s">
         <v>6</v>
       </c>
@@ -2466,7 +2469,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="50.4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" ht="50.4" x14ac:dyDescent="0.5">
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="50.4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" ht="50.4" x14ac:dyDescent="0.5">
       <c r="A28" s="15" t="s">
         <v>38</v>
       </c>
@@ -2487,8 +2490,11 @@
       <c r="C28" s="15" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="E28" s="13">
+        <v>869161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" s="15" t="s">
         <v>9</v>
       </c>
@@ -2498,8 +2504,12 @@
       <c r="C29" s="15" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="E29" s="36">
+        <f>E28*7/107</f>
+        <v>56861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" s="15" t="s">
         <v>44</v>
       </c>
@@ -2509,8 +2519,12 @@
       <c r="C30" s="15" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="E30" s="36">
+        <f>E28-E29</f>
+        <v>812300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" s="15" t="s">
         <v>45</v>
       </c>
@@ -2521,7 +2535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="15" t="s">
         <v>29</v>
       </c>
@@ -3994,65 +4008,71 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A139" s="31" t="s">
+      <c r="A139" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="34"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A140" s="28"/>
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="34"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A141" s="28"/>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="34"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A142" s="28"/>
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="34"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A143" s="28"/>
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="34"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A144" s="26"/>
       <c r="B144" s="26"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B145" s="28"/>
-      <c r="C145" s="28"/>
+      <c r="B145" s="34"/>
+      <c r="C145" s="34"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A146" s="28"/>
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="34"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A147" s="28"/>
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
+      <c r="A147" s="34"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="34"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A148" s="28"/>
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="34"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A149" s="28"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A145:C149"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A139:C143"/>
     <mergeCell ref="A102:C102"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
@@ -4065,12 +4085,6 @@
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A145:C149"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A139:C143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="480">
   <si>
     <t>supplier_name</t>
   </si>
@@ -1648,7 +1648,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1695,65 +1695,45 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="TH Sarabun New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="TH Sarabun New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <strike/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="TH Sarabun New"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <strike/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="TH Sarabun New"/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1781,6 +1761,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEDE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,7 +1819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1848,6 +1846,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1859,66 +1863,69 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2212,1867 +2219,1899 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="12"/>
-    <col min="5" max="5" width="16.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="32.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="14"/>
+    <col min="5" max="5" width="16.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A12" s="27" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="14" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="17" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="15">
         <v>869161</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="20">
         <f>E28*7/107</f>
         <v>56861</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="20">
         <f>E28-E29</f>
         <v>812300</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="29" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="14" t="s">
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="21" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="22">
         <v>0</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="22" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="22">
         <v>1</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="22" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="E39" s="17">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="22">
         <v>2</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="22" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="E40" s="17">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="22">
         <v>3</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="22" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" s="14" t="s">
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="21" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="22">
         <v>0</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="22" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="22">
         <v>1</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="22" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="E45" s="17">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="22">
         <v>2</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="22" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A46" s="29" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A47" s="14" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A54" s="15" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A55" s="15" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A56" s="15" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A57" s="15" t="s">
+    <row r="57" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A59" s="29" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A60" s="14" t="s">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A61" s="15" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A62" s="15" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A63" s="15" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A64" s="15" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A65" s="15" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A66" s="15" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A67" s="15" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A68" s="15" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A69" s="15" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A70" s="15" t="s">
+    <row r="70" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A71" s="15" t="s">
+    <row r="71" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A72" s="15" t="s">
+    <row r="72" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A73" s="15" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A74" s="15" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A75" s="15" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A76" s="15" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A77" s="15" t="s">
+    <row r="77" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A78" s="15" t="s">
+    <row r="78" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A79" s="15" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A80" s="15" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A81" s="15" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="17" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A82" s="15" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="17" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A84" s="29" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A85" s="14" t="s">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A86" s="15" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A87" s="15" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A88" s="15" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A89" s="15" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A90" s="15" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A92" s="29" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A93" s="14" t="s">
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="16" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A94" s="15" t="s">
+      <c r="E93" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="F93" s="22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B94" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="17" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A95" s="15" t="s">
+      <c r="E94" s="22">
+        <v>1</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A97" s="29" t="s">
+      <c r="E95" s="22">
+        <v>2</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="22">
+        <v>3</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A98" s="14" t="s">
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="E97" s="22">
+        <v>4</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="16" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A99" s="15" t="s">
+      <c r="E98" s="22">
+        <v>5</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A100" s="15" t="s">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A102" s="29" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A103" s="14" t="s">
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F103" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G103" s="17" t="s">
+      <c r="G103" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H103" s="17" t="s">
+      <c r="H103" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I103" s="17" t="s">
+      <c r="I103" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="J103" s="17" t="s">
+      <c r="J103" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A104" s="15" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E104" s="17">
+      <c r="E104" s="22">
         <v>1001</v>
       </c>
-      <c r="F104" s="17" t="s">
+      <c r="F104" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G104" s="17" t="s">
+      <c r="G104" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H104" s="17" t="s">
+      <c r="H104" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="I104" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J104" s="17"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A105" s="15" t="s">
+      <c r="I104" s="22">
+        <v>1</v>
+      </c>
+      <c r="J104" s="22"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="17">
+      <c r="E105" s="22">
         <v>1002</v>
       </c>
-      <c r="F105" s="17" t="s">
+      <c r="F105" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G105" s="17" t="s">
+      <c r="G105" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H105" s="17" t="s">
+      <c r="H105" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="I105" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="J105" s="17"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A106" s="15" t="s">
+      <c r="I105" s="17">
+        <v>2</v>
+      </c>
+      <c r="J105" s="22"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E106" s="17">
+      <c r="E106" s="22">
         <v>1003</v>
       </c>
-      <c r="F106" s="17" t="s">
+      <c r="F106" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G106" s="17" t="s">
+      <c r="G106" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H106" s="17" t="s">
+      <c r="H106" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I106" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J106" s="17"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A107" s="15" t="s">
+      <c r="I106" s="17">
+        <v>3</v>
+      </c>
+      <c r="J106" s="22"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E107" s="17">
+      <c r="E107" s="22">
         <v>1004</v>
       </c>
-      <c r="F107" s="17" t="s">
+      <c r="F107" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G107" s="17" t="s">
+      <c r="G107" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="17" t="s">
+      <c r="H107" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="I107" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J107" s="17"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A108" s="15" t="s">
+      <c r="I107" s="17">
+        <v>4</v>
+      </c>
+      <c r="J107" s="22"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E108" s="17">
+      <c r="E108" s="22">
         <v>1005</v>
       </c>
-      <c r="F108" s="17" t="s">
+      <c r="F108" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="G108" s="17" t="s">
+      <c r="G108" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H108" s="17" t="s">
+      <c r="H108" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I108" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="J108" s="17"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A109" s="15" t="s">
+      <c r="I108" s="22">
+        <v>5</v>
+      </c>
+      <c r="J108" s="22"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A111" s="29" t="s">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A112" s="14" t="s">
+      <c r="B111" s="35"/>
+      <c r="C111" s="35"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F112" s="16" t="s">
+      <c r="F112" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A113" s="15" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E113" s="17">
+      <c r="E113" s="22">
         <v>0</v>
       </c>
-      <c r="F113" s="17" t="s">
+      <c r="F113" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A114" s="15" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="E114" s="17">
+      <c r="E114" s="22">
         <v>1</v>
       </c>
-      <c r="F114" s="17" t="s">
+      <c r="F114" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="E115" s="17">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E115" s="22">
         <v>2</v>
       </c>
-      <c r="F115" s="17" t="s">
+      <c r="F115" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A116" s="29" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A117" s="14" t="s">
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F117" s="16" t="s">
+      <c r="F117" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A118" s="15" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E118" s="17">
+      <c r="E118" s="22">
         <v>1</v>
       </c>
-      <c r="F118" s="17" t="s">
+      <c r="F118" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A119" s="15" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E119" s="17">
+      <c r="E119" s="22">
         <v>2</v>
       </c>
-      <c r="F119" s="17" t="s">
+      <c r="F119" s="22" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A121" s="29" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-    </row>
-    <row r="122" spans="1:8" ht="27.6" x14ac:dyDescent="0.5">
-      <c r="A122" s="14" t="s">
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E122" s="19" t="s">
+      <c r="E122" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F122" s="16" t="s">
+      <c r="F122" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G122" s="19" t="s">
+      <c r="G122" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H122" s="19" t="s">
+      <c r="H122" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A123" s="15" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E123" s="19">
+      <c r="E123" s="17">
         <v>1</v>
       </c>
-      <c r="F123" s="17">
+      <c r="F123" s="22">
         <v>1</v>
       </c>
-      <c r="G123" s="19">
+      <c r="G123" s="17">
         <v>1</v>
       </c>
-      <c r="H123" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A124" s="15" t="s">
+      <c r="H123" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E124" s="19">
+      <c r="E124" s="17">
         <v>2</v>
       </c>
-      <c r="F124" s="17">
+      <c r="F124" s="22">
         <v>1</v>
       </c>
-      <c r="G124" s="19">
+      <c r="G124" s="17">
         <v>2</v>
       </c>
-      <c r="H124" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A125" s="15" t="s">
+      <c r="H124" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E125" s="17">
+      <c r="E125" s="22">
         <v>3</v>
       </c>
-      <c r="F125" s="17">
+      <c r="F125" s="22">
         <v>1</v>
       </c>
-      <c r="G125" s="17">
+      <c r="G125" s="22">
         <v>3</v>
       </c>
-      <c r="H125" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A126" s="15" t="s">
+      <c r="H125" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E126" s="17">
+      <c r="E126" s="22">
         <v>4</v>
       </c>
-      <c r="F126" s="17">
+      <c r="F126" s="22">
         <v>2</v>
       </c>
-      <c r="G126" s="17">
+      <c r="G126" s="22">
         <v>3</v>
       </c>
-      <c r="H126" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="E127" s="17">
+      <c r="H126" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E127" s="22">
         <v>5</v>
       </c>
-      <c r="F127" s="17">
+      <c r="F127" s="22">
         <v>2</v>
       </c>
-      <c r="G127" s="17">
+      <c r="G127" s="22">
         <v>4</v>
       </c>
-      <c r="H127" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A128" s="29" t="s">
+      <c r="H127" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-    </row>
-    <row r="129" spans="1:12" ht="27.6" x14ac:dyDescent="0.5">
-      <c r="A129" s="14" t="s">
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C129" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E129" s="19" t="s">
+      <c r="E129" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F129" s="19" t="s">
+      <c r="F129" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G129" s="19" t="s">
+      <c r="G129" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H129" s="19" t="s">
+      <c r="H129" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I129" s="19" t="s">
+      <c r="I129" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J129" s="19" t="s">
+      <c r="J129" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K129" s="19" t="s">
+      <c r="K129" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L129" s="19" t="s">
+      <c r="L129" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A130" s="15" t="s">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E130" s="20">
+      <c r="E130" s="24">
         <v>1</v>
       </c>
-      <c r="F130" s="20">
+      <c r="F130" s="24">
         <v>1</v>
       </c>
-      <c r="G130" s="20">
+      <c r="G130" s="24">
         <v>1</v>
       </c>
-      <c r="H130" s="20">
+      <c r="H130" s="24">
         <v>1</v>
       </c>
-      <c r="I130" s="20">
+      <c r="I130" s="24">
         <v>1002</v>
       </c>
-      <c r="J130" s="20" t="s">
+      <c r="J130" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="K130" s="20" t="s">
+      <c r="K130" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L130" s="20" t="s">
+      <c r="L130" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A131" s="15" t="s">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E131" s="20">
+      <c r="E131" s="24">
         <v>2</v>
       </c>
-      <c r="F131" s="20">
+      <c r="F131" s="24">
         <v>1</v>
       </c>
-      <c r="G131" s="20">
+      <c r="G131" s="24">
         <v>1</v>
       </c>
-      <c r="H131" s="20">
+      <c r="H131" s="24">
         <v>2</v>
       </c>
-      <c r="I131" s="20">
+      <c r="I131" s="24">
         <v>1003</v>
       </c>
-      <c r="J131" s="20" t="s">
+      <c r="J131" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="K131" s="20" t="s">
+      <c r="K131" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L131" s="20" t="s">
+      <c r="L131" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A132" s="15" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E132" s="20">
+      <c r="E132" s="24">
         <v>3</v>
       </c>
-      <c r="F132" s="20">
+      <c r="F132" s="24">
         <v>1</v>
       </c>
-      <c r="G132" s="20">
+      <c r="G132" s="24">
         <v>1</v>
       </c>
-      <c r="H132" s="20">
+      <c r="H132" s="24">
         <v>3</v>
       </c>
-      <c r="I132" s="20">
+      <c r="I132" s="24">
         <v>1004</v>
       </c>
-      <c r="J132" s="20" t="s">
+      <c r="J132" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="K132" s="20" t="s">
+      <c r="K132" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L132" s="20" t="s">
+      <c r="L132" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A133" s="15" t="s">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E133" s="21">
+      <c r="E133" s="25">
         <v>4</v>
       </c>
-      <c r="F133" s="21">
+      <c r="F133" s="25">
         <v>1</v>
       </c>
-      <c r="G133" s="21">
+      <c r="G133" s="25">
         <v>2</v>
       </c>
-      <c r="H133" s="21">
+      <c r="H133" s="25">
         <v>1</v>
       </c>
-      <c r="I133" s="21">
+      <c r="I133" s="25">
         <v>1002</v>
       </c>
-      <c r="J133" s="21" t="s">
+      <c r="J133" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="K133" s="22">
+      <c r="K133" s="26">
         <v>45500.625</v>
       </c>
-      <c r="L133" s="21" t="s">
+      <c r="L133" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A134" s="15" t="s">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E134" s="21">
+      <c r="E134" s="25">
         <v>5</v>
       </c>
-      <c r="F134" s="21">
+      <c r="F134" s="25">
         <v>1</v>
       </c>
-      <c r="G134" s="21">
+      <c r="G134" s="25">
         <v>2</v>
       </c>
-      <c r="H134" s="21">
+      <c r="H134" s="25">
         <v>2</v>
       </c>
-      <c r="I134" s="21">
+      <c r="I134" s="25">
         <v>1003</v>
       </c>
-      <c r="J134" s="21" t="s">
+      <c r="J134" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="K134" s="22">
+      <c r="K134" s="26">
         <v>45500.645833333336</v>
       </c>
-      <c r="L134" s="21" t="s">
+      <c r="L134" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A135" s="15" t="s">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E135" s="21">
+      <c r="E135" s="25">
         <v>6</v>
       </c>
-      <c r="F135" s="21">
+      <c r="F135" s="25">
         <v>1</v>
       </c>
-      <c r="G135" s="21">
+      <c r="G135" s="25">
         <v>2</v>
       </c>
-      <c r="H135" s="21">
+      <c r="H135" s="25">
         <v>3</v>
       </c>
-      <c r="I135" s="21">
+      <c r="I135" s="25">
         <v>1004</v>
       </c>
-      <c r="J135" s="21" t="s">
+      <c r="J135" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="K135" s="21" t="s">
+      <c r="K135" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="L135" s="21" t="s">
+      <c r="L135" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A136" s="15" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E136" s="23">
+      <c r="E136" s="27">
         <v>7</v>
       </c>
-      <c r="F136" s="23">
+      <c r="F136" s="27">
         <v>2</v>
       </c>
-      <c r="G136" s="23">
+      <c r="G136" s="27">
         <v>1</v>
       </c>
-      <c r="H136" s="24">
+      <c r="H136" s="28">
         <v>4</v>
       </c>
-      <c r="I136" s="24">
+      <c r="I136" s="28">
         <v>1004</v>
       </c>
-      <c r="J136" s="23" t="s">
+      <c r="J136" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="K136" s="25">
+      <c r="K136" s="29">
         <v>45500.625</v>
       </c>
-      <c r="L136" s="23" t="s">
+      <c r="L136" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A137" s="15" t="s">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C137" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E137" s="23">
+      <c r="E137" s="27">
         <v>8</v>
       </c>
-      <c r="F137" s="23">
+      <c r="F137" s="27">
         <v>2</v>
       </c>
-      <c r="G137" s="23">
+      <c r="G137" s="27">
         <v>1</v>
       </c>
-      <c r="H137" s="24">
+      <c r="H137" s="28">
         <v>5</v>
       </c>
-      <c r="I137" s="24">
+      <c r="I137" s="28">
         <v>1005</v>
       </c>
-      <c r="J137" s="23" t="s">
+      <c r="J137" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="K137" s="23" t="s">
+      <c r="K137" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="L137" s="23" t="s">
+      <c r="L137" s="27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A139" s="35" t="s">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B139" s="34"/>
-      <c r="C139" s="34"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A140" s="34"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A141" s="34"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A142" s="34"/>
-      <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A143" s="34"/>
-      <c r="B143" s="34"/>
-      <c r="C143" s="34"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A144" s="26"/>
-      <c r="B144" s="26"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="31"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="31"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="31"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="31"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="31"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="32"/>
+      <c r="B144" s="32"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A146" s="34"/>
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A147" s="34"/>
-      <c r="B147" s="34"/>
-      <c r="C147" s="34"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A148" s="34"/>
-      <c r="B148" s="34"/>
-      <c r="C148" s="34"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A149" s="34"/>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="31"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="31"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="31"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="31"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A145:C149"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A139:C143"/>
     <mergeCell ref="A102:C102"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
@@ -4085,6 +4124,12 @@
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A145:C149"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A139:C143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -1733,7 +1733,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1749,12 +1749,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE5FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7FFEF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,6 +1773,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,7 +1843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1846,12 +1870,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1880,53 +1898,77 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2219,1899 +2261,1905 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:C97"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="14"/>
-    <col min="5" max="5" width="16.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="32.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="12"/>
+    <col min="5" max="5" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="13">
         <v>869161</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="18">
         <f>E28*7/107</f>
         <v>56861</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="18">
         <f>E28-E29</f>
         <v>812300</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="15" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="19" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="20">
         <v>0</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="20" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="20">
         <v>1</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="20" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="22">
+      <c r="E39" s="20">
         <v>2</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="20" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="22">
+      <c r="E40" s="20">
         <v>3</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="20" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="19" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="20">
         <v>0</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="20" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="20">
         <v>1</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="20" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="22">
+      <c r="E45" s="20">
         <v>2</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="20" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="15" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="15" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="15" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="15" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="15" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="15" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="15" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="15" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="15" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="15" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="15" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="15" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="15" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="15" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="15" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="15" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="15" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="15" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="15" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="F93" s="22" t="s">
+      <c r="F93" s="20" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="E94" s="22">
+      <c r="E94" s="20">
         <v>1</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="F94" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E95" s="20">
         <v>2</v>
       </c>
-      <c r="F95" s="17" t="s">
+      <c r="F95" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E96" s="22">
+      <c r="E96" s="20">
         <v>3</v>
       </c>
-      <c r="F96" s="17" t="s">
+      <c r="F96" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="E97" s="22">
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="E97" s="20">
         <v>4</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F97" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="22">
+      <c r="E98" s="20">
         <v>5</v>
       </c>
-      <c r="F98" s="22" t="s">
+      <c r="F98" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="15" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
+      <c r="A102" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E103" s="22" t="s">
+      <c r="E103" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F103" s="22" t="s">
+      <c r="F103" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G103" s="22" t="s">
+      <c r="G103" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H103" s="22" t="s">
+      <c r="H103" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I103" s="22" t="s">
+      <c r="I103" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="J103" s="22" t="s">
+      <c r="J103" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E104" s="22">
+      <c r="E104" s="20">
         <v>1001</v>
       </c>
-      <c r="F104" s="22" t="s">
+      <c r="F104" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G104" s="22" t="s">
+      <c r="G104" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H104" s="22" t="s">
+      <c r="H104" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I104" s="22">
+      <c r="I104" s="20">
         <v>1</v>
       </c>
-      <c r="J104" s="22"/>
+      <c r="J104" s="20"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="22">
+      <c r="E105" s="20">
         <v>1002</v>
       </c>
-      <c r="F105" s="22" t="s">
+      <c r="F105" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G105" s="22" t="s">
+      <c r="G105" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H105" s="22" t="s">
+      <c r="H105" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="I105" s="17">
+      <c r="I105" s="15">
         <v>2</v>
       </c>
-      <c r="J105" s="22"/>
+      <c r="J105" s="20"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E106" s="22">
+      <c r="E106" s="20">
         <v>1003</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="F106" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="G106" s="22" t="s">
+      <c r="G106" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H106" s="22" t="s">
+      <c r="H106" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I106" s="17">
+      <c r="I106" s="15">
         <v>3</v>
       </c>
-      <c r="J106" s="22"/>
+      <c r="J106" s="20"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E107" s="22">
+      <c r="E107" s="20">
         <v>1004</v>
       </c>
-      <c r="F107" s="22" t="s">
+      <c r="F107" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G107" s="22" t="s">
+      <c r="G107" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="22" t="s">
+      <c r="H107" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I107" s="17">
+      <c r="I107" s="15">
         <v>4</v>
       </c>
-      <c r="J107" s="22"/>
+      <c r="J107" s="20"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E108" s="22">
+      <c r="E108" s="20">
         <v>1005</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="F108" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G108" s="22" t="s">
+      <c r="G108" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H108" s="22" t="s">
+      <c r="H108" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I108" s="22">
+      <c r="I108" s="20">
         <v>5</v>
       </c>
-      <c r="J108" s="22"/>
+      <c r="J108" s="20"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="15" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="34" t="s">
+      <c r="A111" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="B111" s="35"/>
-      <c r="C111" s="35"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C112" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E112" s="21" t="s">
+      <c r="E112" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F112" s="21" t="s">
+      <c r="F112" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E113" s="22">
+      <c r="E113" s="20">
         <v>0</v>
       </c>
-      <c r="F113" s="22" t="s">
+      <c r="F113" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E114" s="22">
+      <c r="E114" s="20">
         <v>1</v>
       </c>
-      <c r="F114" s="22" t="s">
+      <c r="F114" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E115" s="22">
+      <c r="E115" s="20">
         <v>2</v>
       </c>
-      <c r="F115" s="22" t="s">
+      <c r="F115" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E117" s="21" t="s">
+      <c r="E117" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F117" s="21" t="s">
+      <c r="F117" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E118" s="22">
+      <c r="E118" s="43">
         <v>1</v>
       </c>
-      <c r="F118" s="22" t="s">
+      <c r="F118" s="44" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E119" s="22">
+      <c r="E119" s="20">
         <v>2</v>
       </c>
-      <c r="F119" s="22" t="s">
+      <c r="F119" s="20" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="38" t="s">
+      <c r="A121" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E122" s="17" t="s">
+      <c r="E122" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F122" s="21" t="s">
+      <c r="F122" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G122" s="17" t="s">
+      <c r="G122" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H122" s="17" t="s">
+      <c r="H122" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E123" s="17">
+      <c r="E123" s="40">
         <v>1</v>
       </c>
-      <c r="F123" s="22">
+      <c r="F123" s="43">
         <v>1</v>
       </c>
-      <c r="G123" s="17">
+      <c r="G123" s="41">
         <v>1</v>
       </c>
-      <c r="H123" s="17">
+      <c r="H123" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
+      <c r="A124" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C124" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E124" s="17">
+      <c r="E124" s="40">
         <v>2</v>
       </c>
-      <c r="F124" s="22">
+      <c r="F124" s="43">
         <v>1</v>
       </c>
-      <c r="G124" s="17">
+      <c r="G124" s="41">
         <v>2</v>
       </c>
-      <c r="H124" s="17">
+      <c r="H124" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E125" s="22">
+      <c r="E125" s="39">
         <v>3</v>
       </c>
-      <c r="F125" s="22">
+      <c r="F125" s="43">
         <v>1</v>
       </c>
-      <c r="G125" s="22">
+      <c r="G125" s="42">
         <v>3</v>
       </c>
-      <c r="H125" s="17">
+      <c r="H125" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="C126" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E126" s="22">
+      <c r="E126" s="20">
         <v>4</v>
       </c>
-      <c r="F126" s="22">
+      <c r="F126" s="20">
         <v>2</v>
       </c>
-      <c r="G126" s="22">
+      <c r="G126" s="20">
+        <v>1</v>
+      </c>
+      <c r="H126" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E127" s="20">
+        <v>5</v>
+      </c>
+      <c r="F127" s="20">
+        <v>2</v>
+      </c>
+      <c r="G127" s="20">
+        <v>2</v>
+      </c>
+      <c r="H127" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I129" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J129" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K129" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L129" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E130" s="45">
+        <v>1</v>
+      </c>
+      <c r="F130" s="45">
+        <v>1</v>
+      </c>
+      <c r="G130" s="45">
+        <v>1</v>
+      </c>
+      <c r="H130" s="40">
+        <v>1</v>
+      </c>
+      <c r="I130" s="45">
+        <v>1002</v>
+      </c>
+      <c r="J130" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="K130" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L130" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E131" s="45">
+        <v>2</v>
+      </c>
+      <c r="F131" s="45">
+        <v>1</v>
+      </c>
+      <c r="G131" s="45">
+        <v>1</v>
+      </c>
+      <c r="H131" s="40">
+        <v>2</v>
+      </c>
+      <c r="I131" s="45">
+        <v>1003</v>
+      </c>
+      <c r="J131" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="K131" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L131" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" s="45">
         <v>3</v>
       </c>
-      <c r="H126" s="17">
+      <c r="F132" s="45">
+        <v>1</v>
+      </c>
+      <c r="G132" s="45">
+        <v>1</v>
+      </c>
+      <c r="H132" s="40">
+        <v>3</v>
+      </c>
+      <c r="I132" s="45">
+        <v>1004</v>
+      </c>
+      <c r="J132" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="K132" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L132" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E133" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E127" s="22">
+      <c r="F133" s="22">
+        <v>1</v>
+      </c>
+      <c r="G133" s="22">
+        <v>2</v>
+      </c>
+      <c r="H133" s="22">
+        <v>1</v>
+      </c>
+      <c r="I133" s="22">
+        <v>1002</v>
+      </c>
+      <c r="J133" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="K133" s="23">
+        <v>45500.625</v>
+      </c>
+      <c r="L133" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E134" s="22">
         <v>5</v>
       </c>
-      <c r="F127" s="22">
+      <c r="F134" s="22">
+        <v>1</v>
+      </c>
+      <c r="G134" s="22">
         <v>2</v>
       </c>
-      <c r="G127" s="22">
+      <c r="H134" s="22">
+        <v>2</v>
+      </c>
+      <c r="I134" s="22">
+        <v>1003</v>
+      </c>
+      <c r="J134" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="K134" s="23">
+        <v>45500.645833333336</v>
+      </c>
+      <c r="L134" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E135" s="22">
+        <v>6</v>
+      </c>
+      <c r="F135" s="22">
+        <v>1</v>
+      </c>
+      <c r="G135" s="22">
+        <v>2</v>
+      </c>
+      <c r="H135" s="22">
+        <v>3</v>
+      </c>
+      <c r="I135" s="22">
+        <v>1004</v>
+      </c>
+      <c r="J135" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K135" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L135" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E136" s="24">
+        <v>7</v>
+      </c>
+      <c r="F136" s="24">
+        <v>2</v>
+      </c>
+      <c r="G136" s="24">
+        <v>1</v>
+      </c>
+      <c r="H136" s="25">
         <v>4</v>
       </c>
-      <c r="H127" s="22">
+      <c r="I136" s="25">
+        <v>1004</v>
+      </c>
+      <c r="J136" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K136" s="26">
+        <v>45500.625</v>
+      </c>
+      <c r="L136" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E137" s="24">
+        <v>8</v>
+      </c>
+      <c r="F137" s="24">
+        <v>2</v>
+      </c>
+      <c r="G137" s="24">
+        <v>1</v>
+      </c>
+      <c r="H137" s="25">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E129" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G129" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H129" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I129" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J129" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="K129" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="L129" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E130" s="24">
-        <v>1</v>
-      </c>
-      <c r="F130" s="24">
-        <v>1</v>
-      </c>
-      <c r="G130" s="24">
-        <v>1</v>
-      </c>
-      <c r="H130" s="24">
-        <v>1</v>
-      </c>
-      <c r="I130" s="24">
-        <v>1002</v>
-      </c>
-      <c r="J130" s="24" t="s">
+      <c r="I137" s="25">
+        <v>1005</v>
+      </c>
+      <c r="J137" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="K130" s="24" t="s">
+      <c r="K137" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L130" s="24" t="s">
+      <c r="L137" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B131" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E131" s="24">
-        <v>2</v>
-      </c>
-      <c r="F131" s="24">
-        <v>1</v>
-      </c>
-      <c r="G131" s="24">
-        <v>1</v>
-      </c>
-      <c r="H131" s="24">
-        <v>2</v>
-      </c>
-      <c r="I131" s="24">
-        <v>1003</v>
-      </c>
-      <c r="J131" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="K131" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L131" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E132" s="24">
-        <v>3</v>
-      </c>
-      <c r="F132" s="24">
-        <v>1</v>
-      </c>
-      <c r="G132" s="24">
-        <v>1</v>
-      </c>
-      <c r="H132" s="24">
-        <v>3</v>
-      </c>
-      <c r="I132" s="24">
-        <v>1004</v>
-      </c>
-      <c r="J132" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="K132" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L132" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E133" s="25">
-        <v>4</v>
-      </c>
-      <c r="F133" s="25">
-        <v>1</v>
-      </c>
-      <c r="G133" s="25">
-        <v>2</v>
-      </c>
-      <c r="H133" s="25">
-        <v>1</v>
-      </c>
-      <c r="I133" s="25">
-        <v>1002</v>
-      </c>
-      <c r="J133" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="K133" s="26">
-        <v>45500.625</v>
-      </c>
-      <c r="L133" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E134" s="25">
-        <v>5</v>
-      </c>
-      <c r="F134" s="25">
-        <v>1</v>
-      </c>
-      <c r="G134" s="25">
-        <v>2</v>
-      </c>
-      <c r="H134" s="25">
-        <v>2</v>
-      </c>
-      <c r="I134" s="25">
-        <v>1003</v>
-      </c>
-      <c r="J134" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="K134" s="26">
-        <v>45500.645833333336</v>
-      </c>
-      <c r="L134" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E135" s="25">
-        <v>6</v>
-      </c>
-      <c r="F135" s="25">
-        <v>1</v>
-      </c>
-      <c r="G135" s="25">
-        <v>2</v>
-      </c>
-      <c r="H135" s="25">
-        <v>3</v>
-      </c>
-      <c r="I135" s="25">
-        <v>1004</v>
-      </c>
-      <c r="J135" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="K135" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="L135" s="25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E136" s="27">
-        <v>7</v>
-      </c>
-      <c r="F136" s="27">
-        <v>2</v>
-      </c>
-      <c r="G136" s="27">
-        <v>1</v>
-      </c>
-      <c r="H136" s="28">
-        <v>4</v>
-      </c>
-      <c r="I136" s="28">
-        <v>1004</v>
-      </c>
-      <c r="J136" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K136" s="29">
-        <v>45500.625</v>
-      </c>
-      <c r="L136" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B137" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E137" s="27">
-        <v>8</v>
-      </c>
-      <c r="F137" s="27">
-        <v>2</v>
-      </c>
-      <c r="G137" s="27">
-        <v>1</v>
-      </c>
-      <c r="H137" s="28">
-        <v>5</v>
-      </c>
-      <c r="I137" s="28">
-        <v>1005</v>
-      </c>
-      <c r="J137" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K137" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="L137" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="30" t="s">
+      <c r="A139" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="37"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="37"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="31"/>
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="37"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="31"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="31"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="37"/>
+      <c r="C143" s="37"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="32"/>
-      <c r="B144" s="32"/>
+      <c r="A144" s="27"/>
+      <c r="B144" s="27"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="33" t="s">
+      <c r="A145" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
+      <c r="B145" s="37"/>
+      <c r="C145" s="37"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="31"/>
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="37"/>
+      <c r="C146" s="37"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="37"/>
+      <c r="C147" s="37"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
+      <c r="A148" s="37"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="31"/>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
+      <c r="A149" s="37"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A145:C149"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A139:C143"/>
     <mergeCell ref="A102:C102"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
@@ -4124,12 +4172,6 @@
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A145:C149"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A139:C143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -750,11 +750,6 @@
     <t>รหัสผู้รับเหมา (Foreign Key อ้างอิงตาราง suppliers)</t>
   </si>
   <si>
-    <t>มูลค่าสัญญาก่อน VAT
-ถ้าเลือกรวม vat จะได้ contract_value = contract_value - vat
-ถ้าเลือกไม่รวม vat จะได้ contract_value = contract_value</t>
-  </si>
-  <si>
     <t>มูลค่า VAT
 ถ้าเลือกรวม vat จะได้ vat = contract_value *(7 /107)
 ถ้าเลือกไม่รวม vat จะได้ vat = contract_value * (7 /100)</t>
@@ -1666,6 +1661,11 @@
   </si>
   <si>
     <t>รหัส PO (Primary Key, Auto Increment) Running number 1,2,3,…</t>
+  </si>
+  <si>
+    <t>มูลค่าสัญญาก่อน VAT(หรือมูลค่าไม่รวม VAT)
+ถ้าเลือกรวม vat จะได้ contract_value = contract_value - vat
+ถ้าเลือกไม่รวม vat จะได้ contract_value = contract_value</t>
   </si>
 </sst>
 </file>
@@ -2011,39 +2011,6 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2078,6 +2045,39 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2370,14 +2370,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="10"/>
     <col min="5" max="5" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
@@ -2392,17 +2392,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -2413,7 +2413,7 @@
       <c r="A3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -2424,7 +2424,7 @@
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -2432,17 +2432,17 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -2453,7 +2453,7 @@
       <c r="A8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -2464,7 +2464,7 @@
       <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2472,17 +2472,17 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="37" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2493,7 +2493,7 @@
       <c r="A13" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="38" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -2504,7 +2504,7 @@
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="38" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -2512,17 +2512,17 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>483</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2533,18 +2533,18 @@
       <c r="A18" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -2555,7 +2555,7 @@
       <c r="A20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -2566,7 +2566,7 @@
       <c r="A21" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2577,7 +2577,7 @@
       <c r="A22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -2588,7 +2588,7 @@
       <c r="A23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -2599,7 +2599,7 @@
       <c r="A24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -2610,7 +2610,7 @@
       <c r="A25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="33" t="s">
         <v>128</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -2621,7 +2621,7 @@
       <c r="A26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -2632,22 +2632,22 @@
       <c r="A27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>186</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28" s="11">
         <v>869161</v>
@@ -2657,7 +2657,7 @@
       <c r="A29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="33" t="s">
         <v>128</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -2672,7 +2672,7 @@
       <c r="A30" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="33" t="s">
         <v>130</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -2687,7 +2687,7 @@
       <c r="A31" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -2698,7 +2698,7 @@
       <c r="A32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="33" t="s">
         <v>136</v>
       </c>
       <c r="C32" s="13" t="s">
@@ -2717,7 +2717,7 @@
       <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="33" t="s">
         <v>136</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -2736,7 +2736,7 @@
       <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -2752,14 +2752,14 @@
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="55" t="s">
-        <v>192</v>
+      <c r="C35" s="44" t="s">
+        <v>191</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -2774,11 +2774,11 @@
       <c r="A36" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -2793,7 +2793,7 @@
       <c r="A37" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -2804,7 +2804,7 @@
       <c r="A38" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="33" t="s">
         <v>133</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -2812,17 +2812,17 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>478</v>
-      </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
+      <c r="A40" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -2831,42 +2831,42 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>480</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -2877,7 +2877,7 @@
       <c r="A46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C46" s="13" t="s">
@@ -2888,7 +2888,7 @@
       <c r="A47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C47" s="13" t="s">
@@ -2899,18 +2899,18 @@
       <c r="A48" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -2921,109 +2921,109 @@
       <c r="A50" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="44" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="44" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       <c r="A60" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C60" s="13" t="s">
@@ -3039,50 +3039,50 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="44" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="44" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="44" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="55" t="s">
-        <v>476</v>
-      </c>
-    </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
-        <v>479</v>
-      </c>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
+      <c r="A65" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="12" t="s">
@@ -3091,31 +3091,31 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="B67" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="B67" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="B68" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="B68" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C69" s="13" t="s">
@@ -3126,7 +3126,7 @@
       <c r="A70" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C70" s="13" t="s">
@@ -3137,7 +3137,7 @@
       <c r="A71" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -3146,65 +3146,65 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
-      <c r="B72" s="50"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="19"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
+      <c r="A73" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E74" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F74" s="17" t="s">
         <v>339</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B75" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="B75" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E75" s="18">
         <v>0</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="B76" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B76" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E76" s="18">
         <v>1</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3220,65 +3220,65 @@
         <v>3</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
+      <c r="A79" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E80" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="F80" s="17" t="s">
         <v>341</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B81" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="B81" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E81" s="18">
         <v>0</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="B82" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="B82" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E82" s="18">
         <v>1</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3286,21 +3286,21 @@
         <v>2</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B85" s="46" t="s">
+      <c r="B85" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C85" s="12" t="s">
@@ -3311,18 +3311,18 @@
       <c r="A86" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B87" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C87" s="13" t="s">
@@ -3330,35 +3330,35 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="55" t="s">
+      <c r="A88" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C88" s="55" t="s">
+      <c r="C88" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="55" t="s">
+      <c r="C89" s="44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="55" t="s">
+      <c r="A90" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="C90" s="55" t="s">
+      <c r="C90" s="44" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3366,29 +3366,29 @@
       <c r="A91" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="44" t="s">
+      <c r="B91" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C91" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="44" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B92" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="55" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B93" s="44" t="s">
+      <c r="B93" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -3399,18 +3399,18 @@
       <c r="A94" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B94" s="44" t="s">
+      <c r="B94" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="34" t="s">
         <v>171</v>
       </c>
       <c r="C95" s="13" t="s">
@@ -3418,17 +3418,17 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="39" t="s">
+      <c r="A97" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C98" s="12" t="s">
@@ -3439,18 +3439,18 @@
       <c r="A99" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B99" s="44" t="s">
+      <c r="B99" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C100" s="13" t="s">
@@ -3461,18 +3461,18 @@
       <c r="A101" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="44" t="s">
+      <c r="B101" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="44" t="s">
+      <c r="B102" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C102" s="13" t="s">
@@ -3483,7 +3483,7 @@
       <c r="A103" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B103" s="44" t="s">
+      <c r="B103" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C103" s="13" t="s">
@@ -3494,7 +3494,7 @@
       <c r="A104" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B104" s="44" t="s">
+      <c r="B104" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C104" s="13" t="s">
@@ -3505,18 +3505,18 @@
       <c r="A105" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="44" t="s">
+      <c r="B105" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B106" s="44" t="s">
+      <c r="B106" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C106" s="13" t="s">
@@ -3527,84 +3527,84 @@
       <c r="A107" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B107" s="44" t="s">
+      <c r="B107" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B108" s="44" t="s">
+      <c r="B108" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="44" t="s">
+      <c r="B109" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B110" s="44" t="s">
+      <c r="B110" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B111" s="44" t="s">
+      <c r="B111" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="44" t="s">
+      <c r="B112" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B113" s="44" t="s">
+      <c r="B113" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B114" s="44" t="s">
+      <c r="B114" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C114" s="13" t="s">
@@ -3615,7 +3615,7 @@
       <c r="A115" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B115" s="44" t="s">
+      <c r="B115" s="33" t="s">
         <v>170</v>
       </c>
       <c r="C115" s="13" t="s">
@@ -3626,7 +3626,7 @@
       <c r="A116" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B116" s="44" t="s">
+      <c r="B116" s="33" t="s">
         <v>170</v>
       </c>
       <c r="C116" s="13" t="s">
@@ -3637,7 +3637,7 @@
       <c r="A117" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="44" t="s">
+      <c r="B117" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C117" s="13" t="s">
@@ -3648,7 +3648,7 @@
       <c r="A118" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B118" s="44" t="s">
+      <c r="B118" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C118" s="13" t="s">
@@ -3659,36 +3659,36 @@
       <c r="A119" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B119" s="44" t="s">
+      <c r="B119" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B120" s="44" t="s">
+      <c r="B120" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="39" t="s">
+      <c r="A122" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="B122" s="40"/>
-      <c r="C122" s="40"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B123" s="46" t="s">
+      <c r="B123" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C123" s="12" t="s">
@@ -3699,18 +3699,18 @@
       <c r="A124" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="44" t="s">
+      <c r="B124" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B125" s="44" t="s">
+      <c r="B125" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C125" s="13" t="s">
@@ -3721,7 +3721,7 @@
       <c r="A126" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B126" s="44" t="s">
+      <c r="B126" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C126" s="13" t="s">
@@ -3732,7 +3732,7 @@
       <c r="A127" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B127" s="44" t="s">
+      <c r="B127" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C127" s="13" t="s">
@@ -3743,7 +3743,7 @@
       <c r="A128" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B128" s="44" t="s">
+      <c r="B128" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C128" s="13" t="s">
@@ -3752,42 +3752,42 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
-      <c r="B129" s="50"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="B130" s="38"/>
-      <c r="C130" s="38"/>
+      <c r="A130" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="B130" s="47"/>
+      <c r="C130" s="47"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B131" s="46" t="s">
+      <c r="B131" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E131" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="F131" s="18" t="s">
         <v>344</v>
-      </c>
-      <c r="F131" s="18" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B132" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="B132" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E132" s="18">
         <v>1</v>
@@ -3798,9 +3798,9 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B133" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="B133" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C133" s="13" t="s">
@@ -3822,11 +3822,11 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="35" t="s">
+      <c r="A135" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B135" s="36"/>
-      <c r="C135" s="36"/>
+      <c r="B135" s="49"/>
+      <c r="C135" s="49"/>
       <c r="E135" s="18">
         <v>4</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="A136" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B136" s="46" t="s">
+      <c r="B136" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C136" s="12" t="s">
@@ -3855,7 +3855,7 @@
       <c r="A137" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B137" s="44" t="s">
+      <c r="B137" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C137" s="13" t="s">
@@ -3866,7 +3866,7 @@
       <c r="A138" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B138" s="44" t="s">
+      <c r="B138" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C138" s="13" t="s">
@@ -3874,17 +3874,17 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="37" t="s">
+      <c r="A140" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B140" s="38"/>
-      <c r="C140" s="38"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="47"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C141" s="12" t="s">
@@ -3913,11 +3913,11 @@
       <c r="A142" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B142" s="44" t="s">
+      <c r="B142" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E142" s="18">
         <v>1001</v>
@@ -3940,7 +3940,7 @@
       <c r="A143" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B143" s="44" t="s">
+      <c r="B143" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C143" s="13" t="s">
@@ -3967,7 +3967,7 @@
       <c r="A144" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B144" s="44" t="s">
+      <c r="B144" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C144" s="13" t="s">
@@ -3994,7 +3994,7 @@
       <c r="A145" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B145" s="44" t="s">
+      <c r="B145" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C145" s="13" t="s">
@@ -4021,7 +4021,7 @@
       <c r="A146" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B146" s="44" t="s">
+      <c r="B146" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C146" s="13" t="s">
@@ -4048,7 +4048,7 @@
       <c r="A147" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B147" s="44" t="s">
+      <c r="B147" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C147" s="13" t="s">
@@ -4056,17 +4056,17 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="B149" s="36"/>
-      <c r="C149" s="36"/>
+      <c r="A149" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="B149" s="49"/>
+      <c r="C149" s="49"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B150" s="46" t="s">
+      <c r="B150" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C150" s="12" t="s">
@@ -4083,7 +4083,7 @@
       <c r="A151" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B151" s="44" t="s">
+      <c r="B151" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C151" s="13" t="s">
@@ -4100,7 +4100,7 @@
       <c r="A152" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B152" s="44" t="s">
+      <c r="B152" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C152" s="13" t="s">
@@ -4122,17 +4122,17 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="B154" s="36"/>
-      <c r="C154" s="36"/>
+      <c r="A154" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="B154" s="49"/>
+      <c r="C154" s="49"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B155" s="46" t="s">
+      <c r="B155" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C155" s="12" t="s">
@@ -4149,7 +4149,7 @@
       <c r="A156" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B156" s="44" t="s">
+      <c r="B156" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C156" s="13" t="s">
@@ -4166,7 +4166,7 @@
       <c r="A157" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B157" s="44" t="s">
+      <c r="B157" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C157" s="13" t="s">
@@ -4176,21 +4176,21 @@
         <v>2</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="B159" s="38"/>
-      <c r="C159" s="38"/>
+      <c r="A159" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B159" s="47"/>
+      <c r="C159" s="47"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B160" s="46" t="s">
+      <c r="B160" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C160" s="12" t="s">
@@ -4213,7 +4213,7 @@
       <c r="A161" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B161" s="44" t="s">
+      <c r="B161" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C161" s="13" t="s">
@@ -4236,7 +4236,7 @@
       <c r="A162" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B162" s="44" t="s">
+      <c r="B162" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C162" s="13" t="s">
@@ -4259,7 +4259,7 @@
       <c r="A163" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B163" s="44" t="s">
+      <c r="B163" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C163" s="13" t="s">
@@ -4282,7 +4282,7 @@
       <c r="A164" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B164" s="44" t="s">
+      <c r="B164" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C164" s="13" t="s">
@@ -4316,17 +4316,17 @@
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="B166" s="40"/>
-      <c r="C166" s="40"/>
+      <c r="A166" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="B166" s="53"/>
+      <c r="C166" s="53"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B167" s="46" t="s">
+      <c r="B167" s="35" t="s">
         <v>116</v>
       </c>
       <c r="C167" s="12" t="s">
@@ -4361,7 +4361,7 @@
       <c r="A168" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B168" s="44" t="s">
+      <c r="B168" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C168" s="13" t="s">
@@ -4396,11 +4396,11 @@
       <c r="A169" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B169" s="44" t="s">
+      <c r="B169" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E169" s="32">
         <v>2</v>
@@ -4431,11 +4431,11 @@
       <c r="A170" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B170" s="44" t="s">
+      <c r="B170" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E170" s="32">
         <v>3</v>
@@ -4466,7 +4466,7 @@
       <c r="A171" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B171" s="44" t="s">
+      <c r="B171" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C171" s="13" t="s">
@@ -4501,7 +4501,7 @@
       <c r="A172" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B172" s="44" t="s">
+      <c r="B172" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C172" s="13" t="s">
@@ -4536,7 +4536,7 @@
       <c r="A173" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B173" s="44" t="s">
+      <c r="B173" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C173" s="13" t="s">
@@ -4571,7 +4571,7 @@
       <c r="A174" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B174" s="44" t="s">
+      <c r="B174" s="33" t="s">
         <v>133</v>
       </c>
       <c r="C174" s="13" t="s">
@@ -4606,11 +4606,11 @@
       <c r="A175" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B175" s="44" t="s">
+      <c r="B175" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E175" s="22">
         <v>8</v>
@@ -4638,65 +4638,71 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="41" t="s">
+      <c r="A177" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B177" s="34"/>
-      <c r="C177" s="34"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="55"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="34"/>
-      <c r="B178" s="34"/>
-      <c r="C178" s="34"/>
+      <c r="A178" s="55"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="55"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="34"/>
-      <c r="B179" s="34"/>
-      <c r="C179" s="34"/>
+      <c r="A179" s="55"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="55"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="34"/>
-      <c r="B180" s="34"/>
-      <c r="C180" s="34"/>
+      <c r="A180" s="55"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="55"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="34"/>
-      <c r="B181" s="34"/>
-      <c r="C181" s="34"/>
+      <c r="A181" s="55"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="55"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
-      <c r="B182" s="51"/>
+      <c r="B182" s="40"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="B183" s="34"/>
-      <c r="C183" s="34"/>
+      <c r="A183" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="B183" s="55"/>
+      <c r="C183" s="55"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="34"/>
-      <c r="B184" s="34"/>
-      <c r="C184" s="34"/>
+      <c r="A184" s="55"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="55"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="34"/>
-      <c r="B185" s="34"/>
-      <c r="C185" s="34"/>
+      <c r="A185" s="55"/>
+      <c r="B185" s="55"/>
+      <c r="C185" s="55"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="34"/>
-      <c r="B186" s="34"/>
-      <c r="C186" s="34"/>
+      <c r="A186" s="55"/>
+      <c r="B186" s="55"/>
+      <c r="C186" s="55"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="34"/>
-      <c r="B187" s="34"/>
-      <c r="C187" s="34"/>
+      <c r="A187" s="55"/>
+      <c r="B187" s="55"/>
+      <c r="C187" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A183:C187"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A177:C181"/>
     <mergeCell ref="A140:C140"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
@@ -4711,12 +4717,6 @@
     <mergeCell ref="A135:C135"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A183:C187"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A177:C181"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4733,111 +4733,111 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="53"/>
+    <col min="1" max="1" width="35.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B6" s="41" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="B13" s="41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="B13" s="52" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4861,27 +4861,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4889,27 +4889,27 @@
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4917,27 +4917,27 @@
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4945,97 +4945,97 @@
     </row>
     <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5043,67 +5043,67 @@
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5111,132 +5111,132 @@
     </row>
     <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5244,42 +5244,42 @@
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5287,27 +5287,27 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5315,27 +5315,27 @@
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5343,47 +5343,47 @@
     </row>
     <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5391,27 +5391,27 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5419,37 +5419,37 @@
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5457,57 +5457,57 @@
     </row>
     <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5515,67 +5515,67 @@
     </row>
     <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5598,767 +5598,767 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6381,7 +6381,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6548,7 +6548,7 @@
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6558,12 +6558,12 @@
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6571,7 +6571,7 @@
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6581,12 +6581,12 @@
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6818,7 +6818,7 @@
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6828,12 +6828,12 @@
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6907,7 +6907,7 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6930,7 +6930,7 @@
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6953,7 +6953,7 @@
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6986,7 +6986,7 @@
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7051,7 +7051,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7218,7 +7218,7 @@
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7228,12 +7228,12 @@
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7241,7 +7241,7 @@
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7251,12 +7251,12 @@
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7488,7 +7488,7 @@
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7498,12 +7498,12 @@
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7577,7 +7577,7 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7600,7 +7600,7 @@
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7623,7 +7623,7 @@
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7656,7 +7656,7 @@
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="490">
   <si>
     <t>supplier_name</t>
   </si>
@@ -750,11 +750,6 @@
     <t>รหัสผู้รับเหมา (Foreign Key อ้างอิงตาราง suppliers)</t>
   </si>
   <si>
-    <t>มูลค่า VAT
-ถ้าเลือกรวม vat จะได้ vat = contract_value *(7 /107)
-ถ้าเลือกไม่รวม vat จะได้ vat = contract_value * (7 /100)</t>
-  </si>
-  <si>
     <t>รหัสผู้ใช้งาน (Primary Key, Auto Increment หรือกำหนดเอง)</t>
   </si>
   <si>
@@ -792,9 +787,6 @@
   </si>
   <si>
     <t>เปอร์เซ็นต์ของยอดเบิกเงินงวดสะสมถึงปัจจุบัน(ไม่รวมปัจจุบัน)</t>
-  </si>
-  <si>
-    <t>ยอดเบิกเงินงวดสะสม(interim_payment + interim_payment_less_previous(Total Value Of Interim Payment))</t>
   </si>
   <si>
     <t>เปอร์เซ็นต์ของยอดเบิกเงินงวดสะสม</t>
@@ -1666,6 +1658,40 @@
     <t>มูลค่าสัญญาก่อน VAT(หรือมูลค่าไม่รวม VAT)
 ถ้าเลือกรวม vat จะได้ contract_value = contract_value - vat
 ถ้าเลือกไม่รวม vat จะได้ contract_value = contract_value</t>
+  </si>
+  <si>
+    <t>มูลค่า VAT
+ถ้าเลือกรวม vat จะได้ vat = contract_value *(7 ÷107)
+ถ้าเลือกไม่รวม vat จะได้ vat = contract_value * (7 ÷100)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ยอดเบิกเงินงวดสะสม(interim_payment + interim_payment_less_previous(คือ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Total Value Of Interim Payment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>เงินจ่ายระหว่างงวด(ยอดเบิกเงินงวดปัจจุบัน ÷ ยอดเบิกเงินงวดสุดท้าย(คือ Net Value of Current Claim))</t>
+  </si>
+  <si>
+    <t>ยอดเบิกเงินงวดสะสมถึงปัจจุบัน(ไม่รวมปัจจุบัน)(คือ Less Previous Interim Payment)</t>
   </si>
 </sst>
 </file>
@@ -2046,11 +2072,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2058,10 +2084,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2070,14 +2096,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2370,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2472,11 +2498,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -2513,7 +2539,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -2537,7 +2563,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2636,7 +2662,7 @@
         <v>129</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -2647,7 +2673,7 @@
         <v>129</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>186</v>
+        <v>486</v>
       </c>
       <c r="E28" s="11">
         <v>869161</v>
@@ -2759,7 +2785,7 @@
         <v>129</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -2778,7 +2804,7 @@
         <v>129</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -2813,7 +2839,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
@@ -2831,13 +2857,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2848,7 +2874,7 @@
         <v>137</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2859,7 +2885,7 @@
         <v>137</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2903,7 +2929,7 @@
         <v>129</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>197</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2925,7 +2951,7 @@
         <v>129</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>198</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2936,7 +2962,7 @@
         <v>129</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2947,7 +2973,7 @@
         <v>129</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>200</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2958,7 +2984,7 @@
         <v>129</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2969,7 +2995,7 @@
         <v>129</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2980,7 +3006,7 @@
         <v>129</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2991,7 +3017,7 @@
         <v>129</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3057,7 +3083,7 @@
         <v>119</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3068,12 +3094,12 @@
         <v>137</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B65" s="53"/>
       <c r="C65" s="53"/>
@@ -3091,24 +3117,24 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B67" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B68" s="33" t="s">
         <v>137</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3151,7 +3177,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B73" s="49"/>
       <c r="C73" s="49"/>
@@ -3167,44 +3193,44 @@
         <v>117</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B75" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E75" s="18">
         <v>0</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B76" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E76" s="18">
         <v>1</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3212,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3220,12 +3246,12 @@
         <v>3</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
@@ -3241,44 +3267,44 @@
         <v>117</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B81" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E81" s="18">
         <v>0</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B82" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E82" s="18">
         <v>1</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3286,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,7 +3341,7 @@
         <v>118</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3370,7 +3396,7 @@
         <v>129</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3381,7 +3407,7 @@
         <v>129</v>
       </c>
       <c r="C92" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,7 +3429,7 @@
         <v>137</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3443,7 +3469,7 @@
         <v>118</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3465,7 +3491,7 @@
         <v>137</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3509,7 +3535,7 @@
         <v>129</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3531,7 +3557,7 @@
         <v>129</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3542,7 +3568,7 @@
         <v>129</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3553,7 +3579,7 @@
         <v>129</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>200</v>
+        <v>487</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3564,7 +3590,7 @@
         <v>129</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3575,7 +3601,7 @@
         <v>129</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3586,7 +3612,7 @@
         <v>129</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3597,7 +3623,7 @@
         <v>129</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3663,7 +3689,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3674,7 +3700,7 @@
         <v>137</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,7 +3729,7 @@
         <v>118</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3756,11 +3782,11 @@
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="B130" s="47"/>
-      <c r="C130" s="47"/>
+      <c r="A130" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="B130" s="51"/>
+      <c r="C130" s="51"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
@@ -3773,21 +3799,21 @@
         <v>117</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E132" s="18">
         <v>1</v>
@@ -3798,7 +3824,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B133" s="33" t="s">
         <v>119</v>
@@ -3874,11 +3900,11 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="46" t="s">
+      <c r="A140" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B140" s="47"/>
-      <c r="C140" s="47"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="51"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
@@ -3917,7 +3943,7 @@
         <v>118</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E142" s="18">
         <v>1001</v>
@@ -4057,7 +4083,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B149" s="49"/>
       <c r="C149" s="49"/>
@@ -4123,7 +4149,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="48" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B154" s="49"/>
       <c r="C154" s="49"/>
@@ -4176,15 +4202,15 @@
         <v>2</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="46" t="s">
-        <v>353</v>
-      </c>
-      <c r="B159" s="47"/>
-      <c r="C159" s="47"/>
+      <c r="A159" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="B159" s="51"/>
+      <c r="C159" s="51"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
@@ -4317,7 +4343,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="52" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B166" s="53"/>
       <c r="C166" s="53"/>
@@ -4400,7 +4426,7 @@
         <v>124</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E169" s="32">
         <v>2</v>
@@ -4435,7 +4461,7 @@
         <v>137</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E170" s="32">
         <v>3</v>
@@ -4610,7 +4636,7 @@
         <v>119</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E175" s="22">
         <v>8</v>
@@ -4638,71 +4664,65 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="56" t="s">
+      <c r="A177" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B177" s="55"/>
-      <c r="C177" s="55"/>
+      <c r="B177" s="47"/>
+      <c r="C177" s="47"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="55"/>
-      <c r="B178" s="55"/>
-      <c r="C178" s="55"/>
+      <c r="A178" s="47"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="47"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="55"/>
-      <c r="B179" s="55"/>
-      <c r="C179" s="55"/>
+      <c r="A179" s="47"/>
+      <c r="B179" s="47"/>
+      <c r="C179" s="47"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="55"/>
-      <c r="B180" s="55"/>
-      <c r="C180" s="55"/>
+      <c r="A180" s="47"/>
+      <c r="B180" s="47"/>
+      <c r="C180" s="47"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="55"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="55"/>
+      <c r="A181" s="47"/>
+      <c r="B181" s="47"/>
+      <c r="C181" s="47"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="40"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="B183" s="55"/>
-      <c r="C183" s="55"/>
+      <c r="A183" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B183" s="47"/>
+      <c r="C183" s="47"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="55"/>
-      <c r="B184" s="55"/>
-      <c r="C184" s="55"/>
+      <c r="A184" s="47"/>
+      <c r="B184" s="47"/>
+      <c r="C184" s="47"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="55"/>
-      <c r="B185" s="55"/>
-      <c r="C185" s="55"/>
+      <c r="A185" s="47"/>
+      <c r="B185" s="47"/>
+      <c r="C185" s="47"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="55"/>
-      <c r="B186" s="55"/>
-      <c r="C186" s="55"/>
+      <c r="A186" s="47"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="47"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="55"/>
-      <c r="B187" s="55"/>
-      <c r="C187" s="55"/>
+      <c r="A187" s="47"/>
+      <c r="B187" s="47"/>
+      <c r="C187" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A183:C187"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A177:C181"/>
     <mergeCell ref="A140:C140"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
@@ -4717,6 +4737,12 @@
     <mergeCell ref="A135:C135"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A183:C187"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A177:C181"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4740,33 +4766,33 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>325</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>326</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4776,7 +4802,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4796,10 +4822,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4819,7 +4845,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4829,7 +4855,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +4863,7 @@
         <v>181</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4861,27 +4887,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4889,27 +4915,27 @@
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4917,27 +4943,27 @@
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4945,97 +4971,97 @@
     </row>
     <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5043,67 +5069,67 @@
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5111,132 +5137,132 @@
     </row>
     <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5244,42 +5270,42 @@
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5287,27 +5313,27 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5315,27 +5341,27 @@
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5343,47 +5369,47 @@
     </row>
     <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5391,27 +5417,27 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5419,37 +5445,37 @@
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5457,57 +5483,57 @@
     </row>
     <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5515,67 +5541,67 @@
     </row>
     <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -5598,767 +5624,767 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6381,7 +6407,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6548,7 +6574,7 @@
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6558,12 +6584,12 @@
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6571,7 +6597,7 @@
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6581,12 +6607,12 @@
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6818,7 +6844,7 @@
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6828,12 +6854,12 @@
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6907,7 +6933,7 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6930,7 +6956,7 @@
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6953,7 +6979,7 @@
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6986,7 +7012,7 @@
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7051,7 +7077,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7218,7 +7244,7 @@
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7228,12 +7254,12 @@
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7241,7 +7267,7 @@
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7251,12 +7277,12 @@
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7488,7 +7514,7 @@
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7498,12 +7524,12 @@
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7577,7 +7603,7 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7600,7 +7626,7 @@
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7623,7 +7649,7 @@
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7656,7 +7682,7 @@
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -2072,11 +2072,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2084,10 +2084,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2096,14 +2096,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2397,7 +2397,7 @@
   <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:C40"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2498,11 +2498,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -3782,11 +3782,11 @@
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="50" t="s">
+      <c r="A130" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="B130" s="51"/>
-      <c r="C130" s="51"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="47"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
@@ -3900,11 +3900,11 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="50" t="s">
+      <c r="A140" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B140" s="51"/>
-      <c r="C140" s="51"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="47"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
@@ -4206,11 +4206,11 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="50" t="s">
+      <c r="A159" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="B159" s="51"/>
-      <c r="C159" s="51"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="47"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
@@ -4664,65 +4664,71 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="54" t="s">
+      <c r="A177" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B177" s="47"/>
-      <c r="C177" s="47"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="55"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="47"/>
-      <c r="B178" s="47"/>
-      <c r="C178" s="47"/>
+      <c r="A178" s="55"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="55"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="47"/>
-      <c r="B179" s="47"/>
-      <c r="C179" s="47"/>
+      <c r="A179" s="55"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="55"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="47"/>
-      <c r="B180" s="47"/>
-      <c r="C180" s="47"/>
+      <c r="A180" s="55"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="55"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="47"/>
-      <c r="B181" s="47"/>
-      <c r="C181" s="47"/>
+      <c r="A181" s="55"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="55"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="40"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="46" t="s">
+      <c r="A183" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="B183" s="47"/>
-      <c r="C183" s="47"/>
+      <c r="B183" s="55"/>
+      <c r="C183" s="55"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="47"/>
-      <c r="B184" s="47"/>
-      <c r="C184" s="47"/>
+      <c r="A184" s="55"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="55"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="47"/>
-      <c r="B185" s="47"/>
-      <c r="C185" s="47"/>
+      <c r="A185" s="55"/>
+      <c r="B185" s="55"/>
+      <c r="C185" s="55"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="47"/>
-      <c r="B186" s="47"/>
-      <c r="C186" s="47"/>
+      <c r="A186" s="55"/>
+      <c r="B186" s="55"/>
+      <c r="C186" s="55"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="47"/>
-      <c r="B187" s="47"/>
-      <c r="C187" s="47"/>
+      <c r="A187" s="55"/>
+      <c r="B187" s="55"/>
+      <c r="C187" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A183:C187"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A177:C181"/>
     <mergeCell ref="A140:C140"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
@@ -4737,12 +4743,6 @@
     <mergeCell ref="A135:C135"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A183:C187"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A177:C181"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="489">
   <si>
     <t>supplier_name</t>
   </si>
@@ -597,9 +597,6 @@
     <t>วันที่สร้าง PO</t>
   </si>
   <si>
-    <t>รหัส PO (Foreign Key อ้างอิงตาราง po)</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -711,9 +708,6 @@
     <t>สถานะการตรวจรับ (เช่น "รอตรวจ", "ตรวจแล้ว", "ผ่าน", "ไม่ผ่าน")</t>
   </si>
   <si>
-    <t>รหัสการตรวจรับ (Foreign Key อ้างอิงตาราง inspect_main)</t>
-  </si>
-  <si>
     <t>เปอร์เซ็นต์ของปริมาณงานที่วางแผนไว้</t>
   </si>
   <si>
@@ -774,13 +768,7 @@
     <t>รหัสการตรวจรับงาน(Primary Key, Auto Increment)</t>
   </si>
   <si>
-    <t>รหัสงวดการตรวจรับ(Primary Key, Auto Increment)</t>
-  </si>
-  <si>
     <t>ลำดับงวด(ลำดับอัตโนมัติ 1, 2, 3, ...)</t>
-  </si>
-  <si>
-    <t>เงินจ่ายระหว่างงวด(ยอดเบิกเงินงวดปัจจุบัน/ ยอดเบิกเงินงวดสุดท้าย(Net Value of Current Claim))</t>
   </si>
   <si>
     <t>ยอดเบิกเงินงวดสะสมถึงปัจจุบัน(ไม่รวมปัจจุบัน)(Less Previous Interim Payment)</t>
@@ -1692,6 +1680,15 @@
   </si>
   <si>
     <t>ยอดเบิกเงินงวดสะสมถึงปัจจุบัน(ไม่รวมปัจจุบัน)(คือ Less Previous Interim Payment)</t>
+  </si>
+  <si>
+    <t>เงินจ่ายระหว่างงวด(ยอดเบิกเงินงวดปัจจุบันหรือยอดเบิกเงินงวดสุดท้าย(Net Value of Current Claim))</t>
+  </si>
+  <si>
+    <t>รหัสงวด PO(Foreign Key อ้างอิงตาราง po_period)</t>
+  </si>
+  <si>
+    <t>รหัส PO (Foreign Key อ้างอิงตาราง po_period)</t>
   </si>
 </sst>
 </file>
@@ -2072,11 +2069,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2084,10 +2081,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2096,14 +2093,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2396,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2419,7 +2416,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -2443,7 +2440,7 @@
         <v>118</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2459,7 +2456,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -2498,11 +2495,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
+      <c r="A11" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -2539,7 +2536,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -2563,7 +2560,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2596,7 +2593,7 @@
         <v>124</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2640,7 +2637,7 @@
         <v>128</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2651,7 +2648,7 @@
         <v>129</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -2662,7 +2659,7 @@
         <v>129</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -2673,7 +2670,7 @@
         <v>129</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E28" s="11">
         <v>869161</v>
@@ -2687,7 +2684,7 @@
         <v>128</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" s="16">
         <f>E28*7/107</f>
@@ -2702,7 +2699,7 @@
         <v>130</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="16">
         <f>E28-E29</f>
@@ -2725,7 +2722,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>25</v>
@@ -2744,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>26</v>
@@ -2763,7 +2760,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>47</v>
@@ -2785,7 +2782,7 @@
         <v>129</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -2804,7 +2801,7 @@
         <v>129</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -2839,14 +2836,14 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>116</v>
@@ -2857,13 +2854,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2871,10 +2868,10 @@
         <v>75</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2882,10 +2879,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2896,7 +2893,7 @@
         <v>129</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2907,7 +2904,7 @@
         <v>129</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2918,7 +2915,7 @@
         <v>129</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2929,7 +2926,7 @@
         <v>129</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2940,7 +2937,7 @@
         <v>129</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2951,7 +2948,7 @@
         <v>129</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2962,7 +2959,7 @@
         <v>129</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2973,7 +2970,7 @@
         <v>129</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2984,7 +2981,7 @@
         <v>129</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2995,7 +2992,7 @@
         <v>129</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3006,7 +3003,7 @@
         <v>129</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3017,7 +3014,7 @@
         <v>129</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3036,10 +3033,10 @@
         <v>34</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3047,10 +3044,10 @@
         <v>33</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3069,10 +3066,10 @@
         <v>79</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3083,7 +3080,7 @@
         <v>119</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3091,22 +3088,22 @@
         <v>109</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B65" s="53"/>
       <c r="C65" s="53"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>116</v>
@@ -3117,24 +3114,24 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B67" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3142,7 +3139,7 @@
         <v>114</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>59</v>
@@ -3177,7 +3174,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B73" s="49"/>
       <c r="C73" s="49"/>
@@ -3193,44 +3190,44 @@
         <v>117</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B75" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E75" s="18">
         <v>0</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B76" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E76" s="18">
         <v>1</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3238,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3246,12 +3243,12 @@
         <v>3</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
@@ -3267,44 +3264,44 @@
         <v>117</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B81" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E81" s="18">
         <v>0</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B82" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E82" s="18">
         <v>1</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3312,19 +3309,19 @@
         <v>2</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B84" s="53"/>
       <c r="C84" s="53"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>116</v>
@@ -3341,7 +3338,7 @@
         <v>118</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3349,10 +3346,10 @@
         <v>75</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>135</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3360,7 +3357,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="44" t="s">
         <v>25</v>
@@ -3371,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89" s="44" t="s">
         <v>26</v>
@@ -3382,7 +3379,7 @@
         <v>5</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C90" s="44" t="s">
         <v>47</v>
@@ -3396,7 +3393,7 @@
         <v>129</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3407,7 +3404,7 @@
         <v>129</v>
       </c>
       <c r="C92" s="44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3418,7 +3415,7 @@
         <v>119</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3426,10 +3423,10 @@
         <v>29</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3437,7 +3434,7 @@
         <v>30</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>31</v>
@@ -3445,14 +3442,14 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B97" s="53"/>
       <c r="C97" s="53"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B98" s="35" t="s">
         <v>116</v>
@@ -3463,24 +3460,24 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>112</v>
+        <v>473</v>
       </c>
       <c r="B99" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>194</v>
+        <v>487</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>173</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3488,10 +3485,10 @@
         <v>8</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3502,7 +3499,7 @@
         <v>129</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3513,7 +3510,7 @@
         <v>129</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3524,7 +3521,7 @@
         <v>129</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3535,7 +3532,7 @@
         <v>129</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>196</v>
+        <v>486</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3546,7 +3543,7 @@
         <v>129</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3557,7 +3554,7 @@
         <v>129</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3568,7 +3565,7 @@
         <v>129</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3579,7 +3576,7 @@
         <v>129</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,7 +3587,7 @@
         <v>129</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3601,7 +3598,7 @@
         <v>129</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3612,7 +3609,7 @@
         <v>129</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3623,7 +3620,7 @@
         <v>129</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3642,10 +3639,10 @@
         <v>34</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3653,10 +3650,10 @@
         <v>33</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3675,10 +3672,10 @@
         <v>79</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3689,7 +3686,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3697,22 +3694,22 @@
         <v>109</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B122" s="53"/>
       <c r="C122" s="53"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B123" s="35" t="s">
         <v>116</v>
@@ -3729,7 +3726,7 @@
         <v>118</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3737,10 +3734,10 @@
         <v>112</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3748,7 +3745,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>59</v>
@@ -3782,11 +3779,11 @@
       <c r="C129" s="19"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="B130" s="47"/>
-      <c r="C130" s="47"/>
+      <c r="A130" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="B130" s="51"/>
+      <c r="C130" s="51"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
@@ -3799,21 +3796,21 @@
         <v>117</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E132" s="18">
         <v>1</v>
@@ -3824,7 +3821,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B133" s="33" t="s">
         <v>119</v>
@@ -3849,7 +3846,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B135" s="49"/>
       <c r="C135" s="49"/>
@@ -3885,7 +3882,7 @@
         <v>118</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -3900,11 +3897,11 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B140" s="47"/>
-      <c r="C140" s="47"/>
+      <c r="A140" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="51"/>
+      <c r="C140" s="51"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
@@ -3943,7 +3940,7 @@
         <v>118</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E142" s="18">
         <v>1001</v>
@@ -3997,7 +3994,7 @@
         <v>119</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E144" s="18">
         <v>1003</v>
@@ -4051,7 +4048,7 @@
         <v>122</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E146" s="18">
         <v>1005</v>
@@ -4078,12 +4075,12 @@
         <v>124</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B149" s="49"/>
       <c r="C149" s="49"/>
@@ -4113,7 +4110,7 @@
         <v>118</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E151" s="18">
         <v>0</v>
@@ -4130,7 +4127,7 @@
         <v>119</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E152" s="18">
         <v>1</v>
@@ -4149,7 +4146,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="48" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B154" s="49"/>
       <c r="C154" s="49"/>
@@ -4179,7 +4176,7 @@
         <v>118</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E156" s="30">
         <v>1</v>
@@ -4202,15 +4199,15 @@
         <v>2</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="B159" s="47"/>
-      <c r="C159" s="47"/>
+      <c r="A159" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="B159" s="51"/>
+      <c r="C159" s="51"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
@@ -4243,7 +4240,7 @@
         <v>118</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E161" s="27">
         <v>1</v>
@@ -4266,7 +4263,7 @@
         <v>124</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E162" s="27">
         <v>2</v>
@@ -4286,10 +4283,10 @@
         <v>80</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E163" s="26">
         <v>3</v>
@@ -4312,7 +4309,7 @@
         <v>119</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E164" s="18">
         <v>4</v>
@@ -4343,7 +4340,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="52" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B166" s="53"/>
       <c r="C166" s="53"/>
@@ -4391,7 +4388,7 @@
         <v>118</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E168" s="32">
         <v>1</v>
@@ -4426,7 +4423,7 @@
         <v>124</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E169" s="32">
         <v>2</v>
@@ -4458,10 +4455,10 @@
         <v>8</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E170" s="32">
         <v>3</v>
@@ -4496,7 +4493,7 @@
         <v>124</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E171" s="20">
         <v>4</v>
@@ -4531,7 +4528,7 @@
         <v>124</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E172" s="20">
         <v>5</v>
@@ -4566,7 +4563,7 @@
         <v>124</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E173" s="20">
         <v>6</v>
@@ -4601,7 +4598,7 @@
         <v>133</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E174" s="22">
         <v>7</v>
@@ -4636,7 +4633,7 @@
         <v>119</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E175" s="22">
         <v>8</v>
@@ -4664,71 +4661,65 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="56" t="s">
+      <c r="A177" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B177" s="55"/>
-      <c r="C177" s="55"/>
+      <c r="B177" s="47"/>
+      <c r="C177" s="47"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="55"/>
-      <c r="B178" s="55"/>
-      <c r="C178" s="55"/>
+      <c r="A178" s="47"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="47"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="55"/>
-      <c r="B179" s="55"/>
-      <c r="C179" s="55"/>
+      <c r="A179" s="47"/>
+      <c r="B179" s="47"/>
+      <c r="C179" s="47"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="55"/>
-      <c r="B180" s="55"/>
-      <c r="C180" s="55"/>
+      <c r="A180" s="47"/>
+      <c r="B180" s="47"/>
+      <c r="C180" s="47"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="55"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="55"/>
+      <c r="A181" s="47"/>
+      <c r="B181" s="47"/>
+      <c r="C181" s="47"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="40"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="54" t="s">
-        <v>353</v>
-      </c>
-      <c r="B183" s="55"/>
-      <c r="C183" s="55"/>
+      <c r="A183" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="B183" s="47"/>
+      <c r="C183" s="47"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="55"/>
-      <c r="B184" s="55"/>
-      <c r="C184" s="55"/>
+      <c r="A184" s="47"/>
+      <c r="B184" s="47"/>
+      <c r="C184" s="47"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="55"/>
-      <c r="B185" s="55"/>
-      <c r="C185" s="55"/>
+      <c r="A185" s="47"/>
+      <c r="B185" s="47"/>
+      <c r="C185" s="47"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="55"/>
-      <c r="B186" s="55"/>
-      <c r="C186" s="55"/>
+      <c r="A186" s="47"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="47"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="55"/>
-      <c r="B187" s="55"/>
-      <c r="C187" s="55"/>
+      <c r="A187" s="47"/>
+      <c r="B187" s="47"/>
+      <c r="C187" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A183:C187"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A177:C181"/>
     <mergeCell ref="A140:C140"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
@@ -4743,6 +4734,12 @@
     <mergeCell ref="A135:C135"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A183:C187"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A177:C181"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4766,104 +4763,104 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>330</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4887,27 +4884,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4915,27 +4912,27 @@
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4943,27 +4940,27 @@
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4971,97 +4968,97 @@
     </row>
     <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5069,67 +5066,67 @@
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5137,132 +5134,132 @@
     </row>
     <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5270,42 +5267,42 @@
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5313,27 +5310,27 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5341,27 +5338,27 @@
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5369,47 +5366,47 @@
     </row>
     <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5417,27 +5414,27 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5445,37 +5442,37 @@
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5483,57 +5480,57 @@
     </row>
     <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5541,67 +5538,67 @@
     </row>
     <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5624,767 +5621,767 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6407,12 +6404,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6435,7 +6432,7 @@
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6458,7 +6455,7 @@
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6481,7 +6478,7 @@
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6574,7 +6571,7 @@
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6584,12 +6581,12 @@
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6597,7 +6594,7 @@
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6607,12 +6604,12 @@
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6620,12 +6617,12 @@
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6683,12 +6680,12 @@
     </row>
     <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6806,12 +6803,12 @@
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6844,7 +6841,7 @@
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6854,12 +6851,12 @@
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6867,7 +6864,7 @@
     </row>
     <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6890,7 +6887,7 @@
     </row>
     <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6933,7 +6930,7 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6956,7 +6953,7 @@
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6979,7 +6976,7 @@
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7012,7 +7009,7 @@
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7077,12 +7074,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7105,7 +7102,7 @@
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7128,7 +7125,7 @@
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7151,7 +7148,7 @@
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7244,7 +7241,7 @@
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7254,12 +7251,12 @@
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7267,7 +7264,7 @@
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7277,12 +7274,12 @@
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7290,12 +7287,12 @@
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7353,12 +7350,12 @@
     </row>
     <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7476,12 +7473,12 @@
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7514,7 +7511,7 @@
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7524,12 +7521,12 @@
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7537,7 +7534,7 @@
     </row>
     <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7560,7 +7557,7 @@
     </row>
     <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7603,7 +7600,7 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7626,7 +7623,7 @@
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7649,7 +7646,7 @@
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7682,7 +7679,7 @@
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="496">
   <si>
     <t>supplier_name</t>
   </si>
@@ -279,9 +279,6 @@
     <t>create_date</t>
   </si>
   <si>
-    <t>วันที่จัดทำเอกสาร</t>
-  </si>
-  <si>
     <t>สถานะแผนงาน(1:ontime, 2:delayed, 3:finished early)</t>
   </si>
   <si>
@@ -702,9 +699,6 @@
     <t>BOOLEAN/TINYINT</t>
   </si>
   <si>
-    <t>DATETIME/TIMESTAMP</t>
-  </si>
-  <si>
     <t>สถานะการตรวจรับ (เช่น "รอตรวจ", "ตรวจแล้ว", "ผ่าน", "ไม่ผ่าน")</t>
   </si>
   <si>
@@ -726,9 +720,6 @@
     <t>รหัส Workflow (Foreign Key อ้างอิงตาราง workflows)</t>
   </si>
   <si>
-    <t>รหัสงวดการตรวจรับ (Foreign Key อ้างอิงตาราง inspect_period)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ตาราง: inspect_main </t>
   </si>
   <si>
@@ -760,9 +751,6 @@
   </si>
   <si>
     <t>มูลค่าเงินประกันผลงานทั้งหมด(Total Value of Retension)</t>
-  </si>
-  <si>
-    <t>ผู้จัดทำเอกสาร (Foreign Key อ้างอิงตาราง users)</t>
   </si>
   <si>
     <t>รหัสการตรวจรับงาน(Primary Key, Auto Increment)</t>
@@ -1616,12 +1604,6 @@
     <t>ตาราง: po_period</t>
   </si>
   <si>
-    <t>ตาราง: po_period_detail</t>
-  </si>
-  <si>
-    <t>po_period_id</t>
-  </si>
-  <si>
     <t>รหัสงวด PO(Primary Key, Auto Increment)</t>
   </si>
   <si>
@@ -1629,15 +1611,6 @@
   </si>
   <si>
     <t>ตาราง: po_main (Purchase Order)</t>
-  </si>
-  <si>
-    <t>รหัสรายละเอียดงวด PO(Primary Key, Auto Increment)</t>
-  </si>
-  <si>
-    <t>รหัสงวด PO (Foreign Key อ้างอิงตาราง inspect_period)</t>
-  </si>
-  <si>
-    <t>po_period_detail_id</t>
   </si>
   <si>
     <t>รหัส PO (Primary Key, Auto Increment) Running number 1,2,3,…</t>
@@ -1685,10 +1658,80 @@
     <t>เงินจ่ายระหว่างงวด(ยอดเบิกเงินงวดปัจจุบันหรือยอดเบิกเงินงวดสุดท้าย(Net Value of Current Claim))</t>
   </si>
   <si>
-    <t>รหัสงวด PO(Foreign Key อ้างอิงตาราง po_period)</t>
-  </si>
-  <si>
     <t>รหัส PO (Foreign Key อ้างอิงตาราง po_period)</t>
+  </si>
+  <si>
+    <t>INT (PK)</t>
+  </si>
+  <si>
+    <t>po_number</t>
+  </si>
+  <si>
+    <t>number_of_period</t>
+  </si>
+  <si>
+    <t>จำนวนงวด</t>
+  </si>
+  <si>
+    <t>period_id</t>
+  </si>
+  <si>
+    <t>period_number</t>
+  </si>
+  <si>
+    <t>หมายเหตุ เงื่อนไขการจ่ายเงิน</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ยอดเบิกเงินงวดสะสม(interim_payment + interim_payment_less_previous(คือ </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Total Value Of Interim Payment</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>period_amount</t>
+  </si>
+  <si>
+    <t>ยอดเบิกเงินงวดปัจจุบัน</t>
+  </si>
+  <si>
+    <t>po_status</t>
+  </si>
+  <si>
+    <t>ตาราง: inspection_periods</t>
+  </si>
+  <si>
+    <t>inspection_id</t>
+  </si>
+  <si>
+    <t>รหัสงวด PO(Foreign Key อ้างอิงตาราง inspect_main)</t>
+  </si>
+  <si>
+    <t>ตาราง: inspection_period_details</t>
+  </si>
+  <si>
+    <t>rec_id</t>
+  </si>
+  <si>
+    <t>รหัสการตรวจรับงาน (Foreign Key อ้างอิงตาราง inspection_periods)</t>
   </si>
 </sst>
 </file>
@@ -1786,12 +1829,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
@@ -1830,6 +1867,11 @@
       <strike/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1944,7 +1986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2040,16 +2082,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2058,22 +2097,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2081,10 +2120,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2093,14 +2132,20 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2391,16 +2436,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L187"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="10"/>
     <col min="5" max="5" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
@@ -2415,32 +2460,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="A1" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,39 +2493,39 @@
         <v>0</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
+      <c r="A6" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="C7" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2488,2258 +2533,2096 @@
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
+      <c r="A11" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="C12" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>118</v>
+        <v>73</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>117</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>119</v>
+      <c r="B14" s="37" t="s">
+        <v>118</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="19"/>
+    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="C17" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="E17" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="33" t="s">
+      <c r="C18" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="18">
+        <v>2</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="18">
+        <v>3</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="33" t="s">
+      <c r="B30" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="13" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="E28" s="11">
-        <v>869161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="16">
-        <f>E28*7/107</f>
-        <v>56861</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="16">
-        <f>E28-E29</f>
-        <v>812300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+        <v>124</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+      <c r="A35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>134</v>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="E39" s="11">
+        <v>869161</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
-        <v>471</v>
-      </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
+      <c r="A40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="16">
+        <f>E39*7/107</f>
+        <v>56861</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>117</v>
+      <c r="A41" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="16">
+        <f>E39-E40</f>
+        <v>812300</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>473</v>
+        <v>44</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>474</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>475</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>192</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>172</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="A46" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>174</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>484</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>485</v>
+      <c r="A50" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>56</v>
+        <v>489</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>483</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>195</v>
-      </c>
+      <c r="A53" s="51" t="s">
+        <v>467</v>
+      </c>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>196</v>
+      <c r="A54" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>57</v>
+        <v>483</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>197</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>198</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="44" t="s">
-        <v>32</v>
+      <c r="A57" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>175</v>
+      <c r="A58" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>176</v>
+      <c r="A59" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="45" t="s">
+      <c r="A61" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="44" t="s">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="45" t="s">
+      <c r="B78" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="18">
+        <v>2</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="B80" s="52"/>
+      <c r="C80" s="52"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="44" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="52" t="s">
-        <v>472</v>
-      </c>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B66" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="19"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="E75" s="18">
-        <v>0</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E76" s="18">
-        <v>1</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E77" s="18">
-        <v>2</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E78" s="18">
-        <v>3</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="E81" s="18">
-        <v>0</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="B82" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="E82" s="18">
-        <v>1</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E83" s="18">
-        <v>2</v>
-      </c>
-      <c r="F83" s="18" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C89" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B92" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>117</v>
+      <c r="C98" s="13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>473</v>
+        <v>32</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>487</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>488</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>172</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B104" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>174</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B105" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>486</v>
-      </c>
+      <c r="A105" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="B105" s="52"/>
+      <c r="C105" s="52"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B106" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>137</v>
+      <c r="A106" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>54</v>
+        <v>494</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>56</v>
+        <v>491</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>194</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>483</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
+      <c r="A112" s="19"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="19"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E115" s="18">
+        <v>1</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E116" s="18">
+        <v>2</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E117" s="18">
+        <v>3</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="48"/>
+      <c r="C118" s="48"/>
+      <c r="E118" s="18">
+        <v>4</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E119" s="18">
+        <v>5</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H124" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B114" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B116" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
+      <c r="I124" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J124" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E125" s="18">
+        <v>1001</v>
+      </c>
+      <c r="F125" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G125" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H125" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I125" s="18">
+        <v>1</v>
+      </c>
+      <c r="J125" s="18"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B126" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" s="18">
+        <v>1002</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I126" s="13">
+        <v>2</v>
+      </c>
+      <c r="J126" s="18"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" s="18">
+        <v>1003</v>
+      </c>
+      <c r="F127" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H127" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I127" s="13">
+        <v>3</v>
+      </c>
+      <c r="J127" s="18"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E128" s="18">
+        <v>1004</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G128" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I128" s="13">
+        <v>4</v>
+      </c>
+      <c r="J128" s="18"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E129" s="18">
+        <v>1005</v>
+      </c>
+      <c r="F129" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H129" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I129" s="18">
+        <v>5</v>
+      </c>
+      <c r="J129" s="18"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="B132" s="48"/>
+      <c r="C132" s="48"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E134" s="18">
+        <v>0</v>
+      </c>
+      <c r="F134" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E135" s="18">
+        <v>1</v>
+      </c>
+      <c r="F135" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E136" s="18">
+        <v>2</v>
+      </c>
+      <c r="F136" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="B137" s="48"/>
+      <c r="C137" s="48"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E139" s="30">
+        <v>1</v>
+      </c>
+      <c r="F139" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E140" s="18">
+        <v>2</v>
+      </c>
+      <c r="F140" s="18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B142" s="46"/>
+      <c r="C142" s="46"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B143" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G143" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B118" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B119" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="B122" s="53"/>
-      <c r="C122" s="53"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B123" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B124" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B125" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="19"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="19"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="B130" s="51"/>
-      <c r="C130" s="51"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B131" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E131" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="F131" s="18" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="B132" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E132" s="18">
-        <v>1</v>
-      </c>
-      <c r="F132" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="B133" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E133" s="18">
-        <v>2</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E134" s="18">
-        <v>3</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="B135" s="49"/>
-      <c r="C135" s="49"/>
-      <c r="E135" s="18">
-        <v>4</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B136" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E136" s="18">
-        <v>5</v>
-      </c>
-      <c r="F136" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B137" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B138" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="B140" s="51"/>
-      <c r="C140" s="51"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B141" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E141" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F141" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G141" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H141" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I141" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J141" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B142" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E142" s="18">
-        <v>1001</v>
-      </c>
-      <c r="F142" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G142" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H142" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I142" s="18">
-        <v>1</v>
-      </c>
-      <c r="J142" s="18"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B143" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E143" s="18">
-        <v>1002</v>
-      </c>
-      <c r="F143" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G143" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H143" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I143" s="13">
-        <v>2</v>
-      </c>
-      <c r="J143" s="18"/>
+      <c r="H143" s="13" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E144" s="18">
+        <v>157</v>
+      </c>
+      <c r="E144" s="27">
+        <v>1</v>
+      </c>
+      <c r="F144" s="30">
+        <v>1</v>
+      </c>
+      <c r="G144" s="28">
+        <v>1</v>
+      </c>
+      <c r="H144" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E145" s="27">
+        <v>2</v>
+      </c>
+      <c r="F145" s="30">
+        <v>1</v>
+      </c>
+      <c r="G145" s="28">
+        <v>2</v>
+      </c>
+      <c r="H145" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E146" s="26">
+        <v>3</v>
+      </c>
+      <c r="F146" s="30">
+        <v>1</v>
+      </c>
+      <c r="G146" s="29">
+        <v>3</v>
+      </c>
+      <c r="H146" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E147" s="18">
+        <v>4</v>
+      </c>
+      <c r="F147" s="18">
+        <v>2</v>
+      </c>
+      <c r="G147" s="18">
+        <v>1</v>
+      </c>
+      <c r="H147" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E148" s="18">
+        <v>5</v>
+      </c>
+      <c r="F148" s="18">
+        <v>2</v>
+      </c>
+      <c r="G148" s="18">
+        <v>2</v>
+      </c>
+      <c r="H148" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="B149" s="52"/>
+      <c r="C149" s="52"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B150" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I150" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J150" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K150" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L150" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E151" s="32">
+        <v>1</v>
+      </c>
+      <c r="F151" s="32">
+        <v>1</v>
+      </c>
+      <c r="G151" s="32">
+        <v>1</v>
+      </c>
+      <c r="H151" s="27">
+        <v>1</v>
+      </c>
+      <c r="I151" s="32">
+        <v>1002</v>
+      </c>
+      <c r="J151" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K151" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L151" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B152" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E152" s="32">
+        <v>2</v>
+      </c>
+      <c r="F152" s="32">
+        <v>1</v>
+      </c>
+      <c r="G152" s="32">
+        <v>1</v>
+      </c>
+      <c r="H152" s="27">
+        <v>2</v>
+      </c>
+      <c r="I152" s="32">
         <v>1003</v>
       </c>
-      <c r="F144" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G144" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H144" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I144" s="13">
+      <c r="J152" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K152" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L152" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E153" s="32">
         <v>3</v>
       </c>
-      <c r="J144" s="18"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
+      <c r="F153" s="32">
+        <v>1</v>
+      </c>
+      <c r="G153" s="32">
+        <v>1</v>
+      </c>
+      <c r="H153" s="27">
+        <v>3</v>
+      </c>
+      <c r="I153" s="32">
+        <v>1004</v>
+      </c>
+      <c r="J153" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K153" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L153" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B145" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E145" s="18">
+      <c r="B154" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E154" s="20">
+        <v>4</v>
+      </c>
+      <c r="F154" s="20">
+        <v>1</v>
+      </c>
+      <c r="G154" s="20">
+        <v>2</v>
+      </c>
+      <c r="H154" s="20">
+        <v>1</v>
+      </c>
+      <c r="I154" s="20">
+        <v>1002</v>
+      </c>
+      <c r="J154" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K154" s="21">
+        <v>45500.625</v>
+      </c>
+      <c r="L154" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B155" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E155" s="20">
+        <v>5</v>
+      </c>
+      <c r="F155" s="20">
+        <v>1</v>
+      </c>
+      <c r="G155" s="20">
+        <v>2</v>
+      </c>
+      <c r="H155" s="20">
+        <v>2</v>
+      </c>
+      <c r="I155" s="20">
+        <v>1003</v>
+      </c>
+      <c r="J155" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K155" s="21">
+        <v>45500.645833333336</v>
+      </c>
+      <c r="L155" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B156" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E156" s="20">
+        <v>6</v>
+      </c>
+      <c r="F156" s="20">
+        <v>1</v>
+      </c>
+      <c r="G156" s="20">
+        <v>2</v>
+      </c>
+      <c r="H156" s="20">
+        <v>3</v>
+      </c>
+      <c r="I156" s="20">
         <v>1004</v>
       </c>
-      <c r="F145" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G145" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H145" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I145" s="13">
+      <c r="J156" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K156" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L156" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E157" s="22">
+        <v>7</v>
+      </c>
+      <c r="F157" s="22">
+        <v>2</v>
+      </c>
+      <c r="G157" s="22">
+        <v>1</v>
+      </c>
+      <c r="H157" s="23">
         <v>4</v>
       </c>
-      <c r="J145" s="18"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B146" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E146" s="18">
+      <c r="I157" s="23">
+        <v>1004</v>
+      </c>
+      <c r="J157" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K157" s="24">
+        <v>45500.625</v>
+      </c>
+      <c r="L157" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E158" s="22">
+        <v>8</v>
+      </c>
+      <c r="F158" s="22">
+        <v>2</v>
+      </c>
+      <c r="G158" s="22">
+        <v>1</v>
+      </c>
+      <c r="H158" s="23">
+        <v>5</v>
+      </c>
+      <c r="I158" s="23">
         <v>1005</v>
       </c>
-      <c r="F146" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G146" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H146" s="18" t="s">
+      <c r="J158" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K158" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L158" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="I146" s="18">
-        <v>5</v>
-      </c>
-      <c r="J146" s="18"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B147" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="48" t="s">
+      <c r="B160" s="54"/>
+      <c r="C160" s="54"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="54"/>
+      <c r="B161" s="54"/>
+      <c r="C161" s="54"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="54"/>
+      <c r="B162" s="54"/>
+      <c r="C162" s="54"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="54"/>
+      <c r="B163" s="54"/>
+      <c r="C163" s="54"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="54"/>
+      <c r="B164" s="54"/>
+      <c r="C164" s="54"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="25"/>
+      <c r="B165" s="39"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B149" s="49"/>
-      <c r="C149" s="49"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B150" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E150" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F150" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B151" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E151" s="18">
-        <v>0</v>
-      </c>
-      <c r="F151" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B152" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E152" s="18">
-        <v>1</v>
-      </c>
-      <c r="F152" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E153" s="18">
-        <v>2</v>
-      </c>
-      <c r="F153" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="B154" s="49"/>
-      <c r="C154" s="49"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B155" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E155" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F155" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B156" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E156" s="30">
-        <v>1</v>
-      </c>
-      <c r="F156" s="31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B157" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E157" s="18">
-        <v>2</v>
-      </c>
-      <c r="F157" s="18" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="B159" s="51"/>
-      <c r="C159" s="51"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B160" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E160" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F160" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G160" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H160" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B161" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E161" s="27">
-        <v>1</v>
-      </c>
-      <c r="F161" s="30">
-        <v>1</v>
-      </c>
-      <c r="G161" s="28">
-        <v>1</v>
-      </c>
-      <c r="H161" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B162" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E162" s="27">
-        <v>2</v>
-      </c>
-      <c r="F162" s="30">
-        <v>1</v>
-      </c>
-      <c r="G162" s="28">
-        <v>2</v>
-      </c>
-      <c r="H162" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B163" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E163" s="26">
-        <v>3</v>
-      </c>
-      <c r="F163" s="30">
-        <v>1</v>
-      </c>
-      <c r="G163" s="29">
-        <v>3</v>
-      </c>
-      <c r="H163" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B164" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E164" s="18">
-        <v>4</v>
-      </c>
-      <c r="F164" s="18">
-        <v>2</v>
-      </c>
-      <c r="G164" s="18">
-        <v>1</v>
-      </c>
-      <c r="H164" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E165" s="18">
-        <v>5</v>
-      </c>
-      <c r="F165" s="18">
-        <v>2</v>
-      </c>
-      <c r="G165" s="18">
-        <v>2</v>
-      </c>
-      <c r="H165" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="52" t="s">
-        <v>348</v>
-      </c>
-      <c r="B166" s="53"/>
-      <c r="C166" s="53"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B167" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E167" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H167" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I167" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J167" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K167" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L167" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B168" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E168" s="32">
-        <v>1</v>
-      </c>
-      <c r="F168" s="32">
-        <v>1</v>
-      </c>
-      <c r="G168" s="32">
-        <v>1</v>
-      </c>
-      <c r="H168" s="27">
-        <v>1</v>
-      </c>
-      <c r="I168" s="32">
-        <v>1002</v>
-      </c>
-      <c r="J168" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K168" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="L168" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B169" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E169" s="32">
-        <v>2</v>
-      </c>
-      <c r="F169" s="32">
-        <v>1</v>
-      </c>
-      <c r="G169" s="32">
-        <v>1</v>
-      </c>
-      <c r="H169" s="27">
-        <v>2</v>
-      </c>
-      <c r="I169" s="32">
-        <v>1003</v>
-      </c>
-      <c r="J169" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K169" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="L169" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B170" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="E170" s="32">
-        <v>3</v>
-      </c>
-      <c r="F170" s="32">
-        <v>1</v>
-      </c>
-      <c r="G170" s="32">
-        <v>1</v>
-      </c>
-      <c r="H170" s="27">
-        <v>3</v>
-      </c>
-      <c r="I170" s="32">
-        <v>1004</v>
-      </c>
-      <c r="J170" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K170" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="L170" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B171" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E171" s="20">
-        <v>4</v>
-      </c>
-      <c r="F171" s="20">
-        <v>1</v>
-      </c>
-      <c r="G171" s="20">
-        <v>2</v>
-      </c>
-      <c r="H171" s="20">
-        <v>1</v>
-      </c>
-      <c r="I171" s="20">
-        <v>1002</v>
-      </c>
-      <c r="J171" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K171" s="21">
-        <v>45500.625</v>
-      </c>
-      <c r="L171" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B172" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E172" s="20">
-        <v>5</v>
-      </c>
-      <c r="F172" s="20">
-        <v>1</v>
-      </c>
-      <c r="G172" s="20">
-        <v>2</v>
-      </c>
-      <c r="H172" s="20">
-        <v>2</v>
-      </c>
-      <c r="I172" s="20">
-        <v>1003</v>
-      </c>
-      <c r="J172" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K172" s="21">
-        <v>45500.645833333336</v>
-      </c>
-      <c r="L172" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B173" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E173" s="20">
-        <v>6</v>
-      </c>
-      <c r="F173" s="20">
-        <v>1</v>
-      </c>
-      <c r="G173" s="20">
-        <v>2</v>
-      </c>
-      <c r="H173" s="20">
-        <v>3</v>
-      </c>
-      <c r="I173" s="20">
-        <v>1004</v>
-      </c>
-      <c r="J173" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K173" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L173" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B174" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E174" s="22">
-        <v>7</v>
-      </c>
-      <c r="F174" s="22">
-        <v>2</v>
-      </c>
-      <c r="G174" s="22">
-        <v>1</v>
-      </c>
-      <c r="H174" s="23">
-        <v>4</v>
-      </c>
-      <c r="I174" s="23">
-        <v>1004</v>
-      </c>
-      <c r="J174" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="K174" s="24">
-        <v>45500.625</v>
-      </c>
-      <c r="L174" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B175" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E175" s="22">
-        <v>8</v>
-      </c>
-      <c r="F175" s="22">
-        <v>2</v>
-      </c>
-      <c r="G175" s="22">
-        <v>1</v>
-      </c>
-      <c r="H175" s="23">
-        <v>5</v>
-      </c>
-      <c r="I175" s="23">
-        <v>1005</v>
-      </c>
-      <c r="J175" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="K175" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L175" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B177" s="47"/>
-      <c r="C177" s="47"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="47"/>
-      <c r="B178" s="47"/>
-      <c r="C178" s="47"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="47"/>
-      <c r="B179" s="47"/>
-      <c r="C179" s="47"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="47"/>
-      <c r="B180" s="47"/>
-      <c r="C180" s="47"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="47"/>
-      <c r="B181" s="47"/>
-      <c r="C181" s="47"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="25"/>
-      <c r="B182" s="40"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="B183" s="47"/>
-      <c r="C183" s="47"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="47"/>
-      <c r="B184" s="47"/>
-      <c r="C184" s="47"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="47"/>
-      <c r="B185" s="47"/>
-      <c r="C185" s="47"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="47"/>
-      <c r="B186" s="47"/>
-      <c r="C186" s="47"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="47"/>
-      <c r="B187" s="47"/>
-      <c r="C187" s="47"/>
+      <c r="B166" s="54"/>
+      <c r="C166" s="54"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="54"/>
+      <c r="B167" s="54"/>
+      <c r="C167" s="54"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="54"/>
+      <c r="B168" s="54"/>
+      <c r="C168" s="54"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="54"/>
+      <c r="B169" s="54"/>
+      <c r="C169" s="54"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="54"/>
+      <c r="B170" s="54"/>
+      <c r="C170" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A140:C140"/>
+  <mergeCells count="18">
+    <mergeCell ref="A166:C170"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A160:C164"/>
+    <mergeCell ref="A123:C123"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A183:C187"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A177:C181"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A53:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4756,111 +4639,111 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.6640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="1" width="35.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="41" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="41" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4884,27 +4767,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4912,27 +4795,27 @@
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4940,27 +4823,27 @@
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4968,97 +4851,97 @@
     </row>
     <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5066,67 +4949,67 @@
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5134,132 +5017,132 @@
     </row>
     <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5267,42 +5150,42 @@
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5310,27 +5193,27 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5338,27 +5221,27 @@
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5366,47 +5249,47 @@
     </row>
     <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5414,27 +5297,27 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5442,37 +5325,37 @@
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5480,57 +5363,57 @@
     </row>
     <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5538,67 +5421,67 @@
     </row>
     <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5621,767 +5504,767 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6404,22 +6287,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6432,17 +6315,17 @@
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6455,17 +6338,17 @@
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6478,17 +6361,17 @@
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6498,32 +6381,32 @@
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6533,12 +6416,12 @@
     </row>
     <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6548,12 +6431,12 @@
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6571,22 +6454,22 @@
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6594,22 +6477,22 @@
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6617,22 +6500,22 @@
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6657,12 +6540,12 @@
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6680,22 +6563,22 @@
     </row>
     <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6705,57 +6588,57 @@
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6765,17 +6648,17 @@
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6785,17 +6668,17 @@
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6803,32 +6686,32 @@
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6841,22 +6724,22 @@
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6864,22 +6747,22 @@
     </row>
     <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6887,42 +6770,42 @@
     </row>
     <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6930,22 +6813,22 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6953,22 +6836,22 @@
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6976,32 +6859,32 @@
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7009,22 +6892,22 @@
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7034,27 +6917,27 @@
     </row>
     <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -7074,22 +6957,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7102,17 +6985,17 @@
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7125,17 +7008,17 @@
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7148,17 +7031,17 @@
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7168,32 +7051,32 @@
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7203,12 +7086,12 @@
     </row>
     <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7218,12 +7101,12 @@
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7241,22 +7124,22 @@
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7264,22 +7147,22 @@
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7287,22 +7170,22 @@
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7327,12 +7210,12 @@
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7350,22 +7233,22 @@
     </row>
     <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7375,57 +7258,57 @@
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7435,17 +7318,17 @@
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7455,17 +7338,17 @@
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7473,32 +7356,32 @@
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7511,22 +7394,22 @@
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7534,22 +7417,22 @@
     </row>
     <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7557,42 +7440,42 @@
     </row>
     <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7600,22 +7483,22 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7623,22 +7506,22 @@
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7646,32 +7529,32 @@
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7679,22 +7562,22 @@
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7704,27 +7587,27 @@
     </row>
     <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="500">
   <si>
     <t>supplier_name</t>
   </si>
@@ -1732,6 +1732,18 @@
   </si>
   <si>
     <t>รหัสการตรวจรับงาน (Foreign Key อ้างอิงตาราง inspection_periods)</t>
+  </si>
+  <si>
+    <t>การอนุมัติการเบิกจ่าย(1-อนุมัติ/0-ไม่อนุมัติ)</t>
+  </si>
+  <si>
+    <t>approve_disbursement</t>
+  </si>
+  <si>
+    <t>period_status</t>
+  </si>
+  <si>
+    <t>สถานะ (เช่น "รอตรวจ", "ตรวจแล้ว", "ผ่าน", "ไม่ผ่าน")</t>
   </si>
 </sst>
 </file>
@@ -2108,11 +2120,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2120,10 +2138,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2132,20 +2150,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2436,10 +2448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L170"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2460,11 +2472,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2500,11 +2512,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -2540,11 +2552,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -2585,11 +2597,11 @@
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
@@ -2659,11 +2671,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
@@ -2717,11 +2729,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="53" t="s">
         <v>470</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -3036,11 +3048,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="53" t="s">
         <v>467</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
@@ -3087,13 +3099,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="45" t="s">
         <v>487</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="45" t="s">
         <v>488</v>
       </c>
     </row>
@@ -3110,13 +3122,13 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>61</v>
+        <v>498</v>
       </c>
       <c r="B60" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>169</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3326,11 +3338,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="53" t="s">
         <v>490</v>
       </c>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
@@ -3585,733 +3597,709 @@
         <v>465</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="51" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="53" t="s">
         <v>493</v>
       </c>
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B106" s="34" t="s">
+      <c r="B107" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C107" s="12" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="B107" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>495</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>113</v>
+        <v>491</v>
       </c>
       <c r="B109" s="33" t="s">
         <v>135</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>58</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B111" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C111" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="19"/>
-    </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="45" t="s">
+      <c r="A113" s="19"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="19"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="B113" s="46"/>
-      <c r="C113" s="46"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="B114" s="52"/>
+      <c r="C114" s="52"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B115" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C115" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E114" s="18" t="s">
+      <c r="E115" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="F114" s="18" t="s">
+      <c r="F115" s="18" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="E115" s="18">
-        <v>1</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E116" s="18">
+        <v>1</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="B116" s="33" t="s">
+      <c r="B117" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C117" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E116" s="18">
+      <c r="E117" s="18">
         <v>2</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="F117" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E117" s="18">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E118" s="18">
         <v>3</v>
       </c>
-      <c r="F117" s="13" t="s">
+      <c r="F118" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="47" t="s">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B118" s="48"/>
-      <c r="C118" s="48"/>
-      <c r="E118" s="18">
+      <c r="B119" s="50"/>
+      <c r="C119" s="50"/>
+      <c r="E119" s="18">
         <v>4</v>
       </c>
-      <c r="F118" s="13" t="s">
+      <c r="F119" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B120" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C120" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E120" s="18">
         <v>5</v>
       </c>
-      <c r="F119" s="18" t="s">
+      <c r="F120" s="18" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B121" s="33" t="s">
+      <c r="B122" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C122" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="45" t="s">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="B123" s="46"/>
-      <c r="C123" s="46"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
+      <c r="B124" s="52"/>
+      <c r="C124" s="52"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B125" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C125" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E125" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F124" s="18" t="s">
+      <c r="F125" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G124" s="18" t="s">
+      <c r="G125" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H124" s="18" t="s">
+      <c r="H125" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I124" s="18" t="s">
+      <c r="I125" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="J124" s="18" t="s">
+      <c r="J125" s="18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B125" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E125" s="18">
-        <v>1001</v>
-      </c>
-      <c r="F125" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G125" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H125" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I125" s="18">
-        <v>1</v>
-      </c>
-      <c r="J125" s="18"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="E126" s="18">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G126" s="18" t="s">
         <v>92</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I126" s="13">
-        <v>2</v>
+        <v>93</v>
+      </c>
+      <c r="I126" s="18">
+        <v>1</v>
       </c>
       <c r="J126" s="18"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="E127" s="18">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G127" s="18" t="s">
         <v>92</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I127" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J127" s="18"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B128" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E128" s="18">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G128" s="18" t="s">
         <v>92</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I128" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J128" s="18"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="E129" s="18">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G129" s="18" t="s">
         <v>92</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I129" s="18">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="I129" s="13">
+        <v>4</v>
       </c>
       <c r="J129" s="18"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E130" s="18">
+        <v>1005</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H130" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I130" s="18">
+        <v>5</v>
+      </c>
+      <c r="J130" s="18"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B130" s="33" t="s">
+      <c r="B131" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C131" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="47" t="s">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="B132" s="48"/>
-      <c r="C132" s="48"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
+      <c r="B133" s="50"/>
+      <c r="C133" s="50"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B133" s="34" t="s">
+      <c r="B134" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C134" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E133" s="17" t="s">
+      <c r="E134" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F133" s="17" t="s">
+      <c r="F134" s="17" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B134" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E134" s="18">
-        <v>0</v>
-      </c>
-      <c r="F134" s="18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E135" s="18">
+        <v>0</v>
+      </c>
+      <c r="F135" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B135" s="33" t="s">
+      <c r="B136" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C136" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E135" s="18">
+      <c r="E136" s="18">
         <v>1</v>
       </c>
-      <c r="F135" s="18" t="s">
+      <c r="F136" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E136" s="18">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E137" s="18">
         <v>2</v>
       </c>
-      <c r="F136" s="18" t="s">
+      <c r="F137" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="47" t="s">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="B137" s="48"/>
-      <c r="C137" s="48"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+      <c r="B138" s="50"/>
+      <c r="C138" s="50"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B138" s="34" t="s">
+      <c r="B139" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C139" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E138" s="17" t="s">
+      <c r="E139" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F138" s="17" t="s">
+      <c r="F139" s="17" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B139" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E139" s="30">
-        <v>1</v>
-      </c>
-      <c r="F139" s="31" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E140" s="30">
+        <v>1</v>
+      </c>
+      <c r="F140" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B140" s="33" t="s">
+      <c r="B141" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C141" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E141" s="18">
         <v>2</v>
       </c>
-      <c r="F140" s="18" t="s">
+      <c r="F141" s="18" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="45" t="s">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="B142" s="46"/>
-      <c r="C142" s="46"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
+      <c r="B143" s="52"/>
+      <c r="C143" s="52"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B144" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C144" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E143" s="13" t="s">
+      <c r="E144" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F143" s="17" t="s">
+      <c r="F144" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G143" s="13" t="s">
+      <c r="G144" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H143" s="13" t="s">
+      <c r="H144" s="13" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B144" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E144" s="27">
-        <v>1</v>
-      </c>
-      <c r="F144" s="30">
-        <v>1</v>
-      </c>
-      <c r="G144" s="28">
-        <v>1</v>
-      </c>
-      <c r="H144" s="28">
-        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E145" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" s="30">
         <v>1</v>
       </c>
       <c r="G145" s="28">
+        <v>1</v>
+      </c>
+      <c r="H145" s="28">
         <v>2</v>
-      </c>
-      <c r="H145" s="28">
-        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E146" s="26">
-        <v>3</v>
+        <v>158</v>
+      </c>
+      <c r="E146" s="27">
+        <v>2</v>
       </c>
       <c r="F146" s="30">
         <v>1</v>
       </c>
-      <c r="G146" s="29">
+      <c r="G146" s="28">
+        <v>2</v>
+      </c>
+      <c r="H146" s="28">
         <v>3</v>
-      </c>
-      <c r="H146" s="28">
-        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E147" s="26">
+        <v>3</v>
+      </c>
+      <c r="F147" s="30">
+        <v>1</v>
+      </c>
+      <c r="G147" s="29">
+        <v>3</v>
+      </c>
+      <c r="H147" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B147" s="33" t="s">
+      <c r="B148" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C148" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E147" s="18">
+      <c r="E148" s="18">
         <v>4</v>
-      </c>
-      <c r="F147" s="18">
-        <v>2</v>
-      </c>
-      <c r="G147" s="18">
-        <v>1</v>
-      </c>
-      <c r="H147" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E148" s="18">
-        <v>5</v>
       </c>
       <c r="F148" s="18">
         <v>2</v>
       </c>
       <c r="G148" s="18">
+        <v>1</v>
+      </c>
+      <c r="H148" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E149" s="18">
+        <v>5</v>
+      </c>
+      <c r="F149" s="18">
         <v>2</v>
       </c>
-      <c r="H148" s="18">
+      <c r="G149" s="18">
+        <v>2</v>
+      </c>
+      <c r="H149" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="51" t="s">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="B149" s="52"/>
-      <c r="C149" s="52"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
+      <c r="B150" s="54"/>
+      <c r="C150" s="54"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B151" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C151" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E150" s="13" t="s">
+      <c r="E151" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F150" s="13" t="s">
+      <c r="F151" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G150" s="13" t="s">
+      <c r="G151" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H150" s="13" t="s">
+      <c r="H151" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I150" s="13" t="s">
+      <c r="I151" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J150" s="13" t="s">
+      <c r="J151" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K150" s="13" t="s">
+      <c r="K151" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L150" s="13" t="s">
+      <c r="L151" s="13" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B151" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E151" s="32">
-        <v>1</v>
-      </c>
-      <c r="F151" s="32">
-        <v>1</v>
-      </c>
-      <c r="G151" s="32">
-        <v>1</v>
-      </c>
-      <c r="H151" s="27">
-        <v>1</v>
-      </c>
-      <c r="I151" s="32">
-        <v>1002</v>
-      </c>
-      <c r="J151" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="K151" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="L151" s="32" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="E152" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F152" s="32">
         <v>1</v>
@@ -4320,10 +4308,10 @@
         <v>1</v>
       </c>
       <c r="H152" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" s="32">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J152" s="32" t="s">
         <v>84</v>
@@ -4337,16 +4325,16 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E153" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F153" s="32">
         <v>1</v>
@@ -4355,10 +4343,10 @@
         <v>1</v>
       </c>
       <c r="H153" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" s="32">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J153" s="32" t="s">
         <v>84</v>
@@ -4372,51 +4360,51 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E154" s="20">
-        <v>4</v>
-      </c>
-      <c r="F154" s="20">
+        <v>183</v>
+      </c>
+      <c r="E154" s="32">
+        <v>3</v>
+      </c>
+      <c r="F154" s="32">
         <v>1</v>
       </c>
-      <c r="G154" s="20">
-        <v>2</v>
-      </c>
-      <c r="H154" s="20">
+      <c r="G154" s="32">
         <v>1</v>
       </c>
-      <c r="I154" s="20">
-        <v>1002</v>
-      </c>
-      <c r="J154" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K154" s="21">
-        <v>45500.625</v>
-      </c>
-      <c r="L154" s="20" t="s">
-        <v>85</v>
+      <c r="H154" s="27">
+        <v>3</v>
+      </c>
+      <c r="I154" s="32">
+        <v>1004</v>
+      </c>
+      <c r="J154" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K154" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L154" s="32" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B155" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E155" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F155" s="20">
         <v>1</v>
@@ -4425,16 +4413,16 @@
         <v>2</v>
       </c>
       <c r="H155" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" s="20">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J155" s="20" t="s">
         <v>85</v>
       </c>
       <c r="K155" s="21">
-        <v>45500.645833333336</v>
+        <v>45500.625</v>
       </c>
       <c r="L155" s="20" t="s">
         <v>85</v>
@@ -4442,16 +4430,16 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E156" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F156" s="20">
         <v>1</v>
@@ -4460,68 +4448,68 @@
         <v>2</v>
       </c>
       <c r="H156" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" s="20">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J156" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="K156" s="20" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="K156" s="21">
+        <v>45500.645833333336</v>
       </c>
       <c r="L156" s="20" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E157" s="22">
-        <v>7</v>
-      </c>
-      <c r="F157" s="22">
+        <v>165</v>
+      </c>
+      <c r="E157" s="20">
+        <v>6</v>
+      </c>
+      <c r="F157" s="20">
+        <v>1</v>
+      </c>
+      <c r="G157" s="20">
         <v>2</v>
       </c>
-      <c r="G157" s="22">
-        <v>1</v>
-      </c>
-      <c r="H157" s="23">
-        <v>4</v>
-      </c>
-      <c r="I157" s="23">
+      <c r="H157" s="20">
+        <v>3</v>
+      </c>
+      <c r="I157" s="20">
         <v>1004</v>
       </c>
-      <c r="J157" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="K157" s="24">
-        <v>45500.625</v>
-      </c>
-      <c r="L157" s="22" t="s">
-        <v>85</v>
+      <c r="J157" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K157" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L157" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E158" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F158" s="22">
         <v>2</v>
@@ -4530,88 +4518,117 @@
         <v>1</v>
       </c>
       <c r="H158" s="23">
+        <v>4</v>
+      </c>
+      <c r="I158" s="23">
+        <v>1004</v>
+      </c>
+      <c r="J158" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K158" s="24">
+        <v>45500.625</v>
+      </c>
+      <c r="L158" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B159" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E159" s="22">
+        <v>8</v>
+      </c>
+      <c r="F159" s="22">
+        <v>2</v>
+      </c>
+      <c r="G159" s="22">
+        <v>1</v>
+      </c>
+      <c r="H159" s="23">
         <v>5</v>
       </c>
-      <c r="I158" s="23">
+      <c r="I159" s="23">
         <v>1005</v>
       </c>
-      <c r="J158" s="22" t="s">
+      <c r="J159" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="K158" s="22" t="s">
+      <c r="K159" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="L158" s="22" t="s">
+      <c r="L159" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="55" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="B160" s="54"/>
-      <c r="C160" s="54"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="54"/>
-      <c r="B161" s="54"/>
-      <c r="C161" s="54"/>
+      <c r="B161" s="48"/>
+      <c r="C161" s="48"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="54"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="54"/>
+      <c r="A162" s="48"/>
+      <c r="B162" s="48"/>
+      <c r="C162" s="48"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="54"/>
-      <c r="B163" s="54"/>
-      <c r="C163" s="54"/>
+      <c r="A163" s="48"/>
+      <c r="B163" s="48"/>
+      <c r="C163" s="48"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="54"/>
-      <c r="B164" s="54"/>
-      <c r="C164" s="54"/>
+      <c r="A164" s="48"/>
+      <c r="B164" s="48"/>
+      <c r="C164" s="48"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="25"/>
-      <c r="B165" s="39"/>
+      <c r="A165" s="48"/>
+      <c r="B165" s="48"/>
+      <c r="C165" s="48"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="53" t="s">
+      <c r="A166" s="25"/>
+      <c r="B166" s="39"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="B166" s="54"/>
-      <c r="C166" s="54"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="54"/>
-      <c r="B167" s="54"/>
-      <c r="C167" s="54"/>
+      <c r="B167" s="48"/>
+      <c r="C167" s="48"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="54"/>
-      <c r="B168" s="54"/>
-      <c r="C168" s="54"/>
+      <c r="A168" s="48"/>
+      <c r="B168" s="48"/>
+      <c r="C168" s="48"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="54"/>
-      <c r="B169" s="54"/>
-      <c r="C169" s="54"/>
+      <c r="A169" s="48"/>
+      <c r="B169" s="48"/>
+      <c r="C169" s="48"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="54"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="54"/>
+      <c r="A170" s="48"/>
+      <c r="B170" s="48"/>
+      <c r="C170" s="48"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="48"/>
+      <c r="B171" s="48"/>
+      <c r="C171" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A166:C170"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A160:C164"/>
-    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A11:C11"/>
@@ -4619,10 +4636,16 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A119:C119"/>
     <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A167:C171"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A161:C165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="507">
   <si>
     <t>supplier_name</t>
   </si>
@@ -504,15 +504,6 @@
     <t>Paul</t>
   </si>
   <si>
-    <t>คำอธิบายเพิ่มเติม:
-การอนุมัติแบบเรียงลำดับจะถูกควบคุมโดย level_order ในตาราง approval_levels และ approval_status ในตาราง inspect_approvals
-เมื่อ inspect_period ถูกสร้างขึ้น จะมีการสร้าง record ในตาราง inspect_approvals 
-โดยมีจำนวน record ตามจำนวนรายการใน approval_levels ที่เลือก พร้อมสถานะจะถูกตั้งเป็น "รออนุมัติ" ทุก record
-เมื่อผู้มีสิทธิ์อนุมัติในระดับนั้นอนุมัติ สถานะการอนุมัติจะเปลี่ยนเป็น "อนุมัติ" และบันทึกการอนุมัติในระดับถัดไป
-กระบวนการนี้จะดำเนินไปจนถึงระดับสุดท้าย หากมีการไม่อนุมัติในระดับใดระดับหนึ่ง สถานะ Inspect จะเปลี่ยนเป็น "ไม่อนุมัติ"
-การใช้ approver_role ใน approval_levels ช่วยให้กำหนดผู้มีสิทธิ์อนุมัติได้ง่ายโดยไม่ต้องระบุผู้ใช้โดยตรง ทำให้ยืดหยุ่นกว่า</t>
-  </si>
-  <si>
     <t>current_status</t>
   </si>
   <si>
@@ -699,9 +690,6 @@
     <t>BOOLEAN/TINYINT</t>
   </si>
   <si>
-    <t>สถานะการตรวจรับ (เช่น "รอตรวจ", "ตรวจแล้ว", "ผ่าน", "ไม่ผ่าน")</t>
-  </si>
-  <si>
     <t>เปอร์เซ็นต์ของปริมาณงานที่วางแผนไว้</t>
   </si>
   <si>
@@ -736,12 +724,6 @@
   </si>
   <si>
     <t>รหัสผู้ใช้งาน (Primary Key, Auto Increment หรือกำหนดเอง)</t>
-  </si>
-  <si>
-    <t>รหัสการตรวจสอบ (Foreign Key อ้างอิงตาราง inspect_period)</t>
-  </si>
-  <si>
-    <t>งวดการตรวจสอบ (เช่น งวดที่ 1, 2, 3)(เชื่อมโยงกับตาราง inspect_period)</t>
   </si>
   <si>
     <t xml:space="preserve">ความคิดเห็น </t>
@@ -1722,9 +1704,6 @@
     <t>inspection_id</t>
   </si>
   <si>
-    <t>รหัสงวด PO(Foreign Key อ้างอิงตาราง inspect_main)</t>
-  </si>
-  <si>
     <t>ตาราง: inspection_period_details</t>
   </si>
   <si>
@@ -1744,13 +1723,55 @@
   </si>
   <si>
     <t>สถานะ (เช่น "รอตรวจ", "ตรวจแล้ว", "ผ่าน", "ไม่ผ่าน")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: ต้องมี status บอกว่าไม่สามารถทำการเพิ่ม, แก้ไข, ลบ period ได้แล้ว  แต่ยังแก้ไขข้อมูลทั่วไปของ po ได้  ยกเว้นข้อมูลที่เป็นจำนวนเงิน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: </t>
+  </si>
+  <si>
+    <t>Note: ถ้า current_status = อนุมัติแล้วจะไม่สามารถลบได้(ใน po จะลบ period นี้ไม่ได้แล้ว)</t>
+  </si>
+  <si>
+    <t>ตาราง: inspection_status</t>
+  </si>
+  <si>
+    <t>inspection_status_id</t>
+  </si>
+  <si>
+    <t>inspection_status_name</t>
+  </si>
+  <si>
+    <t>รหัสงวด PO(Foreign Key อ้างอิงตาราง inspection_main)</t>
+  </si>
+  <si>
+    <t>ตาราง: inspection_approvals (บันทึกการอนุมัติการตรวจสอบในแต่ละระดับ)</t>
+  </si>
+  <si>
+    <t>รหัสการตรวจสอบ (Foreign Key อ้างอิงตาราง inspection_period)</t>
+  </si>
+  <si>
+    <t>งวดการตรวจสอบ (เช่น งวดที่ 1, 2, 3)(เชื่อมโยงกับตาราง inspection_period)</t>
+  </si>
+  <si>
+    <t>คำอธิบายเพิ่มเติม:
+การอนุมัติแบบเรียงลำดับจะถูกควบคุมโดย level_order ในตาราง approval_levels และ approval_status ในตาราง inspection_approvals
+เมื่อ inspection_period ถูกสร้างขึ้น จะมีการสร้าง record ในตาราง inspection_approvals 
+โดยมีจำนวน record ตามจำนวนรายการใน approval_levels ที่เลือก พร้อมสถานะจะถูกตั้งเป็น "รออนุมัติ" ทุก record
+เมื่อผู้มีสิทธิ์อนุมัติในระดับนั้นอนุมัติ สถานะการอนุมัติจะเปลี่ยนเป็น "อนุมัติ" และบันทึกการอนุมัติในระดับถัดไป
+กระบวนการนี้จะดำเนินไปจนถึงระดับสุดท้าย หากมีการไม่อนุมัติในระดับใดระดับหนึ่ง สถานะ Inspect จะเปลี่ยนเป็น "ไม่อนุมัติ"
+การใช้ approver_role ใน approval_levels ช่วยให้กำหนดผู้มีสิทธิ์อนุมัติได้ง่ายโดยไม่ต้องระบุผู้ใช้โดยตรง ทำให้ยืดหยุ่นกว่า</t>
+  </si>
+  <si>
+    <t>สถานะ po (เช่น "completed", "open", "pending")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1887,8 +1908,27 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1961,8 +2001,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1994,11 +2040,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2126,11 +2181,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2138,10 +2193,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2150,14 +2205,35 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2167,8 +2243,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEDE7"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFFEDE7"/>
       <color rgb="FFF7FFEF"/>
       <color rgb="FFE5FFFF"/>
       <color rgb="FFE7FECE"/>
@@ -2448,13 +2524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164:C168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="34.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -2471,452 +2547,452 @@
     <col min="13" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="C7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
+      <c r="A11" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="C12" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="19"/>
       <c r="B15" s="38"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="49" t="s">
-        <v>327</v>
+        <v>498</v>
       </c>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="C17" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="E17" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>117</v>
-      </c>
       <c r="C18" s="13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E18" s="18">
         <v>0</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="13" t="s">
-        <v>329</v>
+        <v>500</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E19" s="18">
         <v>1</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="E20" s="18">
         <v>2</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="E21" s="18">
         <v>3</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="49" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="C23" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="E23" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>117</v>
-      </c>
       <c r="C24" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E24" s="18">
         <v>0</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="13" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E25" s="18">
         <v>1</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="53" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="C28" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="13" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B30" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="39.6">
       <c r="A38" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="39.6">
       <c r="A39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E39" s="11">
         <v>869161</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E40" s="16">
         <f>E39*7/107</f>
         <v>56861</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41" s="16">
         <f>E39-E40</f>
         <v>812300</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>25</v>
@@ -2930,12 +3006,12 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>26</v>
@@ -2949,12 +3025,12 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>46</v>
@@ -2968,15 +3044,15 @@
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -2987,15 +3063,15 @@
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -3006,1646 +3082,1670 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.4">
+      <c r="A52" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="53" t="s">
+        <v>463</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="C50" s="11" t="s">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="43" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.4">
+      <c r="A80" s="58" t="s">
+        <v>496</v>
+      </c>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="E81" s="18">
+        <v>2</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.4">
+      <c r="A107" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="B109" s="54"/>
+      <c r="C109" s="54"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="B51" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="53" t="s">
-        <v>467</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="34" t="s">
+      <c r="B111" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="19"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="19"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="B117" s="48"/>
+      <c r="C117" s="48"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="E118" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B119" s="33" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="B55" s="33" t="s">
+      <c r="C119" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E119" s="18">
+        <v>1</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B120" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="45" t="s">
-        <v>487</v>
-      </c>
-      <c r="B58" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="C74" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" s="43" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E79" s="18">
+      <c r="C120" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E120" s="18">
         <v>2</v>
       </c>
-      <c r="F79" s="18" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="s">
-        <v>490</v>
-      </c>
-      <c r="B80" s="54"/>
-      <c r="C80" s="54"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B81" s="34" t="s">
+      <c r="F120" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="E121" s="18">
+        <v>3</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" s="50"/>
+      <c r="C122" s="50"/>
+      <c r="E122" s="18">
+        <v>4</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="E123" s="18">
+        <v>5</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B124" s="33" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="B82" s="33" t="s">
+      <c r="C124" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B125" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="C84" s="43" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B86" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B98" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B99" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B101" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="B104" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="53" t="s">
-        <v>493</v>
-      </c>
-      <c r="B106" s="54"/>
-      <c r="C106" s="54"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B107" s="34" t="s">
+      <c r="C125" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" s="48"/>
+      <c r="C127" s="48"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="E128" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G128" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I128" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J128" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B129" s="33" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="19"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="B114" s="52"/>
-      <c r="C114" s="52"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="B116" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="E116" s="18">
-        <v>1</v>
-      </c>
-      <c r="F116" s="18" t="s">
+      <c r="C129" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E129" s="18">
+        <v>1001</v>
+      </c>
+      <c r="F129" s="18" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E117" s="18">
-        <v>2</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E118" s="18">
-        <v>3</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B119" s="50"/>
-      <c r="C119" s="50"/>
-      <c r="E119" s="18">
-        <v>4</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B120" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E120" s="18">
-        <v>5</v>
-      </c>
-      <c r="F120" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B122" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B124" s="52"/>
-      <c r="C124" s="52"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B125" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F125" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G125" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H125" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I125" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="J125" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E126" s="18">
-        <v>1001</v>
-      </c>
-      <c r="F126" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G126" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H126" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I126" s="18">
-        <v>1</v>
-      </c>
-      <c r="J126" s="18"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E127" s="18">
-        <v>1002</v>
-      </c>
-      <c r="F127" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G127" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H127" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I127" s="13">
-        <v>2</v>
-      </c>
-      <c r="J127" s="18"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B128" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" s="18">
-        <v>1003</v>
-      </c>
-      <c r="F128" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G128" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H128" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I128" s="13">
-        <v>3</v>
-      </c>
-      <c r="J128" s="18"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B129" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E129" s="18">
-        <v>1004</v>
-      </c>
-      <c r="F129" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="G129" s="18" t="s">
         <v>92</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I129" s="13">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="I129" s="18">
+        <v>1</v>
       </c>
       <c r="J129" s="18"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" s="13" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="E130" s="18">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G130" s="18" t="s">
         <v>92</v>
       </c>
       <c r="H130" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I130" s="13">
+        <v>2</v>
+      </c>
+      <c r="J130" s="18"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E131" s="18">
+        <v>1003</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H131" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I131" s="13">
+        <v>3</v>
+      </c>
+      <c r="J131" s="18"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E132" s="18">
+        <v>1004</v>
+      </c>
+      <c r="F132" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G132" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H132" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I132" s="13">
+        <v>4</v>
+      </c>
+      <c r="J132" s="18"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E133" s="18">
+        <v>1005</v>
+      </c>
+      <c r="F133" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G133" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H133" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="I130" s="18">
+      <c r="I133" s="18">
         <v>5</v>
       </c>
-      <c r="J130" s="18"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
+      <c r="J133" s="18"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B131" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="49" t="s">
+      <c r="B134" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="B136" s="50"/>
+      <c r="C136" s="50"/>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B137" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E137" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E138" s="18">
+        <v>0</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E139" s="18">
+        <v>1</v>
+      </c>
+      <c r="F139" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="E140" s="18">
+        <v>2</v>
+      </c>
+      <c r="F140" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="B141" s="50"/>
+      <c r="C141" s="50"/>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B142" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E142" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E143" s="30">
+        <v>1</v>
+      </c>
+      <c r="F143" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E144" s="18">
+        <v>2</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146" s="48"/>
+      <c r="C146" s="48"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B147" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E147" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F147" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H147" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E148" s="27">
+        <v>1</v>
+      </c>
+      <c r="F148" s="30">
+        <v>1</v>
+      </c>
+      <c r="G148" s="28">
+        <v>1</v>
+      </c>
+      <c r="H148" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E149" s="27">
+        <v>2</v>
+      </c>
+      <c r="F149" s="30">
+        <v>1</v>
+      </c>
+      <c r="G149" s="28">
+        <v>2</v>
+      </c>
+      <c r="H149" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B150" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E150" s="26">
+        <v>3</v>
+      </c>
+      <c r="F150" s="30">
+        <v>1</v>
+      </c>
+      <c r="G150" s="29">
+        <v>3</v>
+      </c>
+      <c r="H150" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E151" s="18">
+        <v>4</v>
+      </c>
+      <c r="F151" s="18">
+        <v>2</v>
+      </c>
+      <c r="G151" s="18">
+        <v>1</v>
+      </c>
+      <c r="H151" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="E152" s="18">
+        <v>5</v>
+      </c>
+      <c r="F152" s="18">
+        <v>2</v>
+      </c>
+      <c r="G152" s="18">
+        <v>2</v>
+      </c>
+      <c r="H152" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="B153" s="54"/>
+      <c r="C153" s="54"/>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B154" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I154" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J154" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="K154" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L154" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B155" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E155" s="32">
+        <v>1</v>
+      </c>
+      <c r="F155" s="32">
+        <v>1</v>
+      </c>
+      <c r="G155" s="32">
+        <v>1</v>
+      </c>
+      <c r="H155" s="27">
+        <v>1</v>
+      </c>
+      <c r="I155" s="32">
+        <v>1002</v>
+      </c>
+      <c r="J155" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K155" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L155" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B156" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="E156" s="32">
+        <v>2</v>
+      </c>
+      <c r="F156" s="32">
+        <v>1</v>
+      </c>
+      <c r="G156" s="32">
+        <v>1</v>
+      </c>
+      <c r="H156" s="27">
+        <v>2</v>
+      </c>
+      <c r="I156" s="32">
+        <v>1003</v>
+      </c>
+      <c r="J156" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K156" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L156" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="E157" s="32">
+        <v>3</v>
+      </c>
+      <c r="F157" s="32">
+        <v>1</v>
+      </c>
+      <c r="G157" s="32">
+        <v>1</v>
+      </c>
+      <c r="H157" s="27">
+        <v>3</v>
+      </c>
+      <c r="I157" s="32">
+        <v>1004</v>
+      </c>
+      <c r="J157" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K157" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L157" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B158" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E158" s="20">
+        <v>4</v>
+      </c>
+      <c r="F158" s="20">
+        <v>1</v>
+      </c>
+      <c r="G158" s="20">
+        <v>2</v>
+      </c>
+      <c r="H158" s="20">
+        <v>1</v>
+      </c>
+      <c r="I158" s="20">
+        <v>1002</v>
+      </c>
+      <c r="J158" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K158" s="21">
+        <v>45500.625</v>
+      </c>
+      <c r="L158" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B159" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E159" s="20">
+        <v>5</v>
+      </c>
+      <c r="F159" s="20">
+        <v>1</v>
+      </c>
+      <c r="G159" s="20">
+        <v>2</v>
+      </c>
+      <c r="H159" s="20">
+        <v>2</v>
+      </c>
+      <c r="I159" s="20">
+        <v>1003</v>
+      </c>
+      <c r="J159" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K159" s="21">
+        <v>45500.645833333336</v>
+      </c>
+      <c r="L159" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B160" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E160" s="20">
+        <v>6</v>
+      </c>
+      <c r="F160" s="20">
+        <v>1</v>
+      </c>
+      <c r="G160" s="20">
+        <v>2</v>
+      </c>
+      <c r="H160" s="20">
+        <v>3</v>
+      </c>
+      <c r="I160" s="20">
+        <v>1004</v>
+      </c>
+      <c r="J160" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K160" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L160" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B161" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E161" s="22">
+        <v>7</v>
+      </c>
+      <c r="F161" s="22">
+        <v>2</v>
+      </c>
+      <c r="G161" s="22">
+        <v>1</v>
+      </c>
+      <c r="H161" s="23">
+        <v>4</v>
+      </c>
+      <c r="I161" s="23">
+        <v>1004</v>
+      </c>
+      <c r="J161" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K161" s="24">
+        <v>45500.625</v>
+      </c>
+      <c r="L161" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B162" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E162" s="22">
+        <v>8</v>
+      </c>
+      <c r="F162" s="22">
+        <v>2</v>
+      </c>
+      <c r="G162" s="22">
+        <v>1</v>
+      </c>
+      <c r="H162" s="23">
+        <v>5</v>
+      </c>
+      <c r="I162" s="23">
+        <v>1005</v>
+      </c>
+      <c r="J162" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K162" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L162" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="57" t="s">
+        <v>505</v>
+      </c>
+      <c r="B164" s="56"/>
+      <c r="C164" s="56"/>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="56"/>
+      <c r="B165" s="56"/>
+      <c r="C165" s="56"/>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="56"/>
+      <c r="B166" s="56"/>
+      <c r="C166" s="56"/>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="56"/>
+      <c r="B167" s="56"/>
+      <c r="C167" s="56"/>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="56"/>
+      <c r="B168" s="56"/>
+      <c r="C168" s="56"/>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="25"/>
+      <c r="B169" s="39"/>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="B133" s="50"/>
-      <c r="C133" s="50"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B134" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E134" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F134" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B135" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E135" s="18">
-        <v>0</v>
-      </c>
-      <c r="F135" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B136" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E136" s="18">
-        <v>1</v>
-      </c>
-      <c r="F136" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E137" s="18">
-        <v>2</v>
-      </c>
-      <c r="F137" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="49" t="s">
-        <v>466</v>
-      </c>
-      <c r="B138" s="50"/>
-      <c r="C138" s="50"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B139" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E139" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B140" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E140" s="30">
-        <v>1</v>
-      </c>
-      <c r="F140" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B141" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E141" s="18">
-        <v>2</v>
-      </c>
-      <c r="F141" s="18" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="B143" s="52"/>
-      <c r="C143" s="52"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B144" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F144" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G144" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H144" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B145" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E145" s="27">
-        <v>1</v>
-      </c>
-      <c r="F145" s="30">
-        <v>1</v>
-      </c>
-      <c r="G145" s="28">
-        <v>1</v>
-      </c>
-      <c r="H145" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B146" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E146" s="27">
-        <v>2</v>
-      </c>
-      <c r="F146" s="30">
-        <v>1</v>
-      </c>
-      <c r="G146" s="28">
-        <v>2</v>
-      </c>
-      <c r="H146" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B147" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E147" s="26">
-        <v>3</v>
-      </c>
-      <c r="F147" s="30">
-        <v>1</v>
-      </c>
-      <c r="G147" s="29">
-        <v>3</v>
-      </c>
-      <c r="H147" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B148" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E148" s="18">
-        <v>4</v>
-      </c>
-      <c r="F148" s="18">
-        <v>2</v>
-      </c>
-      <c r="G148" s="18">
-        <v>1</v>
-      </c>
-      <c r="H148" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E149" s="18">
-        <v>5</v>
-      </c>
-      <c r="F149" s="18">
-        <v>2</v>
-      </c>
-      <c r="G149" s="18">
-        <v>2</v>
-      </c>
-      <c r="H149" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="B150" s="54"/>
-      <c r="C150" s="54"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B151" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F151" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G151" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H151" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I151" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J151" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K151" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L151" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B152" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E152" s="32">
-        <v>1</v>
-      </c>
-      <c r="F152" s="32">
-        <v>1</v>
-      </c>
-      <c r="G152" s="32">
-        <v>1</v>
-      </c>
-      <c r="H152" s="27">
-        <v>1</v>
-      </c>
-      <c r="I152" s="32">
-        <v>1002</v>
-      </c>
-      <c r="J152" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="K152" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="L152" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B153" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E153" s="32">
-        <v>2</v>
-      </c>
-      <c r="F153" s="32">
-        <v>1</v>
-      </c>
-      <c r="G153" s="32">
-        <v>1</v>
-      </c>
-      <c r="H153" s="27">
-        <v>2</v>
-      </c>
-      <c r="I153" s="32">
-        <v>1003</v>
-      </c>
-      <c r="J153" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="K153" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="L153" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E154" s="32">
-        <v>3</v>
-      </c>
-      <c r="F154" s="32">
-        <v>1</v>
-      </c>
-      <c r="G154" s="32">
-        <v>1</v>
-      </c>
-      <c r="H154" s="27">
-        <v>3</v>
-      </c>
-      <c r="I154" s="32">
-        <v>1004</v>
-      </c>
-      <c r="J154" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="K154" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="L154" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B155" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E155" s="20">
-        <v>4</v>
-      </c>
-      <c r="F155" s="20">
-        <v>1</v>
-      </c>
-      <c r="G155" s="20">
-        <v>2</v>
-      </c>
-      <c r="H155" s="20">
-        <v>1</v>
-      </c>
-      <c r="I155" s="20">
-        <v>1002</v>
-      </c>
-      <c r="J155" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K155" s="21">
-        <v>45500.625</v>
-      </c>
-      <c r="L155" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B156" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E156" s="20">
-        <v>5</v>
-      </c>
-      <c r="F156" s="20">
-        <v>1</v>
-      </c>
-      <c r="G156" s="20">
-        <v>2</v>
-      </c>
-      <c r="H156" s="20">
-        <v>2</v>
-      </c>
-      <c r="I156" s="20">
-        <v>1003</v>
-      </c>
-      <c r="J156" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K156" s="21">
-        <v>45500.645833333336</v>
-      </c>
-      <c r="L156" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B157" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E157" s="20">
-        <v>6</v>
-      </c>
-      <c r="F157" s="20">
-        <v>1</v>
-      </c>
-      <c r="G157" s="20">
-        <v>2</v>
-      </c>
-      <c r="H157" s="20">
-        <v>3</v>
-      </c>
-      <c r="I157" s="20">
-        <v>1004</v>
-      </c>
-      <c r="J157" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="K157" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="L157" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B158" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E158" s="22">
-        <v>7</v>
-      </c>
-      <c r="F158" s="22">
-        <v>2</v>
-      </c>
-      <c r="G158" s="22">
-        <v>1</v>
-      </c>
-      <c r="H158" s="23">
-        <v>4</v>
-      </c>
-      <c r="I158" s="23">
-        <v>1004</v>
-      </c>
-      <c r="J158" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="K158" s="24">
-        <v>45500.625</v>
-      </c>
-      <c r="L158" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B159" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E159" s="22">
-        <v>8</v>
-      </c>
-      <c r="F159" s="22">
-        <v>2</v>
-      </c>
-      <c r="G159" s="22">
-        <v>1</v>
-      </c>
-      <c r="H159" s="23">
-        <v>5</v>
-      </c>
-      <c r="I159" s="23">
-        <v>1005</v>
-      </c>
-      <c r="J159" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="K159" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="L159" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B161" s="48"/>
-      <c r="C161" s="48"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="48"/>
-      <c r="B162" s="48"/>
-      <c r="C162" s="48"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="48"/>
-      <c r="B163" s="48"/>
-      <c r="C163" s="48"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="48"/>
-      <c r="B164" s="48"/>
-      <c r="C164" s="48"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="48"/>
-      <c r="B165" s="48"/>
-      <c r="C165" s="48"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="25"/>
-      <c r="B166" s="39"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="B167" s="48"/>
-      <c r="C167" s="48"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="48"/>
-      <c r="B168" s="48"/>
-      <c r="C168" s="48"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="48"/>
-      <c r="B169" s="48"/>
-      <c r="C169" s="48"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="48"/>
-      <c r="B170" s="48"/>
-      <c r="C170" s="48"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="48"/>
-      <c r="B171" s="48"/>
-      <c r="C171" s="48"/>
+      <c r="B170" s="56"/>
+      <c r="C170" s="56"/>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="56"/>
+      <c r="B171" s="56"/>
+      <c r="C171" s="56"/>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="56"/>
+      <c r="B172" s="56"/>
+      <c r="C172" s="56"/>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="56"/>
+      <c r="B173" s="56"/>
+      <c r="C173" s="56"/>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="56"/>
+      <c r="B174" s="56"/>
+      <c r="C174" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A124:C124"/>
+  <mergeCells count="21">
+    <mergeCell ref="A170:C174"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A164:C168"/>
+    <mergeCell ref="A127:C127"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A52:C52"/>
     <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A167:C171"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A161:C165"/>
+    <mergeCell ref="A107:C107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4660,113 +4760,113 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.33203125" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.6640625" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="40" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="41" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="41" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="41" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4783,728 +4883,728 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="179" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="17.399999999999999">
       <c r="A1" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.399999999999999">
+      <c r="A2" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.399999999999999">
+      <c r="A3" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.399999999999999">
+      <c r="A4" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17.399999999999999">
+      <c r="A5" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="6" spans="1:1" ht="17.399999999999999">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" ht="17.399999999999999">
+      <c r="A7" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="8" spans="1:1" ht="17.399999999999999">
+      <c r="A8" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="9" spans="1:1" ht="17.399999999999999">
+      <c r="A9" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="10" spans="1:1" ht="17.399999999999999">
+      <c r="A10" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="11" spans="1:1" ht="17.399999999999999">
+      <c r="A11" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="17.399999999999999">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1" ht="17.399999999999999">
+      <c r="A13" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="14" spans="1:1" ht="17.399999999999999">
+      <c r="A14" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="15" spans="1:1" ht="17.399999999999999">
+      <c r="A15" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="16" spans="1:1" ht="17.399999999999999">
+      <c r="A16" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="17" spans="1:1" ht="17.399999999999999">
+      <c r="A17" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17.399999999999999">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" ht="17.399999999999999">
+      <c r="A19" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="20" spans="1:1" ht="17.399999999999999">
+      <c r="A20" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="21" spans="1:1" ht="17.399999999999999">
+      <c r="A21" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="22" spans="1:1" ht="17.399999999999999">
+      <c r="A22" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="23" spans="1:1" ht="17.399999999999999">
+      <c r="A23" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="24" spans="1:1" ht="17.399999999999999">
+      <c r="A24" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="25" spans="1:1" ht="17.399999999999999">
+      <c r="A25" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="26" spans="1:1" ht="17.399999999999999">
+      <c r="A26" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="27" spans="1:1" ht="17.399999999999999">
+      <c r="A27" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="28" spans="1:1" ht="17.399999999999999">
+      <c r="A28" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="29" spans="1:1" ht="17.399999999999999">
+      <c r="A29" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="30" spans="1:1" ht="17.399999999999999">
+      <c r="A30" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="31" spans="1:1" ht="17.399999999999999">
+      <c r="A31" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="32" spans="1:1" ht="17.399999999999999">
+      <c r="A32" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="33" spans="1:1" ht="17.399999999999999">
+      <c r="A33" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="34" spans="1:1" ht="17.399999999999999">
+      <c r="A34" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="35" spans="1:1" ht="17.399999999999999">
+      <c r="A35" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+    <row r="36" spans="1:1" ht="17.399999999999999">
+      <c r="A36" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="37" spans="1:1" ht="17.399999999999999">
+      <c r="A37" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="17.399999999999999">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" ht="17.399999999999999">
+      <c r="A39" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="40" spans="1:1" ht="17.399999999999999">
+      <c r="A40" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="41" spans="1:1" ht="17.399999999999999">
+      <c r="A41" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="42" spans="1:1" ht="17.399999999999999">
+      <c r="A42" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+    <row r="43" spans="1:1" ht="17.399999999999999">
+      <c r="A43" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    <row r="44" spans="1:1" ht="17.399999999999999">
+      <c r="A44" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="45" spans="1:1" ht="17.399999999999999">
+      <c r="A45" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+    <row r="46" spans="1:1" ht="17.399999999999999">
+      <c r="A46" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+    <row r="47" spans="1:1" ht="17.399999999999999">
+      <c r="A47" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+    <row r="48" spans="1:1" ht="17.399999999999999">
+      <c r="A48" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+    <row r="49" spans="1:1" ht="17.399999999999999">
+      <c r="A49" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="17.399999999999999">
+      <c r="A50" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="17.399999999999999">
+      <c r="A51" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="17.399999999999999">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" ht="17.399999999999999">
+      <c r="A53" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+    <row r="54" spans="1:1" ht="17.399999999999999">
+      <c r="A54" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+    <row r="55" spans="1:1" ht="17.399999999999999">
+      <c r="A55" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+    <row r="56" spans="1:1" ht="17.399999999999999">
+      <c r="A56" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+    <row r="57" spans="1:1" ht="17.399999999999999">
+      <c r="A57" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+    <row r="58" spans="1:1" ht="17.399999999999999">
+      <c r="A58" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+    <row r="59" spans="1:1" ht="17.399999999999999">
+      <c r="A59" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+    <row r="60" spans="1:1" ht="17.399999999999999">
+      <c r="A60" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+    <row r="61" spans="1:1" ht="17.399999999999999">
+      <c r="A61" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+    <row r="62" spans="1:1" ht="17.399999999999999">
+      <c r="A62" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+    <row r="63" spans="1:1" ht="17.399999999999999">
+      <c r="A63" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+    <row r="64" spans="1:1" ht="17.399999999999999">
+      <c r="A64" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+    <row r="65" spans="1:1" ht="17.399999999999999">
+      <c r="A65" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+    <row r="66" spans="1:1" ht="17.399999999999999">
+      <c r="A66" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+    <row r="67" spans="1:1" ht="17.399999999999999">
+      <c r="A67" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+    <row r="68" spans="1:1" ht="17.399999999999999">
+      <c r="A68" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+    <row r="69" spans="1:1" ht="17.399999999999999">
+      <c r="A69" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+    <row r="70" spans="1:1" ht="17.399999999999999">
+      <c r="A70" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+    <row r="71" spans="1:1" ht="17.399999999999999">
+      <c r="A71" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+    <row r="72" spans="1:1" ht="17.399999999999999">
+      <c r="A72" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+    <row r="73" spans="1:1" ht="17.399999999999999">
+      <c r="A73" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+    <row r="74" spans="1:1" ht="17.399999999999999">
+      <c r="A74" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+    <row r="75" spans="1:1" ht="17.399999999999999">
+      <c r="A75" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    <row r="76" spans="1:1" ht="17.399999999999999">
+      <c r="A76" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+    <row r="77" spans="1:1" ht="17.399999999999999">
+      <c r="A77" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+    <row r="78" spans="1:1" ht="17.399999999999999">
+      <c r="A78" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="17.399999999999999">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" ht="17.399999999999999">
+      <c r="A80" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+    <row r="81" spans="1:1" ht="17.399999999999999">
+      <c r="A81" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+    <row r="82" spans="1:1" ht="17.399999999999999">
+      <c r="A82" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+    <row r="83" spans="1:1" ht="17.399999999999999">
+      <c r="A83" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+    <row r="84" spans="1:1" ht="17.399999999999999">
+      <c r="A84" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+    <row r="85" spans="1:1" ht="17.399999999999999">
+      <c r="A85" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+    <row r="86" spans="1:1" ht="17.399999999999999">
+      <c r="A86" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+    <row r="87" spans="1:1" ht="17.399999999999999">
+      <c r="A87" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="17.399999999999999">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" ht="17.399999999999999">
+      <c r="A89" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+    <row r="90" spans="1:1" ht="17.399999999999999">
+      <c r="A90" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+    <row r="91" spans="1:1" ht="17.399999999999999">
+      <c r="A91" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+    <row r="92" spans="1:1" ht="17.399999999999999">
+      <c r="A92" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+    <row r="93" spans="1:1" ht="17.399999999999999">
+      <c r="A93" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="17.399999999999999">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" ht="17.399999999999999">
+      <c r="A95" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+    <row r="96" spans="1:1" ht="17.399999999999999">
+      <c r="A96" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+    <row r="97" spans="1:1" ht="17.399999999999999">
+      <c r="A97" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+    <row r="98" spans="1:1" ht="17.399999999999999">
+      <c r="A98" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+    <row r="99" spans="1:1" ht="17.399999999999999">
+      <c r="A99" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="17.399999999999999">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:1" ht="17.399999999999999">
+      <c r="A101" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+    <row r="102" spans="1:1" ht="17.399999999999999">
+      <c r="A102" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+    <row r="103" spans="1:1" ht="17.399999999999999">
+      <c r="A103" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+    <row r="104" spans="1:1" ht="17.399999999999999">
+      <c r="A104" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
-    </row>
-    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
+    <row r="105" spans="1:1" ht="17.399999999999999">
+      <c r="A105" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
+    <row r="106" spans="1:1" ht="17.399999999999999">
+      <c r="A106" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+    <row r="107" spans="1:1" ht="17.399999999999999">
+      <c r="A107" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+    <row r="108" spans="1:1" ht="17.399999999999999">
+      <c r="A108" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+    <row r="109" spans="1:1" ht="17.399999999999999">
+      <c r="A109" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="17.399999999999999">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:1" ht="17.399999999999999">
+      <c r="A111" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+    <row r="112" spans="1:1" ht="17.399999999999999">
+      <c r="A112" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
+    <row r="113" spans="1:1" ht="17.399999999999999">
+      <c r="A113" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+    <row r="114" spans="1:1" ht="17.399999999999999">
+      <c r="A114" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A110" s="3"/>
-    </row>
-    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
+    <row r="115" spans="1:1" ht="17.399999999999999">
+      <c r="A115" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="17.399999999999999">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="117" spans="1:1" ht="17.399999999999999">
+      <c r="A117" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+    <row r="118" spans="1:1" ht="17.399999999999999">
+      <c r="A118" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+    <row r="119" spans="1:1" ht="17.399999999999999">
+      <c r="A119" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
+    <row r="120" spans="1:1" ht="17.399999999999999">
+      <c r="A120" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="17.399999999999999">
+      <c r="A121" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A116" s="3"/>
-    </row>
-    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
+    <row r="122" spans="1:1" ht="17.399999999999999">
+      <c r="A122" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
+    <row r="123" spans="1:1" ht="17.399999999999999">
+      <c r="A123" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="17.399999999999999">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" spans="1:1" ht="17.399999999999999">
+      <c r="A125" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
+    <row r="126" spans="1:1" ht="17.399999999999999">
+      <c r="A126" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+    <row r="127" spans="1:1" ht="17.399999999999999">
+      <c r="A127" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+    <row r="128" spans="1:1" ht="17.399999999999999">
+      <c r="A128" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="17.399999999999999">
+      <c r="A129" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="17.399999999999999">
+      <c r="A130" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A124" s="3"/>
-    </row>
-    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
+    <row r="131" spans="1:1" ht="17.399999999999999">
+      <c r="A131" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
+    <row r="132" spans="1:1" ht="17.399999999999999">
+      <c r="A132" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
+    <row r="133" spans="1:1" ht="17.399999999999999">
+      <c r="A133" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
+    <row r="134" spans="1:1" ht="17.399999999999999">
+      <c r="A134" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
+    <row r="135" spans="1:1" ht="17.399999999999999">
+      <c r="A135" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="17.399999999999999">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:1" ht="17.399999999999999">
+      <c r="A137" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
+    <row r="138" spans="1:1" ht="17.399999999999999">
+      <c r="A138" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
+    <row r="139" spans="1:1" ht="17.399999999999999">
+      <c r="A139" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
+    <row r="140" spans="1:1" ht="17.399999999999999">
+      <c r="A140" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A136" s="3"/>
-    </row>
-    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
+    <row r="141" spans="1:1" ht="17.399999999999999">
+      <c r="A141" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
+    <row r="142" spans="1:1" ht="17.399999999999999">
+      <c r="A142" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
+    <row r="143" spans="1:1" ht="17.399999999999999">
+      <c r="A143" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
+    <row r="144" spans="1:1" ht="17.399999999999999">
+      <c r="A144" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
+    <row r="145" spans="1:1" ht="17.399999999999999">
+      <c r="A145" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
+    <row r="146" spans="1:1" ht="17.399999999999999">
+      <c r="A146" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
+    <row r="147" spans="1:1" ht="17.399999999999999">
+      <c r="A147" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
+    <row r="148" spans="1:1" ht="17.399999999999999">
+      <c r="A148" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
+    <row r="149" spans="1:1" ht="17.399999999999999">
+      <c r="A149" s="3" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5520,774 +5620,774 @@
       <selection sqref="A1:A168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="9" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="9" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="9" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="9" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="9" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="9" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
+    <row r="158" spans="1:1">
+      <c r="A158" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="9" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="9" t="s">
+    <row r="165" spans="1:1">
+      <c r="A165" s="9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="9" t="s">
+    <row r="166" spans="1:1">
+      <c r="A166" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="9" t="s">
+    <row r="167" spans="1:1">
+      <c r="A167" s="9" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1">
       <c r="A168" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6303,662 +6403,662 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="58.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.399999999999999">
       <c r="A3" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.399999999999999">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="17.399999999999999">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="17.399999999999999">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.399999999999999">
       <c r="A8" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17.399999999999999">
       <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="17.399999999999999">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="17.399999999999999">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="17.399999999999999">
       <c r="A12" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="17.399999999999999">
       <c r="A13" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17.399999999999999">
       <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="17.399999999999999">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="17.399999999999999">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="17.399999999999999">
       <c r="A17" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17.399999999999999">
       <c r="A18" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17.399999999999999">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="17.399999999999999">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="17.399999999999999">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="17.399999999999999">
       <c r="A22" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="17.399999999999999">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="17.399999999999999">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="17.399999999999999">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="17.399999999999999">
       <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="17.399999999999999">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="17.399999999999999">
       <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="17.399999999999999">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="17.399999999999999">
       <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="17.399999999999999">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="17.399999999999999">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="17.399999999999999">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="17.399999999999999">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="17.399999999999999">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="17.399999999999999">
       <c r="A36" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="17.399999999999999">
+      <c r="A37" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="17.399999999999999">
+      <c r="A38" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="17.399999999999999">
+      <c r="A39" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="17.399999999999999">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" ht="17.399999999999999">
+      <c r="A41" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="17.399999999999999">
+      <c r="A42" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="17.399999999999999">
+      <c r="A43" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="17.399999999999999">
+      <c r="A44" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="17.399999999999999">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="17.399999999999999">
       <c r="A46" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="17.399999999999999">
       <c r="A47" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="17.399999999999999">
       <c r="A48" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="17.399999999999999">
       <c r="A49" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="17.399999999999999">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="17.399999999999999">
       <c r="A51" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="17.399999999999999">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="17.399999999999999">
       <c r="A53" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="17.399999999999999">
       <c r="A54" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="17.399999999999999">
       <c r="A55" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="17.399999999999999">
       <c r="A56" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="17.399999999999999">
       <c r="A57" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="17.399999999999999">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="17.399999999999999">
       <c r="A59" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="17.399999999999999">
       <c r="A60" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="17.399999999999999">
       <c r="A61" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="17.399999999999999">
       <c r="A62" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="17.399999999999999">
       <c r="A63" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="17.399999999999999">
       <c r="A64" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" ht="17.399999999999999">
       <c r="A65" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="17.399999999999999">
       <c r="A66" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" ht="17.399999999999999">
       <c r="A67" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="17.399999999999999">
       <c r="A68" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" ht="17.399999999999999">
       <c r="A69" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="17.399999999999999">
       <c r="A70" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="17.399999999999999">
       <c r="A71" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" ht="17.399999999999999">
       <c r="A72" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" ht="17.399999999999999">
       <c r="A73" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="17.399999999999999">
       <c r="A74" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="17.399999999999999">
       <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="17.399999999999999">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="17.399999999999999">
       <c r="A77" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="17.399999999999999">
       <c r="A78" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="17.399999999999999">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="17.399999999999999">
       <c r="A80" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="17.399999999999999">
       <c r="A81" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="17.399999999999999">
+      <c r="A82" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="17.399999999999999">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="17.399999999999999">
       <c r="A84" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="17.399999999999999">
       <c r="A85" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="17.399999999999999">
       <c r="A86" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="17.399999999999999">
+      <c r="A87" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="17.399999999999999">
+      <c r="A88" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="17.399999999999999">
       <c r="A89" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="17.399999999999999">
       <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" ht="17.399999999999999">
       <c r="A91" s="8"/>
     </row>
-    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="17.399999999999999">
       <c r="A92" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="17.399999999999999">
       <c r="A93" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="17.399999999999999">
       <c r="A94" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="17.399999999999999">
       <c r="A95" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="17.399999999999999">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="17.399999999999999">
       <c r="A97" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="17.399999999999999">
       <c r="A98" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="17.399999999999999">
       <c r="A99" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="17.399999999999999">
       <c r="A100" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" ht="17.399999999999999">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" ht="17.399999999999999">
       <c r="A102" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="17.399999999999999">
       <c r="A103" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="17.399999999999999">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" ht="17.399999999999999">
       <c r="A105" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" ht="17.399999999999999">
       <c r="A106" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" ht="17.399999999999999">
       <c r="A107" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" ht="17.399999999999999">
       <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" ht="17.399999999999999">
       <c r="A109" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" ht="17.399999999999999">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" ht="17.399999999999999">
       <c r="A111" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="17.399999999999999">
       <c r="A112" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="17.399999999999999">
       <c r="A113" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="17.399999999999999">
+      <c r="A114" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" ht="17.399999999999999">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" ht="17.399999999999999">
       <c r="A116" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="17.399999999999999">
       <c r="A117" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="17.399999999999999">
       <c r="A118" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" ht="17.399999999999999">
       <c r="A119" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" ht="17.399999999999999">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" ht="17.399999999999999">
       <c r="A121" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="17.399999999999999">
       <c r="A122" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="17.399999999999999">
       <c r="A123" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" ht="17.399999999999999">
       <c r="A124" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" ht="17.399999999999999">
       <c r="A125" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" ht="17.399999999999999">
       <c r="A126" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" ht="17.399999999999999">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" ht="17.399999999999999">
       <c r="A128" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="17.399999999999999">
       <c r="A129" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="17.399999999999999">
       <c r="A130" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" ht="17.399999999999999">
       <c r="A131" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" ht="17.399999999999999">
       <c r="A132" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" ht="17.399999999999999">
       <c r="A133" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" ht="17.399999999999999">
       <c r="A134" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" ht="17.399999999999999">
       <c r="A135" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="17.399999999999999">
       <c r="A136" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" ht="17.399999999999999">
       <c r="A137" s="7" t="s">
         <v>82</v>
       </c>
@@ -6976,659 +7076,659 @@
       <selection sqref="A1:A137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.399999999999999">
       <c r="A2" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.399999999999999">
       <c r="A3" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.399999999999999">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="17.399999999999999">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="17.399999999999999">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="17.399999999999999">
       <c r="A7" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.399999999999999">
       <c r="A8" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17.399999999999999">
       <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="17.399999999999999">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="17.399999999999999">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="17.399999999999999">
       <c r="A12" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="17.399999999999999">
       <c r="A13" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17.399999999999999">
       <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="17.399999999999999">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="17.399999999999999">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="17.399999999999999">
       <c r="A17" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17.399999999999999">
       <c r="A18" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17.399999999999999">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="17.399999999999999">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="17.399999999999999">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="17.399999999999999">
       <c r="A22" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="17.399999999999999">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="17.399999999999999">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="17.399999999999999">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="17.399999999999999">
       <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="17.399999999999999">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="17.399999999999999">
       <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="17.399999999999999">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="17.399999999999999">
       <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="17.399999999999999">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="17.399999999999999">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="17.399999999999999">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="17.399999999999999">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="17.399999999999999">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="17.399999999999999">
       <c r="A36" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="17.399999999999999">
+      <c r="A37" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="17.399999999999999">
+      <c r="A38" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="17.399999999999999">
+      <c r="A39" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="17.399999999999999">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" ht="17.399999999999999">
+      <c r="A41" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="17.399999999999999">
+      <c r="A42" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="17.399999999999999">
+      <c r="A43" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="17.399999999999999">
+      <c r="A44" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="17.399999999999999">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="17.399999999999999">
       <c r="A46" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="17.399999999999999">
       <c r="A47" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="17.399999999999999">
       <c r="A48" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="17.399999999999999">
       <c r="A49" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="17.399999999999999">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="17.399999999999999">
       <c r="A51" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="17.399999999999999">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="17.399999999999999">
       <c r="A53" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="17.399999999999999">
       <c r="A54" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="17.399999999999999">
       <c r="A55" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="17.399999999999999">
       <c r="A56" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="17.399999999999999">
       <c r="A57" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="17.399999999999999">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="17.399999999999999">
       <c r="A59" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="17.399999999999999">
       <c r="A60" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="17.399999999999999">
       <c r="A61" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="17.399999999999999">
       <c r="A62" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="17.399999999999999">
       <c r="A63" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="17.399999999999999">
       <c r="A64" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" ht="17.399999999999999">
       <c r="A65" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="17.399999999999999">
       <c r="A66" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" ht="17.399999999999999">
       <c r="A67" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="17.399999999999999">
       <c r="A68" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" ht="17.399999999999999">
       <c r="A69" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="17.399999999999999">
       <c r="A70" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="17.399999999999999">
       <c r="A71" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" ht="17.399999999999999">
       <c r="A72" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" ht="17.399999999999999">
       <c r="A73" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="17.399999999999999">
       <c r="A74" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="17.399999999999999">
       <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="17.399999999999999">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="17.399999999999999">
       <c r="A77" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="17.399999999999999">
       <c r="A78" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="17.399999999999999">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="17.399999999999999">
       <c r="A80" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="17.399999999999999">
       <c r="A81" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="17.399999999999999">
+      <c r="A82" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="17.399999999999999">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="17.399999999999999">
       <c r="A84" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="17.399999999999999">
       <c r="A85" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="17.399999999999999">
       <c r="A86" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="17.399999999999999">
+      <c r="A87" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="17.399999999999999">
+      <c r="A88" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="17.399999999999999">
       <c r="A89" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="17.399999999999999">
       <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" ht="17.399999999999999">
       <c r="A91" s="8"/>
     </row>
-    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="17.399999999999999">
       <c r="A92" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="17.399999999999999">
       <c r="A93" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="17.399999999999999">
       <c r="A94" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="17.399999999999999">
       <c r="A95" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="17.399999999999999">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="17.399999999999999">
       <c r="A97" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="17.399999999999999">
       <c r="A98" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="17.399999999999999">
       <c r="A99" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="17.399999999999999">
       <c r="A100" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" ht="17.399999999999999">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" ht="17.399999999999999">
       <c r="A102" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="17.399999999999999">
       <c r="A103" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="17.399999999999999">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" ht="17.399999999999999">
       <c r="A105" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" ht="17.399999999999999">
       <c r="A106" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" ht="17.399999999999999">
       <c r="A107" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" ht="17.399999999999999">
       <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" ht="17.399999999999999">
       <c r="A109" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" ht="17.399999999999999">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" ht="17.399999999999999">
       <c r="A111" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="17.399999999999999">
       <c r="A112" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="17.399999999999999">
       <c r="A113" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="17.399999999999999">
+      <c r="A114" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" ht="17.399999999999999">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" ht="17.399999999999999">
       <c r="A116" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="17.399999999999999">
       <c r="A117" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="17.399999999999999">
       <c r="A118" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" ht="17.399999999999999">
       <c r="A119" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" ht="17.399999999999999">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" ht="17.399999999999999">
       <c r="A121" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="17.399999999999999">
       <c r="A122" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="17.399999999999999">
       <c r="A123" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" ht="17.399999999999999">
       <c r="A124" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" ht="17.399999999999999">
       <c r="A125" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" ht="17.399999999999999">
       <c r="A126" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" ht="17.399999999999999">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" ht="17.399999999999999">
       <c r="A128" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="17.399999999999999">
       <c r="A129" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="17.399999999999999">
       <c r="A130" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" ht="17.399999999999999">
       <c r="A131" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" ht="17.399999999999999">
       <c r="A132" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" ht="17.399999999999999">
       <c r="A133" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" ht="17.399999999999999">
       <c r="A134" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" ht="17.399999999999999">
       <c r="A135" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="17.399999999999999">
       <c r="A136" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" ht="17.399999999999999">
       <c r="A137" s="7" t="s">
         <v>82</v>
       </c>
@@ -7646,57 +7746,57 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="517">
   <si>
     <t>supplier_name</t>
   </si>
@@ -630,9 +630,6 @@
     <t>รหัสสถานะการอนุมัติ (Primary Key, Auto Increment)</t>
   </si>
   <si>
-    <t>ชื่อสถานะการอนุมัติ (เช่น รออนุมัติ, อนุมัติแล้ว, ไม่อนุมัติ)</t>
-  </si>
-  <si>
     <t>ตาราง: users</t>
   </si>
   <si>
@@ -654,36 +651,12 @@
     <t>ตาราง: approval_levels</t>
   </si>
   <si>
-    <t>รหัส Level (Primary Key, Auto Increment)</t>
-  </si>
-  <si>
-    <t>รหัส Workflow (Foreign Key อ้างอิงตาราง approval_workflow)</t>
-  </si>
-  <si>
-    <t>ลำดับ Level ใน Workflow (เช่น 1, 2, 3) เพื่อกำหนดลำดับการอนุมัติจากน้อยไปมาก</t>
-  </si>
-  <si>
-    <t>บทบาทของผู้มีสิทธิ์อนุมัติ (เช่น Manager, Finance Director) หรือ User_ID ก็ได้</t>
-  </si>
-  <si>
     <t>ตาราง: inspect_approvals</t>
   </si>
   <si>
-    <t>รหัสการอนุมัติ (Primary Key, Auto Increment)</t>
-  </si>
-  <si>
-    <t>รหัส Level (Foreign Key อ้างอิงตาราง approval_levels)</t>
-  </si>
-  <si>
     <t>รหัสผู้อนุมัติ (Foreign Key อ้างอิงตาราง users)</t>
   </si>
   <si>
-    <t>รหัสสถานะการอนุมัติ (Foreign Key อ้างอิงตาราง approval_status)</t>
-  </si>
-  <si>
-    <t>วันที่อนุมัติ</t>
-  </si>
-  <si>
     <t>Field Name</t>
   </si>
   <si>
@@ -724,9 +697,6 @@
   </si>
   <si>
     <t>รหัสผู้ใช้งาน (Primary Key, Auto Increment หรือกำหนดเอง)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ความคิดเห็น </t>
   </si>
   <si>
     <t>ยอดเงินงวดคงเหลือ(contract_value - total_value_interim_payment)</t>
@@ -1575,12 +1545,6 @@
   </si>
   <si>
     <t>สถานะปัจจุบันของ Workflow (เช่น รอดำเนินการ, อนุมัติ, ไม่อนุมัติ) = approval_status</t>
-  </si>
-  <si>
-    <t>ระดับการอนุมัติปัจจุบันของ Workflow = level_id</t>
-  </si>
-  <si>
-    <t>ตาราง: approval_workflow (รูปแบบการอนุมัติ)</t>
   </si>
   <si>
     <t>ตาราง: po_period</t>
@@ -1746,32 +1710,98 @@
     <t>รหัสงวด PO(Foreign Key อ้างอิงตาราง inspection_main)</t>
   </si>
   <si>
-    <t>ตาราง: inspection_approvals (บันทึกการอนุมัติการตรวจสอบในแต่ละระดับ)</t>
-  </si>
-  <si>
     <t>รหัสการตรวจสอบ (Foreign Key อ้างอิงตาราง inspection_period)</t>
   </si>
   <si>
     <t>งวดการตรวจสอบ (เช่น งวดที่ 1, 2, 3)(เชื่อมโยงกับตาราง inspection_period)</t>
   </si>
   <si>
+    <t>สถานะ po (เช่น "completed", "open", "pending")</t>
+  </si>
+  <si>
+    <t>ตาราง: workflows (ชื่อ workflow)</t>
+  </si>
+  <si>
+    <t>approved_level</t>
+  </si>
+  <si>
     <t>คำอธิบายเพิ่มเติม:
-การอนุมัติแบบเรียงลำดับจะถูกควบคุมโดย level_order ในตาราง approval_levels และ approval_status ในตาราง inspection_approvals
+การอนุมัติแบบเรียงลำดับจะถูกควบคุมโดย approved_level ในตาราง approval_levels และ approval_status ในตาราง inspection_approvals
 เมื่อ inspection_period ถูกสร้างขึ้น จะมีการสร้าง record ในตาราง inspection_approvals 
 โดยมีจำนวน record ตามจำนวนรายการใน approval_levels ที่เลือก พร้อมสถานะจะถูกตั้งเป็น "รออนุมัติ" ทุก record
 เมื่อผู้มีสิทธิ์อนุมัติในระดับนั้นอนุมัติ สถานะการอนุมัติจะเปลี่ยนเป็น "อนุมัติ" และบันทึกการอนุมัติในระดับถัดไป
 กระบวนการนี้จะดำเนินไปจนถึงระดับสุดท้าย หากมีการไม่อนุมัติในระดับใดระดับหนึ่ง สถานะ Inspect จะเปลี่ยนเป็น "ไม่อนุมัติ"
-การใช้ approver_role ใน approval_levels ช่วยให้กำหนดผู้มีสิทธิ์อนุมัติได้ง่ายโดยไม่ต้องระบุผู้ใช้โดยตรง ทำให้ยืดหยุ่นกว่า</t>
-  </si>
-  <si>
-    <t>สถานะ po (เช่น "completed", "open", "pending")</t>
+การใช้ approver_id ใน approval_levels ช่วยให้กำหนดผู้มีสิทธิ์อนุมัติได้ง่ายโดยไม่ต้องระบุผู้ใช้โดยตรง ทำให้ยืดหยุ่นกว่า</t>
+  </si>
+  <si>
+    <t>รหัสขั้นตอน (Primary Key, Auto Increment)</t>
+  </si>
+  <si>
+    <t>workflow_step_id</t>
+  </si>
+  <si>
+    <t>ลำดับการอนุมัติ (เช่น 1, 2, 3) เพื่อกำหนดลำดับการอนุมัติจากน้อยไปมาก</t>
+  </si>
+  <si>
+    <t>รหัสผู้ใช้ของผู้รับผิดชอบการอนุมัติในระดับนี้ หรืออาจะเปลี่ยนเป็น role การอนุมัติแทนก็ได้</t>
+  </si>
+  <si>
+    <t>ตาราง: inspection_approvals (ติดตามสถานะการอนุมัติของแต่ละ period ในแต่ละระดับการอนุมัติ)</t>
+  </si>
+  <si>
+    <t>inspection_approval_id</t>
+  </si>
+  <si>
+    <t>รหัสสำหรับบันทึกการอนุมัติ (Primary Key, Auto Increment)</t>
+  </si>
+  <si>
+    <t>ระดับการอนุมัติปัจจุบันของ Workflow = approved_level</t>
+  </si>
+  <si>
+    <t>approved_comment</t>
+  </si>
+  <si>
+    <t>รหัสสถานะของขั้นตอนอนุมัติเฉพาะนี้ (Foreign Key อ้างอิงตาราง approval_status)</t>
+  </si>
+  <si>
+    <t>ความคิดเห็นใดๆ ที่ให้ไว้ระหว่างการอนุมัติ/การปฏิเสธ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไทม์สแตมป์ของเวลาที่ดำเนินการอนุมัติ </t>
+  </si>
+  <si>
+    <t>approved_status_id</t>
+  </si>
+  <si>
+    <t>approved_status_name</t>
+  </si>
+  <si>
+    <t>ระดับการอนุมัติเฉพาะในเวิร์กโฟลว์ (ลำดับการอนุมัติ เช่น 1, 2, 3)</t>
+  </si>
+  <si>
+    <t>ชื่อสถานะการอนุมัติ (เช่น รออนุมัติ-Pending, อนุมัติแล้ว-Approved, ไม่อนุมัติ-Rejected, ปิด-Closed)</t>
+  </si>
+  <si>
+    <t>approved_date</t>
+  </si>
+  <si>
+    <t>current_approval_level</t>
+  </si>
+  <si>
+    <t>สถานะโดยรวม period นี้ เช่น 'รออนุมัติ' (Pending), 'อนุมัติแล้ว' (Approved), 'ปฏิเสธ' (Rejected), 'ปิด' (Closed)</t>
+  </si>
+  <si>
+    <t>ระบุว่าขณะนี้ period นี้อยู่ในขั้นตอนการอนุมัติที่เท่าไหร่ (เช่น ขั้นตอนที่ 1, 2, 3)</t>
+  </si>
+  <si>
+    <t>ตาราง: workflow_steps (ลำดับและผู้ให้การอนุมัติสำหรับแต่ละระดับภายใน Workflow)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2181,11 +2211,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2193,10 +2232,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2205,20 +2244,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2226,13 +2259,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2526,11 +2556,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164:C168"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153:C153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.88671875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -2547,14 +2577,14 @@
     <col min="13" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>113</v>
       </c>
@@ -2565,7 +2595,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>71</v>
       </c>
@@ -2573,10 +2603,10 @@
         <v>116</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -2587,14 +2617,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>113</v>
       </c>
@@ -2605,7 +2635,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>72</v>
       </c>
@@ -2616,7 +2646,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
@@ -2627,14 +2657,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="51" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>113</v>
       </c>
@@ -2645,7 +2675,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>73</v>
       </c>
@@ -2656,7 +2686,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
@@ -2667,19 +2697,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="38"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="49" t="s">
-        <v>498</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-    </row>
-    <row r="17" spans="1:6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>113</v>
       </c>
@@ -2690,70 +2720,70 @@
         <v>115</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E18" s="18">
         <v>0</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E19" s="18">
         <v>1</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E20" s="18">
         <v>2</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" s="18">
         <v>3</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-    </row>
-    <row r="23" spans="1:6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>113</v>
       </c>
@@ -2764,54 +2794,54 @@
         <v>115</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E24" s="18">
         <v>0</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E25" s="18">
         <v>1</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="53" t="s">
-        <v>466</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-    </row>
-    <row r="28" spans="1:6">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>113</v>
       </c>
@@ -2822,7 +2852,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>74</v>
       </c>
@@ -2830,12 +2860,12 @@
         <v>116</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>120</v>
@@ -2844,7 +2874,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
@@ -2855,7 +2885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>71</v>
       </c>
@@ -2863,10 +2893,10 @@
         <v>122</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>72</v>
       </c>
@@ -2877,7 +2907,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
@@ -2888,7 +2918,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
@@ -2899,7 +2929,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>45</v>
       </c>
@@ -2910,7 +2940,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>6</v>
       </c>
@@ -2921,7 +2951,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="39.6">
+    <row r="38" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>38</v>
       </c>
@@ -2929,10 +2959,10 @@
         <v>127</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="39.6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>37</v>
       </c>
@@ -2940,13 +2970,13 @@
         <v>127</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E39" s="11">
         <v>869161</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>9</v>
       </c>
@@ -2961,7 +2991,7 @@
         <v>56861</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>43</v>
       </c>
@@ -2976,7 +3006,7 @@
         <v>812300</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>44</v>
       </c>
@@ -2987,7 +3017,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>3</v>
       </c>
@@ -3006,7 +3036,7 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>4</v>
       </c>
@@ -3025,7 +3055,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>5</v>
       </c>
@@ -3044,7 +3074,7 @@
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>27</v>
       </c>
@@ -3052,7 +3082,7 @@
         <v>127</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -3063,7 +3093,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>35</v>
       </c>
@@ -3071,7 +3101,7 @@
         <v>127</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -3082,7 +3112,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>29</v>
       </c>
@@ -3093,7 +3123,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>30</v>
       </c>
@@ -3104,42 +3134,42 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B51" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.4">
-      <c r="A52" s="60" t="s">
-        <v>495</v>
-      </c>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="53" t="s">
-        <v>463</v>
-      </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-    </row>
-    <row r="55" spans="1:3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="61" t="s">
+        <v>483</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>114</v>
@@ -3148,18 +3178,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B56" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
@@ -3167,32 +3197,32 @@
         <v>134</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>134</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B59" s="46" t="s">
         <v>127</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>11</v>
       </c>
@@ -3200,21 +3230,21 @@
         <v>117</v>
       </c>
       <c r="C60" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="13" t="s">
-        <v>493</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
         <v>47</v>
       </c>
@@ -3222,10 +3252,10 @@
         <v>127</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
         <v>48</v>
       </c>
@@ -3233,10 +3263,10 @@
         <v>127</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
         <v>49</v>
       </c>
@@ -3244,10 +3274,10 @@
         <v>127</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
         <v>50</v>
       </c>
@@ -3255,10 +3285,10 @@
         <v>127</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
         <v>54</v>
       </c>
@@ -3269,7 +3299,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
         <v>53</v>
       </c>
@@ -3277,10 +3307,10 @@
         <v>127</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
         <v>55</v>
       </c>
@@ -3288,10 +3318,10 @@
         <v>127</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
         <v>52</v>
       </c>
@@ -3299,10 +3329,10 @@
         <v>127</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
         <v>57</v>
       </c>
@@ -3310,10 +3340,10 @@
         <v>127</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
         <v>51</v>
       </c>
@@ -3321,10 +3351,10 @@
         <v>127</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
         <v>56</v>
       </c>
@@ -3332,10 +3362,10 @@
         <v>127</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
         <v>7</v>
       </c>
@@ -3343,10 +3373,10 @@
         <v>127</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
         <v>62</v>
       </c>
@@ -3357,29 +3387,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
         <v>33</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
         <v>32</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
         <v>78</v>
       </c>
@@ -3387,10 +3417,10 @@
         <v>134</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
         <v>106</v>
       </c>
@@ -3398,10 +3428,10 @@
         <v>117</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
         <v>107</v>
       </c>
@@ -3409,34 +3439,34 @@
         <v>134</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.4">
-      <c r="A80" s="58" t="s">
-        <v>496</v>
-      </c>
-      <c r="B80" s="59"/>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="1:6">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A80" s="63" t="s">
+        <v>484</v>
+      </c>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E81" s="18">
         <v>2</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="53" t="s">
-        <v>486</v>
-      </c>
-      <c r="B82" s="54"/>
-      <c r="C82" s="54"/>
-    </row>
-    <row r="83" spans="1:6">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B83" s="34" t="s">
         <v>114</v>
@@ -3445,40 +3475,40 @@
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B84" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
         <v>74</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>47</v>
       </c>
@@ -3486,10 +3516,10 @@
         <v>127</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>48</v>
       </c>
@@ -3497,10 +3527,10 @@
         <v>127</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>49</v>
       </c>
@@ -3508,10 +3538,10 @@
         <v>127</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>50</v>
       </c>
@@ -3519,10 +3549,10 @@
         <v>127</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>54</v>
       </c>
@@ -3533,7 +3563,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>53</v>
       </c>
@@ -3541,10 +3571,10 @@
         <v>127</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>55</v>
       </c>
@@ -3552,10 +3582,10 @@
         <v>127</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>52</v>
       </c>
@@ -3563,10 +3593,10 @@
         <v>127</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>57</v>
       </c>
@@ -3574,10 +3604,10 @@
         <v>127</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>51</v>
       </c>
@@ -3585,10 +3615,10 @@
         <v>127</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>56</v>
       </c>
@@ -3596,10 +3626,10 @@
         <v>127</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>7</v>
       </c>
@@ -3607,10 +3637,10 @@
         <v>127</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>62</v>
       </c>
@@ -3621,29 +3651,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>11</v>
       </c>
@@ -3654,7 +3684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>78</v>
       </c>
@@ -3662,10 +3692,10 @@
         <v>134</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>106</v>
       </c>
@@ -3673,48 +3703,48 @@
         <v>117</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>107</v>
+        <v>513</v>
       </c>
       <c r="B105" s="33" t="s">
         <v>134</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="14.4">
-      <c r="A107" s="58" t="s">
-        <v>497</v>
-      </c>
-      <c r="B107" s="59"/>
-      <c r="C107" s="59"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="53" t="s">
-        <v>488</v>
-      </c>
-      <c r="B109" s="54"/>
-      <c r="C109" s="54"/>
-    </row>
-    <row r="110" spans="1:3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A107" s="63" t="s">
+        <v>485</v>
+      </c>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="B109" s="57"/>
+      <c r="C109" s="57"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B110" s="34" t="s">
         <v>114</v>
@@ -3723,29 +3753,29 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B111" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B112" s="33" t="s">
         <v>134</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>112</v>
       </c>
@@ -3756,7 +3786,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>59</v>
       </c>
@@ -3767,7 +3797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>11</v>
       </c>
@@ -3778,19 +3808,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="38"/>
       <c r="C116" s="19"/>
     </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="B117" s="48"/>
-      <c r="C117" s="48"/>
-    </row>
-    <row r="118" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B117" s="55"/>
+      <c r="C117" s="55"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>113</v>
       </c>
@@ -3801,21 +3831,21 @@
         <v>115</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B119" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E119" s="18">
         <v>1</v>
@@ -3824,9 +3854,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B120" s="33" t="s">
         <v>117</v>
@@ -3841,7 +3871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E121" s="18">
         <v>3</v>
       </c>
@@ -3849,12 +3879,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="49" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="B122" s="50"/>
-      <c r="C122" s="50"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
       <c r="E122" s="18">
         <v>4</v>
       </c>
@@ -3862,7 +3892,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>113</v>
       </c>
@@ -3879,7 +3909,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>69</v>
       </c>
@@ -3890,7 +3920,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>39</v>
       </c>
@@ -3901,14 +3931,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B127" s="48"/>
-      <c r="C127" s="48"/>
-    </row>
-    <row r="128" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" s="55"/>
+      <c r="C127" s="55"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>113</v>
       </c>
@@ -3937,7 +3967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>89</v>
       </c>
@@ -3945,7 +3975,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E129" s="18">
         <v>1001</v>
@@ -3964,7 +3994,7 @@
       </c>
       <c r="J129" s="18"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>42</v>
       </c>
@@ -3991,7 +4021,7 @@
       </c>
       <c r="J130" s="18"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>41</v>
       </c>
@@ -3999,7 +4029,7 @@
         <v>117</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E131" s="18">
         <v>1003</v>
@@ -4018,7 +4048,7 @@
       </c>
       <c r="J131" s="18"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>63</v>
       </c>
@@ -4045,7 +4075,7 @@
       </c>
       <c r="J132" s="18"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>70</v>
       </c>
@@ -4053,7 +4083,7 @@
         <v>120</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E133" s="18">
         <v>1005</v>
@@ -4072,7 +4102,7 @@
       </c>
       <c r="J133" s="18"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>69</v>
       </c>
@@ -4080,17 +4110,17 @@
         <v>122</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="B136" s="50"/>
-      <c r="C136" s="50"/>
-    </row>
-    <row r="137" spans="1:10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>113</v>
       </c>
@@ -4100,16 +4130,16 @@
       <c r="C137" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E137" s="63" t="s">
+      <c r="E137" s="48" t="s">
         <v>108</v>
       </c>
       <c r="F137" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>108</v>
+        <v>508</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>116</v>
@@ -4124,15 +4154,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>109</v>
+        <v>509</v>
       </c>
       <c r="B139" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>148</v>
+        <v>511</v>
       </c>
       <c r="E139" s="18">
         <v>1</v>
@@ -4141,7 +4171,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E140" s="18">
         <v>2</v>
       </c>
@@ -4149,14 +4179,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
-      <c r="A141" s="49" t="s">
-        <v>462</v>
-      </c>
-      <c r="B141" s="50"/>
-      <c r="C141" s="50"/>
-    </row>
-    <row r="142" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="52" t="s">
+        <v>493</v>
+      </c>
+      <c r="B141" s="53"/>
+      <c r="C141" s="53"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>113</v>
       </c>
@@ -4166,14 +4196,14 @@
       <c r="C142" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E142" s="62" t="s">
+      <c r="E142" s="47" t="s">
         <v>78</v>
       </c>
       <c r="F142" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>78</v>
       </c>
@@ -4181,7 +4211,7 @@
         <v>116</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E143" s="30">
         <v>1</v>
@@ -4190,7 +4220,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>77</v>
       </c>
@@ -4204,17 +4234,17 @@
         <v>2</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="B146" s="48"/>
-      <c r="C146" s="48"/>
-    </row>
-    <row r="147" spans="1:12">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B146" s="55"/>
+      <c r="C146" s="55"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>113</v>
       </c>
@@ -4225,27 +4255,27 @@
         <v>115</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F147" s="62" t="s">
+        <v>494</v>
+      </c>
+      <c r="F147" s="47" t="s">
         <v>78</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>64</v>
+        <v>497</v>
       </c>
       <c r="B148" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>156</v>
+        <v>496</v>
       </c>
       <c r="E148" s="27">
         <v>1</v>
@@ -4260,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>78</v>
       </c>
@@ -4268,7 +4298,7 @@
         <v>122</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E149" s="27">
         <v>2</v>
@@ -4283,15 +4313,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="B150" s="33" t="s">
         <v>134</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>158</v>
+        <v>498</v>
       </c>
       <c r="E150" s="26">
         <v>3</v>
@@ -4306,15 +4336,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B151" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>159</v>
+        <v>499</v>
       </c>
       <c r="E151" s="18">
         <v>4</v>
@@ -4329,7 +4359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E152" s="18">
         <v>5</v>
       </c>
@@ -4343,14 +4373,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="53" t="s">
-        <v>502</v>
-      </c>
-      <c r="B153" s="54"/>
-      <c r="C153" s="54"/>
-    </row>
-    <row r="154" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="B153" s="57"/>
+      <c r="C153" s="57"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>113</v>
       </c>
@@ -4361,21 +4391,21 @@
         <v>115</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G154" s="13" t="s">
         <v>8</v>
       </c>
       <c r="H154" s="22" t="s">
-        <v>64</v>
+        <v>494</v>
       </c>
       <c r="I154" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J154" s="64" t="s">
+      <c r="J154" s="49" t="s">
         <v>67</v>
       </c>
       <c r="K154" s="13" t="s">
@@ -4385,15 +4415,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="B155" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>161</v>
+        <v>502</v>
       </c>
       <c r="E155" s="32">
         <v>1</v>
@@ -4420,15 +4450,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="E156" s="32">
         <v>2</v>
@@ -4455,7 +4485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>8</v>
       </c>
@@ -4463,7 +4493,7 @@
         <v>134</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="E157" s="32">
         <v>3</v>
@@ -4490,15 +4520,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>64</v>
+        <v>494</v>
       </c>
       <c r="B158" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>162</v>
+        <v>510</v>
       </c>
       <c r="E158" s="20">
         <v>4</v>
@@ -4525,7 +4555,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>65</v>
       </c>
@@ -4533,7 +4563,7 @@
         <v>122</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E159" s="20">
         <v>5</v>
@@ -4560,15 +4590,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>108</v>
+        <v>508</v>
       </c>
       <c r="B160" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>164</v>
+        <v>505</v>
       </c>
       <c r="E160" s="20">
         <v>6</v>
@@ -4595,15 +4625,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>68</v>
+        <v>512</v>
       </c>
       <c r="B161" s="33" t="s">
         <v>131</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>165</v>
+        <v>507</v>
       </c>
       <c r="E161" s="22">
         <v>7</v>
@@ -4630,15 +4660,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="B162" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>180</v>
+        <v>506</v>
       </c>
       <c r="E162" s="22">
         <v>8</v>
@@ -4665,72 +4695,66 @@
         <v>66</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
-      <c r="A164" s="57" t="s">
-        <v>505</v>
-      </c>
-      <c r="B164" s="56"/>
-      <c r="C164" s="56"/>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" s="56"/>
-      <c r="B165" s="56"/>
-      <c r="C165" s="56"/>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" s="56"/>
-      <c r="B166" s="56"/>
-      <c r="C166" s="56"/>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" s="56"/>
-      <c r="B167" s="56"/>
-      <c r="C167" s="56"/>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="56"/>
-      <c r="B168" s="56"/>
-      <c r="C168" s="56"/>
-    </row>
-    <row r="169" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="58" t="s">
+        <v>495</v>
+      </c>
+      <c r="B164" s="51"/>
+      <c r="C164" s="51"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="51"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="51"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="51"/>
+      <c r="B166" s="51"/>
+      <c r="C166" s="51"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="51"/>
+      <c r="B167" s="51"/>
+      <c r="C167" s="51"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="51"/>
+      <c r="B168" s="51"/>
+      <c r="C168" s="51"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="39"/>
     </row>
-    <row r="170" spans="1:12">
-      <c r="A170" s="55" t="s">
-        <v>341</v>
-      </c>
-      <c r="B170" s="56"/>
-      <c r="C170" s="56"/>
-    </row>
-    <row r="171" spans="1:12">
-      <c r="A171" s="56"/>
-      <c r="B171" s="56"/>
-      <c r="C171" s="56"/>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" s="56"/>
-      <c r="B172" s="56"/>
-      <c r="C172" s="56"/>
-    </row>
-    <row r="173" spans="1:12">
-      <c r="A173" s="56"/>
-      <c r="B173" s="56"/>
-      <c r="C173" s="56"/>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="A174" s="56"/>
-      <c r="B174" s="56"/>
-      <c r="C174" s="56"/>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B170" s="51"/>
+      <c r="C170" s="51"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="51"/>
+      <c r="B171" s="51"/>
+      <c r="C171" s="51"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="51"/>
+      <c r="B172" s="51"/>
+      <c r="C172" s="51"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="51"/>
+      <c r="B173" s="51"/>
+      <c r="C173" s="51"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="51"/>
+      <c r="B174" s="51"/>
+      <c r="C174" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A170:C174"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A164:C168"/>
     <mergeCell ref="A127:C127"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
@@ -4746,6 +4770,12 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A80:C80"/>
     <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A170:C174"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A164:C168"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4760,113 +4790,113 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.33203125" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.6640625" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="41" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4883,728 +4913,728 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="179" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.399999999999999">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.399999999999999">
-      <c r="A2" s="3" t="s">
+    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.399999999999999">
-      <c r="A3" s="3" t="s">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17.399999999999999">
-      <c r="A4" s="3" t="s">
+    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17.399999999999999">
-      <c r="A5" s="3" t="s">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17.399999999999999">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="17.399999999999999">
-      <c r="A7" s="3" t="s">
+    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17.399999999999999">
-      <c r="A8" s="3" t="s">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17.399999999999999">
-      <c r="A9" s="3" t="s">
+    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17.399999999999999">
-      <c r="A10" s="3" t="s">
+    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17.399999999999999">
-      <c r="A11" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="17.399999999999999">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="17.399999999999999">
-      <c r="A13" s="3" t="s">
+    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="17.399999999999999">
-      <c r="A14" s="3" t="s">
+    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="17.399999999999999">
-      <c r="A15" s="3" t="s">
+    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="17.399999999999999">
-      <c r="A16" s="3" t="s">
+    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17.399999999999999">
-      <c r="A17" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="17.399999999999999">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" ht="17.399999999999999">
-      <c r="A19" s="3" t="s">
+    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17.399999999999999">
-      <c r="A20" s="3" t="s">
+    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17.399999999999999">
-      <c r="A21" s="3" t="s">
+    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17.399999999999999">
-      <c r="A22" s="3" t="s">
+    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17.399999999999999">
-      <c r="A23" s="3" t="s">
+    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17.399999999999999">
-      <c r="A24" s="3" t="s">
+    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17.399999999999999">
-      <c r="A25" s="3" t="s">
+    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17.399999999999999">
-      <c r="A26" s="3" t="s">
+    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17.399999999999999">
-      <c r="A27" s="3" t="s">
+    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17.399999999999999">
-      <c r="A28" s="3" t="s">
+    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17.399999999999999">
-      <c r="A29" s="3" t="s">
+    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="17.399999999999999">
-      <c r="A30" s="3" t="s">
+    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="17.399999999999999">
-      <c r="A31" s="3" t="s">
+    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="17.399999999999999">
-      <c r="A32" s="3" t="s">
+    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="17.399999999999999">
-      <c r="A33" s="3" t="s">
+    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="17.399999999999999">
-      <c r="A34" s="3" t="s">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="17.399999999999999">
-      <c r="A35" s="3" t="s">
+    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="17.399999999999999">
-      <c r="A36" s="3" t="s">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="17.399999999999999">
-      <c r="A37" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="17.399999999999999">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" ht="17.399999999999999">
-      <c r="A39" s="3" t="s">
+    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="17.399999999999999">
-      <c r="A40" s="3" t="s">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="17.399999999999999">
-      <c r="A41" s="3" t="s">
+    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="17.399999999999999">
-      <c r="A42" s="3" t="s">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="17.399999999999999">
-      <c r="A43" s="3" t="s">
+    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="17.399999999999999">
-      <c r="A44" s="3" t="s">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="17.399999999999999">
-      <c r="A45" s="3" t="s">
+    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="17.399999999999999">
-      <c r="A46" s="3" t="s">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="17.399999999999999">
-      <c r="A47" s="3" t="s">
+    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="17.399999999999999">
-      <c r="A48" s="3" t="s">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="17.399999999999999">
-      <c r="A49" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="17.399999999999999">
-      <c r="A50" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="17.399999999999999">
-      <c r="A51" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="17.399999999999999">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" ht="17.399999999999999">
-      <c r="A53" s="3" t="s">
+    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="17.399999999999999">
-      <c r="A54" s="3" t="s">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="17.399999999999999">
-      <c r="A55" s="3" t="s">
+    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="17.399999999999999">
-      <c r="A56" s="3" t="s">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="17.399999999999999">
-      <c r="A57" s="3" t="s">
+    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="17.399999999999999">
-      <c r="A58" s="3" t="s">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="17.399999999999999">
-      <c r="A59" s="3" t="s">
+    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="17.399999999999999">
-      <c r="A60" s="3" t="s">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="17.399999999999999">
-      <c r="A61" s="3" t="s">
+    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="17.399999999999999">
-      <c r="A62" s="3" t="s">
+    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="17.399999999999999">
-      <c r="A63" s="3" t="s">
+    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="17.399999999999999">
-      <c r="A64" s="3" t="s">
+    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="17.399999999999999">
-      <c r="A65" s="3" t="s">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="17.399999999999999">
-      <c r="A66" s="3" t="s">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="17.399999999999999">
-      <c r="A67" s="3" t="s">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="17.399999999999999">
-      <c r="A68" s="3" t="s">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="17.399999999999999">
-      <c r="A69" s="3" t="s">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="17.399999999999999">
-      <c r="A70" s="3" t="s">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="17.399999999999999">
-      <c r="A71" s="3" t="s">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="17.399999999999999">
-      <c r="A72" s="3" t="s">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="17.399999999999999">
-      <c r="A73" s="3" t="s">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="17.399999999999999">
-      <c r="A74" s="3" t="s">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="17.399999999999999">
-      <c r="A75" s="3" t="s">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="17.399999999999999">
-      <c r="A76" s="3" t="s">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="17.399999999999999">
-      <c r="A77" s="3" t="s">
+    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="17.399999999999999">
-      <c r="A78" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="17.399999999999999">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1" ht="17.399999999999999">
-      <c r="A80" s="3" t="s">
+    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="17.399999999999999">
-      <c r="A81" s="3" t="s">
+    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="17.399999999999999">
-      <c r="A82" s="3" t="s">
+    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="17.399999999999999">
-      <c r="A83" s="3" t="s">
+    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="17.399999999999999">
-      <c r="A84" s="3" t="s">
+    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="17.399999999999999">
-      <c r="A85" s="3" t="s">
+    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="17.399999999999999">
-      <c r="A86" s="3" t="s">
+    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="17.399999999999999">
-      <c r="A87" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="17.399999999999999">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" ht="17.399999999999999">
-      <c r="A89" s="3" t="s">
+    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="17.399999999999999">
-      <c r="A90" s="3" t="s">
+    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="17.399999999999999">
-      <c r="A91" s="3" t="s">
+    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="17.399999999999999">
-      <c r="A92" s="3" t="s">
+    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="17.399999999999999">
-      <c r="A93" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="17.399999999999999">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" ht="17.399999999999999">
-      <c r="A95" s="3" t="s">
+    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="17.399999999999999">
-      <c r="A96" s="3" t="s">
+    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="17.399999999999999">
-      <c r="A97" s="3" t="s">
+    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="17.399999999999999">
-      <c r="A98" s="3" t="s">
+    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="17.399999999999999">
-      <c r="A99" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="17.399999999999999">
-      <c r="A100" s="3"/>
-    </row>
-    <row r="101" spans="1:1" ht="17.399999999999999">
-      <c r="A101" s="3" t="s">
+    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="17.399999999999999">
-      <c r="A102" s="3" t="s">
+    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="17.399999999999999">
-      <c r="A103" s="3" t="s">
+    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="17.399999999999999">
-      <c r="A104" s="3" t="s">
+    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="17.399999999999999">
-      <c r="A105" s="3" t="s">
+    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="17.399999999999999">
-      <c r="A106" s="3" t="s">
+    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="17.399999999999999">
-      <c r="A107" s="3" t="s">
+    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="17.399999999999999">
-      <c r="A108" s="3" t="s">
+    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="17.399999999999999">
-      <c r="A109" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="17.399999999999999">
-      <c r="A110" s="3"/>
-    </row>
-    <row r="111" spans="1:1" ht="17.399999999999999">
-      <c r="A111" s="3" t="s">
+    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="17.399999999999999">
-      <c r="A112" s="3" t="s">
+    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="17.399999999999999">
-      <c r="A113" s="3" t="s">
+    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="17.399999999999999">
-      <c r="A114" s="3" t="s">
+    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="17.399999999999999">
-      <c r="A115" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="17.399999999999999">
-      <c r="A116" s="3"/>
-    </row>
-    <row r="117" spans="1:1" ht="17.399999999999999">
-      <c r="A117" s="3" t="s">
+    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="17.399999999999999">
-      <c r="A118" s="3" t="s">
+    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="17.399999999999999">
-      <c r="A119" s="3" t="s">
+    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="17.399999999999999">
-      <c r="A120" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="17.399999999999999">
-      <c r="A121" s="3" t="s">
+    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="17.399999999999999">
-      <c r="A122" s="3" t="s">
+    <row r="138" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="17.399999999999999">
-      <c r="A123" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="17.399999999999999">
-      <c r="A124" s="3"/>
-    </row>
-    <row r="125" spans="1:1" ht="17.399999999999999">
-      <c r="A125" s="3" t="s">
+    <row r="139" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="17.399999999999999">
-      <c r="A126" s="3" t="s">
+    <row r="140" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="17.399999999999999">
-      <c r="A127" s="3" t="s">
+    <row r="141" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="17.399999999999999">
-      <c r="A128" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="17.399999999999999">
-      <c r="A129" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="17.399999999999999">
-      <c r="A130" s="3" t="s">
+    <row r="142" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="17.399999999999999">
-      <c r="A131" s="3" t="s">
+    <row r="143" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="17.399999999999999">
-      <c r="A132" s="3" t="s">
+    <row r="144" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="17.399999999999999">
-      <c r="A133" s="3" t="s">
+    <row r="145" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="17.399999999999999">
-      <c r="A134" s="3" t="s">
+    <row r="146" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="17.399999999999999">
-      <c r="A135" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="17.399999999999999">
-      <c r="A136" s="3"/>
-    </row>
-    <row r="137" spans="1:1" ht="17.399999999999999">
-      <c r="A137" s="3" t="s">
+    <row r="147" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="17.399999999999999">
-      <c r="A138" s="3" t="s">
+    <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="17.399999999999999">
-      <c r="A139" s="3" t="s">
+    <row r="149" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="17.399999999999999">
-      <c r="A140" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="17.399999999999999">
-      <c r="A141" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="17.399999999999999">
-      <c r="A142" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="17.399999999999999">
-      <c r="A143" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="17.399999999999999">
-      <c r="A144" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="17.399999999999999">
-      <c r="A145" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="17.399999999999999">
-      <c r="A146" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="17.399999999999999">
-      <c r="A147" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="17.399999999999999">
-      <c r="A148" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="17.399999999999999">
-      <c r="A149" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5620,774 +5650,774 @@
       <selection sqref="A1:A168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="9" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="9" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="9" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="9" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="9" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="9" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="9" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="9" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="9" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="9" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="9" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="9" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="9" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6403,662 +6433,662 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.399999999999999">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.399999999999999">
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17.399999999999999">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17.399999999999999">
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17.399999999999999">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1" ht="17.399999999999999">
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17.399999999999999">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17.399999999999999">
+    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17.399999999999999">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17.399999999999999">
+    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:1" ht="17.399999999999999">
+    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17.399999999999999">
+    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="17.399999999999999">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="17.399999999999999">
+    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="17.399999999999999">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" ht="17.399999999999999">
+    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17.399999999999999">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17.399999999999999">
+    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17.399999999999999">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17.399999999999999">
+    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17.399999999999999">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17.399999999999999">
+    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17.399999999999999">
+    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17.399999999999999">
+    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17.399999999999999">
+    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17.399999999999999">
+    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17.399999999999999">
+    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17.399999999999999">
+    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="17.399999999999999">
+    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="17.399999999999999">
+    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="17.399999999999999">
+    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="17.399999999999999">
+    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="17.399999999999999">
+    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="17.399999999999999">
+    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" ht="17.399999999999999">
+    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="17.399999999999999">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="17.399999999999999">
+    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="17.399999999999999">
-      <c r="A39" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="17.399999999999999">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" ht="17.399999999999999">
-      <c r="A41" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="17.399999999999999">
+    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="17.399999999999999">
+    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="17.399999999999999">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="17.399999999999999">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" ht="17.399999999999999">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="17.399999999999999">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="17.399999999999999">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="17.399999999999999">
+    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="17.399999999999999">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="17.399999999999999">
+    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="17.399999999999999">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="17.399999999999999">
+    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="17.399999999999999">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="17.399999999999999">
+    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="17.399999999999999">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="17.399999999999999">
+    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="17.399999999999999">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" ht="17.399999999999999">
+    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="17.399999999999999">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="17.399999999999999">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="17.399999999999999">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="17.399999999999999">
+    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="17.399999999999999">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="17.399999999999999">
+    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="17.399999999999999">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="17.399999999999999">
+    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="17.399999999999999">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="17.399999999999999">
+    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="17.399999999999999">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="17.399999999999999">
+    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="17.399999999999999">
+    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="17.399999999999999">
+    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="17.399999999999999">
+    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="17.399999999999999">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="17.399999999999999">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="17.399999999999999">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="17.399999999999999">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="17.399999999999999">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="17.399999999999999">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="17.399999999999999">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="17.399999999999999">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="17.399999999999999">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="17.399999999999999">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="17.399999999999999">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="17.399999999999999">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="17.399999999999999">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="17.399999999999999">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="17.399999999999999">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="17.399999999999999">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="17.399999999999999">
+    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
     </row>
-    <row r="92" spans="1:1" ht="17.399999999999999">
+    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="17.399999999999999">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="17.399999999999999">
+    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="17.399999999999999">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="17.399999999999999">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="17.399999999999999">
+    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="17.399999999999999">
+    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="17.399999999999999">
+    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="17.399999999999999">
+    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="17.399999999999999">
+    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="17.399999999999999">
+    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="17.399999999999999">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="17.399999999999999">
+    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="17.399999999999999">
+    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="17.399999999999999">
+    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="17.399999999999999">
+    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="17.399999999999999">
+    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="17.399999999999999">
+    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="17.399999999999999">
+    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="17.399999999999999">
+    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="17.399999999999999">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="17.399999999999999">
+    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="17.399999999999999">
+    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="17.399999999999999">
+    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="17.399999999999999">
+    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="17.399999999999999">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="17.399999999999999">
+    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="17.399999999999999">
+    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="17.399999999999999">
+    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="17.399999999999999">
+    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="17.399999999999999">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="17.399999999999999">
+    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="17.399999999999999">
+    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="17.399999999999999">
+    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="17.399999999999999">
+    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="17.399999999999999">
+    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="17.399999999999999">
+    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="17.399999999999999">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="17.399999999999999">
+    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="17.399999999999999">
+    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="17.399999999999999">
+    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="17.399999999999999">
+    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="17.399999999999999">
+    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="17.399999999999999">
+    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="17.399999999999999">
+    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="17.399999999999999">
+    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>82</v>
       </c>
@@ -7076,659 +7106,659 @@
       <selection sqref="A1:A137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.399999999999999">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.399999999999999">
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17.399999999999999">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17.399999999999999">
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17.399999999999999">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1" ht="17.399999999999999">
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17.399999999999999">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17.399999999999999">
+    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17.399999999999999">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17.399999999999999">
+    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:1" ht="17.399999999999999">
+    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17.399999999999999">
+    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="17.399999999999999">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="17.399999999999999">
+    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="17.399999999999999">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" ht="17.399999999999999">
+    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17.399999999999999">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17.399999999999999">
+    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17.399999999999999">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17.399999999999999">
+    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17.399999999999999">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17.399999999999999">
+    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17.399999999999999">
+    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17.399999999999999">
+    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17.399999999999999">
+    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17.399999999999999">
+    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17.399999999999999">
+    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17.399999999999999">
+    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="17.399999999999999">
+    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="17.399999999999999">
+    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="17.399999999999999">
+    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="17.399999999999999">
+    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="17.399999999999999">
+    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="17.399999999999999">
+    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" ht="17.399999999999999">
+    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="17.399999999999999">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="17.399999999999999">
+    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="17.399999999999999">
-      <c r="A39" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="17.399999999999999">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" ht="17.399999999999999">
-      <c r="A41" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="17.399999999999999">
+    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="17.399999999999999">
+    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="17.399999999999999">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="17.399999999999999">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" ht="17.399999999999999">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="17.399999999999999">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="17.399999999999999">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="17.399999999999999">
+    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="17.399999999999999">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="17.399999999999999">
+    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="17.399999999999999">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="17.399999999999999">
+    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="17.399999999999999">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="17.399999999999999">
+    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="17.399999999999999">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="17.399999999999999">
+    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="17.399999999999999">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" ht="17.399999999999999">
+    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="17.399999999999999">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="17.399999999999999">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="17.399999999999999">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="17.399999999999999">
+    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="17.399999999999999">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="17.399999999999999">
+    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="17.399999999999999">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="17.399999999999999">
+    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="17.399999999999999">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="17.399999999999999">
+    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="17.399999999999999">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="17.399999999999999">
+    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="17.399999999999999">
+    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="17.399999999999999">
+    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="17.399999999999999">
+    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="17.399999999999999">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="17.399999999999999">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="17.399999999999999">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="17.399999999999999">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="17.399999999999999">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="17.399999999999999">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="17.399999999999999">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="17.399999999999999">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="17.399999999999999">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="17.399999999999999">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="17.399999999999999">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="17.399999999999999">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="17.399999999999999">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="17.399999999999999">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="17.399999999999999">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="17.399999999999999">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="17.399999999999999">
+    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
     </row>
-    <row r="92" spans="1:1" ht="17.399999999999999">
+    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="17.399999999999999">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="17.399999999999999">
+    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="17.399999999999999">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="17.399999999999999">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="17.399999999999999">
+    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="17.399999999999999">
+    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="17.399999999999999">
+    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="17.399999999999999">
+    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="17.399999999999999">
+    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="17.399999999999999">
+    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="17.399999999999999">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="17.399999999999999">
+    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="17.399999999999999">
+    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="17.399999999999999">
+    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="17.399999999999999">
+    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="17.399999999999999">
+    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="17.399999999999999">
+    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="17.399999999999999">
+    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="17.399999999999999">
+    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="17.399999999999999">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="17.399999999999999">
+    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="17.399999999999999">
+    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="17.399999999999999">
+    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="17.399999999999999">
+    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="17.399999999999999">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="17.399999999999999">
+    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="17.399999999999999">
+    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="17.399999999999999">
+    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="17.399999999999999">
+    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="17.399999999999999">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="17.399999999999999">
+    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="17.399999999999999">
+    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="17.399999999999999">
+    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="17.399999999999999">
+    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="17.399999999999999">
+    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="17.399999999999999">
+    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="17.399999999999999">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="17.399999999999999">
+    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="17.399999999999999">
+    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="17.399999999999999">
+    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="17.399999999999999">
+    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="17.399999999999999">
+    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="17.399999999999999">
+    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="17.399999999999999">
+    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="17.399999999999999">
+    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>82</v>
       </c>
@@ -7746,57 +7776,57 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="518">
   <si>
     <t>supplier_name</t>
   </si>
@@ -1795,6 +1795,9 @@
   </si>
   <si>
     <t>ตาราง: workflow_steps (ลำดับและผู้ให้การอนุมัติสำหรับแต่ละระดับภายใน Workflow)</t>
+  </si>
+  <si>
+    <t>รหัส Workflow (Foreign Key อ้างอิงตาราง workflows เพื่อแค่จะบอกว่าใช้ workflow ตัวไหนเท่านั้น ถ้าไม่มี workflow นี้ในระบบแล้ว  ต้องเลือก workflow ใหม่)</t>
   </si>
 </sst>
 </file>
@@ -2220,11 +2223,11 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2232,25 +2235,16 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2264,6 +2258,15 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2554,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L174"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:C153"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2658,11 +2661,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -3153,303 +3156,312 @@
         <v>492</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="61" t="s">
+    <row r="52" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="56" t="s">
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="56" t="s">
         <v>451</v>
       </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B56" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>74</v>
+        <v>467</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>468</v>
+        <v>74</v>
       </c>
       <c r="B58" s="33" t="s">
         <v>134</v>
       </c>
       <c r="C58" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="45" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B60" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="C60" s="45" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>481</v>
+        <v>11</v>
       </c>
       <c r="B61" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="44" t="s">
         <v>127</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="44" t="s">
         <v>127</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" s="44" t="s">
         <v>127</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>459</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B66" s="44" t="s">
         <v>127</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>135</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B67" s="44" t="s">
         <v>127</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>460</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B68" s="44" t="s">
         <v>127</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>176</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B69" s="44" t="s">
         <v>127</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>470</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B70" s="44" t="s">
         <v>127</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>177</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B71" s="44" t="s">
         <v>127</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B72" s="44" t="s">
         <v>127</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B73" s="44" t="s">
         <v>127</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B76" s="44" t="s">
         <v>158</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>450</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B80" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="C79" s="43" t="s">
+      <c r="C80" s="43" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="63" t="s">
+    <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="60" t="s">
         <v>484</v>
       </c>
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="61"/>
+      <c r="C81" s="61"/>
       <c r="E81" s="18">
         <v>2</v>
       </c>
@@ -3457,379 +3469,368 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="56" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B84" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="B84" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B86" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="43" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="B87" s="44" t="s">
         <v>463</v>
       </c>
-      <c r="C86" s="43" t="s">
+      <c r="C87" s="43" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B89" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B90" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>461</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B91" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>135</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B92" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B93" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>458</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B95" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>177</v>
+        <v>458</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B96" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B97" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B98" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B101" s="33" t="s">
         <v>158</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>514</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="B105" s="33" t="s">
+      <c r="B106" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C106" s="13" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="19" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="B106" s="33" t="s">
+      <c r="B107" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C107" s="19" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A107" s="63" t="s">
+    <row r="108" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A108" s="60" t="s">
         <v>485</v>
       </c>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="56" t="s">
+      <c r="B108" s="61"/>
+      <c r="C108" s="61"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="56" t="s">
         <v>476</v>
       </c>
-      <c r="B109" s="57"/>
-      <c r="C109" s="57"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B111" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C111" s="12" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>478</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>112</v>
+        <v>475</v>
       </c>
       <c r="B113" s="33" t="s">
         <v>134</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>58</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="B114" s="33" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B115" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="19"/>
-    </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="54" t="s">
+      <c r="A117" s="19"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="19"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="B117" s="55"/>
-      <c r="C117" s="55"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>115</v>
-      </c>
+      <c r="B118" s="51"/>
+      <c r="C118" s="51"/>
       <c r="E118" s="18" t="s">
         <v>319</v>
       </c>
@@ -3838,14 +3839,14 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B119" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>326</v>
+      <c r="A119" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="E119" s="18">
         <v>1</v>
@@ -3856,13 +3857,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="E120" s="18">
         <v>2</v>
@@ -3872,6 +3873,15 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="E121" s="18">
         <v>3</v>
       </c>
@@ -3880,11 +3890,6 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="B122" s="53"/>
-      <c r="C122" s="53"/>
       <c r="E122" s="18">
         <v>4</v>
       </c>
@@ -3893,15 +3898,11 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B123" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>115</v>
-      </c>
+      <c r="A123" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" s="53"/>
+      <c r="C123" s="53"/>
       <c r="E123" s="18">
         <v>5</v>
       </c>
@@ -3910,44 +3911,44 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B124" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>145</v>
+      <c r="A124" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B125" s="33" t="s">
+      <c r="B126" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C126" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="54" t="s">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B127" s="55"/>
-      <c r="C127" s="55"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B128" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>115</v>
-      </c>
+      <c r="B128" s="51"/>
+      <c r="C128" s="51"/>
       <c r="E128" s="18" t="s">
         <v>89</v>
       </c>
@@ -3968,14 +3969,14 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B129" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>170</v>
+      <c r="A129" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B129" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="E129" s="18">
         <v>1001</v>
@@ -3996,13 +3997,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="E130" s="18">
         <v>1002</v>
@@ -4023,13 +4024,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="E131" s="18">
         <v>1003</v>
@@ -4050,13 +4051,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>117</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E132" s="18">
         <v>1004</v>
@@ -4077,13 +4078,13 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E133" s="18">
         <v>1005</v>
@@ -4104,32 +4105,32 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="B135" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C135" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="52" t="s">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="B136" s="53"/>
-      <c r="C136" s="53"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B137" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>115</v>
-      </c>
+      <c r="B137" s="53"/>
+      <c r="C137" s="53"/>
       <c r="E137" s="48" t="s">
         <v>108</v>
       </c>
@@ -4138,14 +4139,14 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="B138" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>147</v>
+      <c r="A138" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="E138" s="18">
         <v>0</v>
@@ -4156,13 +4157,13 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>511</v>
+        <v>147</v>
       </c>
       <c r="E139" s="18">
         <v>1</v>
@@ -4172,6 +4173,15 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>511</v>
+      </c>
       <c r="E140" s="18">
         <v>2</v>
       </c>
@@ -4179,23 +4189,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="52" t="s">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="52" t="s">
         <v>493</v>
       </c>
-      <c r="B141" s="53"/>
-      <c r="C141" s="53"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B142" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>115</v>
-      </c>
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
       <c r="E142" s="47" t="s">
         <v>78</v>
       </c>
@@ -4204,14 +4203,14 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B143" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>153</v>
+      <c r="A143" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B143" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="E143" s="30">
         <v>1</v>
@@ -4222,13 +4221,13 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="E144" s="18">
         <v>2</v>
@@ -4237,23 +4236,23 @@
         <v>332</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="54" t="s">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A147" s="50" t="s">
         <v>516</v>
       </c>
-      <c r="B146" s="55"/>
-      <c r="C146" s="55"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B147" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>115</v>
-      </c>
+      <c r="B147" s="51"/>
+      <c r="C147" s="51"/>
       <c r="E147" s="22" t="s">
         <v>494</v>
       </c>
@@ -4268,14 +4267,14 @@
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="B148" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>496</v>
+      <c r="A148" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="E148" s="27">
         <v>1</v>
@@ -4292,13 +4291,13 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>78</v>
+        <v>497</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>164</v>
+        <v>496</v>
       </c>
       <c r="E149" s="27">
         <v>2</v>
@@ -4315,13 +4314,13 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>494</v>
+        <v>78</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>498</v>
+        <v>164</v>
       </c>
       <c r="E150" s="26">
         <v>3</v>
@@ -4338,13 +4337,13 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>65</v>
+        <v>494</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E151" s="18">
         <v>4</v>
@@ -4360,6 +4359,15 @@
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B152" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>499</v>
+      </c>
       <c r="E152" s="18">
         <v>5</v>
       </c>
@@ -4373,23 +4381,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="56" t="s">
+    <row r="154" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A154" s="56" t="s">
         <v>500</v>
       </c>
-      <c r="B153" s="57"/>
-      <c r="C153" s="57"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B154" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>115</v>
-      </c>
+      <c r="B154" s="57"/>
+      <c r="C154" s="57"/>
       <c r="E154" s="13" t="s">
         <v>501</v>
       </c>
@@ -4416,14 +4413,14 @@
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="B155" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>502</v>
+      <c r="A155" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B155" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="E155" s="32">
         <v>1</v>
@@ -4452,13 +4449,13 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="E156" s="32">
         <v>2</v>
@@ -4487,13 +4484,13 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>8</v>
+        <v>475</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E157" s="32">
         <v>3</v>
@@ -4521,14 +4518,14 @@
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="B158" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>510</v>
+      <c r="A158" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C158" s="43" t="s">
+        <v>491</v>
       </c>
       <c r="E158" s="20">
         <v>4</v>
@@ -4557,13 +4554,13 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>65</v>
+        <v>494</v>
       </c>
       <c r="B159" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>156</v>
+        <v>510</v>
       </c>
       <c r="E159" s="20">
         <v>5</v>
@@ -4592,13 +4589,13 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>508</v>
+        <v>65</v>
       </c>
       <c r="B160" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>505</v>
+        <v>156</v>
       </c>
       <c r="E160" s="20">
         <v>6</v>
@@ -4627,13 +4624,13 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B161" s="33" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E161" s="22">
         <v>7</v>
@@ -4662,13 +4659,13 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E162" s="22">
         <v>8</v>
@@ -4695,87 +4692,98 @@
         <v>66</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="58" t="s">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B163" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="B164" s="51"/>
-      <c r="C164" s="51"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="51"/>
-      <c r="B165" s="51"/>
-      <c r="C165" s="51"/>
+      <c r="B165" s="63"/>
+      <c r="C165" s="63"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="51"/>
-      <c r="B166" s="51"/>
-      <c r="C166" s="51"/>
+      <c r="A166" s="63"/>
+      <c r="B166" s="63"/>
+      <c r="C166" s="63"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="51"/>
-      <c r="B167" s="51"/>
-      <c r="C167" s="51"/>
+      <c r="A167" s="63"/>
+      <c r="B167" s="63"/>
+      <c r="C167" s="63"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="51"/>
-      <c r="B168" s="51"/>
-      <c r="C168" s="51"/>
+      <c r="A168" s="63"/>
+      <c r="B168" s="63"/>
+      <c r="C168" s="63"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="25"/>
-      <c r="B169" s="39"/>
+      <c r="A169" s="63"/>
+      <c r="B169" s="63"/>
+      <c r="C169" s="63"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="50" t="s">
+      <c r="A170" s="25"/>
+      <c r="B170" s="39"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="B170" s="51"/>
-      <c r="C170" s="51"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="51"/>
-      <c r="B171" s="51"/>
-      <c r="C171" s="51"/>
+      <c r="B171" s="63"/>
+      <c r="C171" s="63"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="51"/>
-      <c r="B172" s="51"/>
-      <c r="C172" s="51"/>
+      <c r="A172" s="63"/>
+      <c r="B172" s="63"/>
+      <c r="C172" s="63"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="51"/>
-      <c r="B173" s="51"/>
-      <c r="C173" s="51"/>
+      <c r="A173" s="63"/>
+      <c r="B173" s="63"/>
+      <c r="C173" s="63"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="51"/>
-      <c r="B174" s="51"/>
-      <c r="C174" s="51"/>
+      <c r="A174" s="63"/>
+      <c r="B174" s="63"/>
+      <c r="C174" s="63"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="63"/>
+      <c r="B175" s="63"/>
+      <c r="C175" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A171:C175"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A165:C169"/>
+    <mergeCell ref="A128:C128"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A170:C174"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A164:C168"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A108:C108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_xampp\htdocs\ipc\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\ipc\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04698315-F013-4594-975C-ABF379D1ED2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16092" windowHeight="10512"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dict" sheetId="4" r:id="rId1"/>
@@ -20,10 +21,19 @@
     <sheet name="คำขอ Script" sheetId="12" r:id="rId6"/>
     <sheet name="json example" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1803,12 +1813,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1944,13 +1954,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2086,7 +2096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2103,9 +2113,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2134,7 +2141,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2191,7 +2198,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2223,11 +2230,11 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2235,16 +2242,25 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2258,15 +2274,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2556,2219 +2563,2213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="10"/>
-    <col min="5" max="5" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="34.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="9"/>
+    <col min="5" max="5" width="16.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="51" t="s">
         <v>486</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>0</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>1</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="18">
+    <row r="20" spans="1:6">
+      <c r="E20" s="17">
         <v>2</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="18">
+    <row r="21" spans="1:6">
+      <c r="E21" s="17">
         <v>3</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <v>0</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <v>1</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:12">
+      <c r="A33" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:12">
+      <c r="A35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:12">
+      <c r="A36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:12">
+      <c r="A37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:12" ht="38.25">
+      <c r="A38" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:12" ht="38.25">
+      <c r="A39" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>869161</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:12">
+      <c r="A40" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <f>E39*7/107</f>
         <v>56861</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:12">
+      <c r="A41" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <f>E39-E40</f>
         <v>812300</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:12">
+      <c r="A42" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:12">
+      <c r="A43" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+    <row r="52" spans="1:3" ht="25.5">
+      <c r="A52" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
+    <row r="53" spans="1:3" ht="14.25">
+      <c r="A53" s="60" t="s">
         <v>483</v>
       </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="56" t="s">
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="55" t="s">
         <v>451</v>
       </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="45" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="44" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="42" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="42" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="43" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="42" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="43" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="42" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="42" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="43" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="42" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="C70" s="42" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="42" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="43" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="42" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="43" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="42" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="43" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="43" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B75" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="42" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B77" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="42" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="43" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="44" t="s">
+      <c r="B78" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="C78" s="42" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="43" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="43" t="s">
+      <c r="C79" s="42" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="43" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="43" t="s">
+      <c r="C80" s="42" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="60" t="s">
+    <row r="81" spans="1:6" ht="14.25">
+      <c r="A81" s="62" t="s">
         <v>484</v>
       </c>
-      <c r="B81" s="61"/>
-      <c r="C81" s="61"/>
-      <c r="E81" s="18">
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
+      <c r="E81" s="17">
         <v>2</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="17" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="56" t="s">
+    <row r="83" spans="1:6">
+      <c r="A83" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+    <row r="85" spans="1:6">
+      <c r="A85" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B85" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+    <row r="86" spans="1:6">
+      <c r="A86" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="32" t="s">
         <v>463</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="43" t="s">
+    <row r="87" spans="1:6">
+      <c r="A87" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B87" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="C87" s="43" t="s">
+      <c r="C87" s="42" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+    <row r="88" spans="1:6">
+      <c r="A88" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+    <row r="89" spans="1:6">
+      <c r="A89" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+    <row r="90" spans="1:6">
+      <c r="A90" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B90" s="33" t="s">
+      <c r="B90" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
+    <row r="91" spans="1:6">
+      <c r="A91" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="12" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+    <row r="92" spans="1:6">
+      <c r="A92" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+    <row r="93" spans="1:6">
+      <c r="A93" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
+    <row r="94" spans="1:6">
+      <c r="A94" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
+    <row r="95" spans="1:6">
+      <c r="A95" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="12" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+    <row r="96" spans="1:6">
+      <c r="A96" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B100" s="33" t="s">
+      <c r="B100" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B101" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B104" s="33" t="s">
+      <c r="B104" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="33" t="s">
+      <c r="B105" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="12" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="B106" s="33" t="s">
+      <c r="B106" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="12" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="B107" s="33" t="s">
+      <c r="B107" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="18" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A108" s="60" t="s">
+    <row r="108" spans="1:3" ht="14.25">
+      <c r="A108" s="62" t="s">
         <v>485</v>
       </c>
-      <c r="B108" s="61"/>
-      <c r="C108" s="61"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="56" t="s">
+      <c r="B108" s="63"/>
+      <c r="C108" s="63"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="55" t="s">
         <v>476</v>
       </c>
-      <c r="B110" s="57"/>
-      <c r="C110" s="57"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+      <c r="B110" s="56"/>
+      <c r="C110" s="56"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="B112" s="33" t="s">
+      <c r="B112" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
+    <row r="113" spans="1:10">
+      <c r="A113" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="12" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
+    <row r="114" spans="1:10">
+      <c r="A114" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
+    <row r="115" spans="1:10">
+      <c r="A115" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B115" s="33" t="s">
+      <c r="B115" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
+    <row r="116" spans="1:10">
+      <c r="A116" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="33" t="s">
+      <c r="B116" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="19"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="50" t="s">
+    <row r="117" spans="1:10">
+      <c r="A117" s="18"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="18"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="B118" s="51"/>
-      <c r="C118" s="51"/>
-      <c r="E118" s="18" t="s">
+      <c r="B118" s="54"/>
+      <c r="C118" s="54"/>
+      <c r="E118" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="F118" s="18" t="s">
+      <c r="F118" s="17" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+    <row r="119" spans="1:10">
+      <c r="A119" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E119" s="17">
         <v>1</v>
       </c>
-      <c r="F119" s="18" t="s">
+      <c r="F119" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
+    <row r="120" spans="1:10">
+      <c r="A120" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B120" s="33" t="s">
+      <c r="B120" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E120" s="18">
+      <c r="E120" s="17">
         <v>2</v>
       </c>
-      <c r="F120" s="13" t="s">
+      <c r="F120" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
+    <row r="121" spans="1:10">
+      <c r="A121" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="B121" s="33" t="s">
+      <c r="B121" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E121" s="17">
         <v>3</v>
       </c>
-      <c r="F121" s="13" t="s">
+      <c r="F121" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E122" s="18">
+    <row r="122" spans="1:10">
+      <c r="E122" s="17">
         <v>4</v>
       </c>
-      <c r="F122" s="13" t="s">
+      <c r="F122" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="52" t="s">
+    <row r="123" spans="1:10">
+      <c r="A123" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="B123" s="53"/>
-      <c r="C123" s="53"/>
-      <c r="E123" s="18">
+      <c r="B123" s="52"/>
+      <c r="C123" s="52"/>
+      <c r="E123" s="17">
         <v>5</v>
       </c>
-      <c r="F123" s="18" t="s">
+      <c r="F123" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
+    <row r="124" spans="1:10">
+      <c r="A124" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
+    <row r="125" spans="1:10">
+      <c r="A125" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B125" s="33" t="s">
+      <c r="B125" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C125" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
+    <row r="126" spans="1:10">
+      <c r="A126" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B126" s="33" t="s">
+      <c r="B126" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="50" t="s">
+    <row r="128" spans="1:10">
+      <c r="A128" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="B128" s="51"/>
-      <c r="C128" s="51"/>
-      <c r="E128" s="18" t="s">
+      <c r="B128" s="54"/>
+      <c r="C128" s="54"/>
+      <c r="E128" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="18" t="s">
+      <c r="F128" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G128" s="18" t="s">
+      <c r="G128" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H128" s="18" t="s">
+      <c r="H128" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I128" s="18" t="s">
+      <c r="I128" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J128" s="18" t="s">
+      <c r="J128" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="12" t="s">
+    <row r="129" spans="1:10">
+      <c r="A129" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E129" s="18">
+      <c r="E129" s="17">
         <v>1001</v>
       </c>
-      <c r="F129" s="18" t="s">
+      <c r="F129" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G129" s="18" t="s">
+      <c r="G129" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H129" s="18" t="s">
+      <c r="H129" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I129" s="18">
+      <c r="I129" s="17">
         <v>1</v>
       </c>
-      <c r="J129" s="18"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
+      <c r="J129" s="17"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B130" s="33" t="s">
+      <c r="B130" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E130" s="18">
+      <c r="E130" s="17">
         <v>1002</v>
       </c>
-      <c r="F130" s="18" t="s">
+      <c r="F130" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G130" s="18" t="s">
+      <c r="G130" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H130" s="18" t="s">
+      <c r="H130" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="I130" s="13">
+      <c r="I130" s="12">
         <v>2</v>
       </c>
-      <c r="J130" s="18"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
+      <c r="J130" s="17"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B131" s="33" t="s">
+      <c r="B131" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E131" s="18">
+      <c r="E131" s="17">
         <v>1003</v>
       </c>
-      <c r="F131" s="18" t="s">
+      <c r="F131" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G131" s="18" t="s">
+      <c r="G131" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H131" s="18" t="s">
+      <c r="H131" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="I131" s="13">
+      <c r="I131" s="12">
         <v>3</v>
       </c>
-      <c r="J131" s="18"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
+      <c r="J131" s="17"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B132" s="33" t="s">
+      <c r="B132" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="E132" s="18">
+      <c r="E132" s="17">
         <v>1004</v>
       </c>
-      <c r="F132" s="18" t="s">
+      <c r="F132" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G132" s="18" t="s">
+      <c r="G132" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H132" s="18" t="s">
+      <c r="H132" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I132" s="13">
+      <c r="I132" s="12">
         <v>4</v>
       </c>
-      <c r="J132" s="18"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
+      <c r="J132" s="17"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E133" s="18">
+      <c r="E133" s="17">
         <v>1005</v>
       </c>
-      <c r="F133" s="18" t="s">
+      <c r="F133" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G133" s="18" t="s">
+      <c r="G133" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H133" s="18" t="s">
+      <c r="H133" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I133" s="18">
+      <c r="I133" s="17">
         <v>5</v>
       </c>
-      <c r="J133" s="18"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
+      <c r="J133" s="17"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="B134" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
+    <row r="135" spans="1:10">
+      <c r="A135" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B135" s="33" t="s">
+      <c r="B135" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="52" t="s">
+    <row r="137" spans="1:10">
+      <c r="A137" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="B137" s="53"/>
-      <c r="C137" s="53"/>
-      <c r="E137" s="48" t="s">
+      <c r="B137" s="52"/>
+      <c r="C137" s="52"/>
+      <c r="E137" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="F137" s="17" t="s">
+      <c r="F137" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:10">
+      <c r="A138" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C138" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="17">
         <v>0</v>
       </c>
-      <c r="F138" s="18" t="s">
+      <c r="F138" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
+    <row r="139" spans="1:10">
+      <c r="A139" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="B139" s="33" t="s">
+      <c r="B139" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="17">
         <v>1</v>
       </c>
-      <c r="F139" s="18" t="s">
+      <c r="F139" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
+    <row r="140" spans="1:10">
+      <c r="A140" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="B140" s="33" t="s">
+      <c r="B140" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="17">
         <v>2</v>
       </c>
-      <c r="F140" s="18" t="s">
+      <c r="F140" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="52" t="s">
+    <row r="142" spans="1:10">
+      <c r="A142" s="51" t="s">
         <v>493</v>
       </c>
-      <c r="B142" s="53"/>
-      <c r="C142" s="53"/>
-      <c r="E142" s="47" t="s">
+      <c r="B142" s="52"/>
+      <c r="C142" s="52"/>
+      <c r="E142" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F142" s="17" t="s">
+      <c r="F142" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
+    <row r="143" spans="1:10">
+      <c r="A143" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C143" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E143" s="30">
+      <c r="E143" s="29">
         <v>1</v>
       </c>
-      <c r="F143" s="31" t="s">
+      <c r="F143" s="30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
+    <row r="144" spans="1:10">
+      <c r="A144" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B144" s="33" t="s">
+      <c r="B144" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E144" s="18">
+      <c r="E144" s="17">
         <v>2</v>
       </c>
-      <c r="F144" s="18" t="s">
+      <c r="F144" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
+    <row r="145" spans="1:12">
+      <c r="A145" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B145" s="33" t="s">
+      <c r="B145" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A147" s="50" t="s">
+    <row r="147" spans="1:12" ht="25.5">
+      <c r="A147" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="B147" s="51"/>
-      <c r="C147" s="51"/>
-      <c r="E147" s="22" t="s">
+      <c r="B147" s="54"/>
+      <c r="C147" s="54"/>
+      <c r="E147" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="F147" s="47" t="s">
+      <c r="F147" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="G147" s="13" t="s">
+      <c r="G147" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="H147" s="13" t="s">
+      <c r="H147" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
+    <row r="148" spans="1:12">
+      <c r="A148" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E148" s="27">
+      <c r="E148" s="26">
         <v>1</v>
       </c>
-      <c r="F148" s="30">
+      <c r="F148" s="29">
         <v>1</v>
       </c>
-      <c r="G148" s="28">
+      <c r="G148" s="27">
         <v>1</v>
       </c>
-      <c r="H148" s="28">
+      <c r="H148" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
+    <row r="149" spans="1:12">
+      <c r="A149" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="C149" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="E149" s="27">
+      <c r="E149" s="26">
         <v>2</v>
       </c>
-      <c r="F149" s="30">
+      <c r="F149" s="29">
         <v>1</v>
       </c>
-      <c r="G149" s="28">
+      <c r="G149" s="27">
         <v>2</v>
       </c>
-      <c r="H149" s="28">
+      <c r="H149" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
+    <row r="150" spans="1:12">
+      <c r="A150" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B150" s="33" t="s">
+      <c r="B150" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E150" s="26">
+      <c r="E150" s="25">
         <v>3</v>
       </c>
-      <c r="F150" s="30">
+      <c r="F150" s="29">
         <v>1</v>
       </c>
-      <c r="G150" s="29">
+      <c r="G150" s="28">
         <v>3</v>
       </c>
-      <c r="H150" s="28">
+      <c r="H150" s="27">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="13" t="s">
+    <row r="151" spans="1:12">
+      <c r="A151" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="B151" s="33" t="s">
+      <c r="B151" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C151" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="E151" s="18">
+      <c r="E151" s="17">
         <v>4</v>
       </c>
-      <c r="F151" s="18">
+      <c r="F151" s="17">
         <v>2</v>
       </c>
-      <c r="G151" s="18">
+      <c r="G151" s="17">
         <v>1</v>
       </c>
-      <c r="H151" s="13">
+      <c r="H151" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
+    <row r="152" spans="1:12">
+      <c r="A152" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B152" s="33" t="s">
+      <c r="B152" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="E152" s="18">
+      <c r="E152" s="17">
         <v>5</v>
       </c>
-      <c r="F152" s="18">
+      <c r="F152" s="17">
         <v>2</v>
       </c>
-      <c r="G152" s="18">
+      <c r="G152" s="17">
         <v>2</v>
       </c>
-      <c r="H152" s="18">
+      <c r="H152" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A154" s="56" t="s">
+    <row r="154" spans="1:12" ht="25.5">
+      <c r="A154" s="55" t="s">
         <v>500</v>
       </c>
-      <c r="B154" s="57"/>
-      <c r="C154" s="57"/>
-      <c r="E154" s="13" t="s">
+      <c r="B154" s="56"/>
+      <c r="C154" s="56"/>
+      <c r="E154" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="F154" s="13" t="s">
+      <c r="F154" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="G154" s="13" t="s">
+      <c r="G154" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H154" s="22" t="s">
+      <c r="H154" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="I154" s="13" t="s">
+      <c r="I154" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J154" s="49" t="s">
+      <c r="J154" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="K154" s="13" t="s">
+      <c r="K154" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L154" s="13" t="s">
+      <c r="L154" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
+    <row r="155" spans="1:12">
+      <c r="A155" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B155" s="34" t="s">
+      <c r="B155" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E155" s="32">
+      <c r="E155" s="31">
         <v>1</v>
       </c>
-      <c r="F155" s="32">
+      <c r="F155" s="31">
         <v>1</v>
       </c>
-      <c r="G155" s="32">
+      <c r="G155" s="31">
         <v>1</v>
       </c>
-      <c r="H155" s="27">
+      <c r="H155" s="26">
         <v>1</v>
       </c>
-      <c r="I155" s="32">
+      <c r="I155" s="31">
         <v>1002</v>
       </c>
-      <c r="J155" s="32" t="s">
+      <c r="J155" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="K155" s="32" t="s">
+      <c r="K155" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="L155" s="32" t="s">
+      <c r="L155" s="31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
+    <row r="156" spans="1:12">
+      <c r="A156" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="B156" s="33" t="s">
+      <c r="B156" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="E156" s="32">
+      <c r="E156" s="31">
         <v>2</v>
       </c>
-      <c r="F156" s="32">
+      <c r="F156" s="31">
         <v>1</v>
       </c>
-      <c r="G156" s="32">
+      <c r="G156" s="31">
         <v>1</v>
       </c>
-      <c r="H156" s="27">
+      <c r="H156" s="26">
         <v>2</v>
       </c>
-      <c r="I156" s="32">
+      <c r="I156" s="31">
         <v>1003</v>
       </c>
-      <c r="J156" s="32" t="s">
+      <c r="J156" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="K156" s="32" t="s">
+      <c r="K156" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="L156" s="32" t="s">
+      <c r="L156" s="31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
+    <row r="157" spans="1:12">
+      <c r="A157" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="B157" s="33" t="s">
+      <c r="B157" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C157" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="E157" s="32">
+      <c r="E157" s="31">
         <v>3</v>
       </c>
-      <c r="F157" s="32">
+      <c r="F157" s="31">
         <v>1</v>
       </c>
-      <c r="G157" s="32">
+      <c r="G157" s="31">
         <v>1</v>
       </c>
-      <c r="H157" s="27">
+      <c r="H157" s="26">
         <v>3</v>
       </c>
-      <c r="I157" s="32">
+      <c r="I157" s="31">
         <v>1004</v>
       </c>
-      <c r="J157" s="32" t="s">
+      <c r="J157" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="K157" s="32" t="s">
+      <c r="K157" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="L157" s="32" t="s">
+      <c r="L157" s="31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="43" t="s">
+    <row r="158" spans="1:12">
+      <c r="A158" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B158" s="44" t="s">
+      <c r="B158" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C158" s="43" t="s">
+      <c r="C158" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="E158" s="20">
+      <c r="E158" s="19">
         <v>4</v>
       </c>
-      <c r="F158" s="20">
+      <c r="F158" s="19">
         <v>1</v>
       </c>
-      <c r="G158" s="20">
+      <c r="G158" s="19">
         <v>2</v>
       </c>
-      <c r="H158" s="20">
+      <c r="H158" s="19">
         <v>1</v>
       </c>
-      <c r="I158" s="20">
+      <c r="I158" s="19">
         <v>1002</v>
       </c>
-      <c r="J158" s="20" t="s">
+      <c r="J158" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K158" s="21">
+      <c r="K158" s="20">
         <v>45500.625</v>
       </c>
-      <c r="L158" s="20" t="s">
+      <c r="L158" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="13" t="s">
+    <row r="159" spans="1:12">
+      <c r="A159" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="B159" s="33" t="s">
+      <c r="B159" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="C159" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="E159" s="20">
+      <c r="E159" s="19">
         <v>5</v>
       </c>
-      <c r="F159" s="20">
+      <c r="F159" s="19">
         <v>1</v>
       </c>
-      <c r="G159" s="20">
+      <c r="G159" s="19">
         <v>2</v>
       </c>
-      <c r="H159" s="20">
+      <c r="H159" s="19">
         <v>2</v>
       </c>
-      <c r="I159" s="20">
+      <c r="I159" s="19">
         <v>1003</v>
       </c>
-      <c r="J159" s="20" t="s">
+      <c r="J159" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K159" s="21">
+      <c r="K159" s="20">
         <v>45500.645833333336</v>
       </c>
-      <c r="L159" s="20" t="s">
+      <c r="L159" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="13" t="s">
+    <row r="160" spans="1:12">
+      <c r="A160" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B160" s="33" t="s">
+      <c r="B160" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E160" s="20">
+      <c r="E160" s="19">
         <v>6</v>
       </c>
-      <c r="F160" s="20">
+      <c r="F160" s="19">
         <v>1</v>
       </c>
-      <c r="G160" s="20">
+      <c r="G160" s="19">
         <v>2</v>
       </c>
-      <c r="H160" s="20">
+      <c r="H160" s="19">
         <v>3</v>
       </c>
-      <c r="I160" s="20">
+      <c r="I160" s="19">
         <v>1004</v>
       </c>
-      <c r="J160" s="20" t="s">
+      <c r="J160" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K160" s="20" t="s">
+      <c r="K160" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="L160" s="20" t="s">
+      <c r="L160" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="13" t="s">
+    <row r="161" spans="1:12">
+      <c r="A161" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="B161" s="33" t="s">
+      <c r="B161" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C161" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="E161" s="22">
+      <c r="E161" s="21">
         <v>7</v>
       </c>
-      <c r="F161" s="22">
+      <c r="F161" s="21">
         <v>2</v>
       </c>
-      <c r="G161" s="22">
+      <c r="G161" s="21">
         <v>1</v>
       </c>
-      <c r="H161" s="23">
+      <c r="H161" s="22">
         <v>4</v>
       </c>
-      <c r="I161" s="23">
+      <c r="I161" s="22">
         <v>1004</v>
       </c>
-      <c r="J161" s="22" t="s">
+      <c r="J161" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K161" s="24">
+      <c r="K161" s="23">
         <v>45500.625</v>
       </c>
-      <c r="L161" s="22" t="s">
+      <c r="L161" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="13" t="s">
+    <row r="162" spans="1:12">
+      <c r="A162" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="B162" s="33" t="s">
+      <c r="B162" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="E162" s="22">
+      <c r="E162" s="21">
         <v>8</v>
       </c>
-      <c r="F162" s="22">
+      <c r="F162" s="21">
         <v>2</v>
       </c>
-      <c r="G162" s="22">
+      <c r="G162" s="21">
         <v>1</v>
       </c>
-      <c r="H162" s="23">
+      <c r="H162" s="22">
         <v>5</v>
       </c>
-      <c r="I162" s="23">
+      <c r="I162" s="22">
         <v>1005</v>
       </c>
-      <c r="J162" s="22" t="s">
+      <c r="J162" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="K162" s="22" t="s">
+      <c r="K162" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="L162" s="22" t="s">
+      <c r="L162" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="13" t="s">
+    <row r="163" spans="1:12">
+      <c r="A163" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="B163" s="33" t="s">
+      <c r="B163" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="12" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="64" t="s">
+    <row r="165" spans="1:12">
+      <c r="A165" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="B165" s="63"/>
-      <c r="C165" s="63"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="63"/>
-      <c r="B166" s="63"/>
-      <c r="C166" s="63"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="63"/>
-      <c r="B167" s="63"/>
-      <c r="C167" s="63"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="63"/>
-      <c r="B168" s="63"/>
-      <c r="C168" s="63"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="63"/>
-      <c r="B169" s="63"/>
-      <c r="C169" s="63"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="25"/>
-      <c r="B170" s="39"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="62" t="s">
+      <c r="B165" s="50"/>
+      <c r="C165" s="50"/>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="50"/>
+      <c r="B166" s="50"/>
+      <c r="C166" s="50"/>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="50"/>
+      <c r="B167" s="50"/>
+      <c r="C167" s="50"/>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="50"/>
+      <c r="B168" s="50"/>
+      <c r="C168" s="50"/>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="50"/>
+      <c r="B169" s="50"/>
+      <c r="C169" s="50"/>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="24"/>
+      <c r="B170" s="38"/>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="B171" s="63"/>
-      <c r="C171" s="63"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="63"/>
-      <c r="B172" s="63"/>
-      <c r="C172" s="63"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="63"/>
-      <c r="B173" s="63"/>
-      <c r="C173" s="63"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="63"/>
-      <c r="B174" s="63"/>
-      <c r="C174" s="63"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="63"/>
-      <c r="B175" s="63"/>
-      <c r="C175" s="63"/>
+      <c r="B171" s="50"/>
+      <c r="C171" s="50"/>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="50"/>
+      <c r="B172" s="50"/>
+      <c r="C172" s="50"/>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="50"/>
+      <c r="B173" s="50"/>
+      <c r="C173" s="50"/>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="50"/>
+      <c r="B174" s="50"/>
+      <c r="C174" s="50"/>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="50"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A171:C175"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A165:C169"/>
     <mergeCell ref="A128:C128"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
@@ -4784,6 +4785,12 @@
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A171:C175"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A165:C169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4791,119 +4798,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="41"/>
+    <col min="1" max="1" width="35.375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="41" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="41" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="40" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="40" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="40" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="40" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="40" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="40" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="40" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="40" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="40" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="40" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="40" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4914,733 +4921,733 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="179" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="18">
       <c r="A2" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="18">
       <c r="A3" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="18">
       <c r="A4" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="18">
       <c r="A5" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="18">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="18">
       <c r="A7" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="18">
       <c r="A8" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="18">
       <c r="A9" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="18">
       <c r="A10" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="18">
       <c r="A11" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="18">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="18">
       <c r="A13" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="18">
       <c r="A14" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="18">
       <c r="A15" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="18">
       <c r="A16" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="18">
       <c r="A17" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="18">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="18">
       <c r="A19" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="18">
       <c r="A20" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="18">
       <c r="A21" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="18">
       <c r="A22" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="18">
       <c r="A23" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="18">
       <c r="A24" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="18">
       <c r="A25" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="18">
       <c r="A26" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="18">
       <c r="A27" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="18">
       <c r="A28" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="18">
       <c r="A29" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="18">
       <c r="A30" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="18">
       <c r="A31" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="18">
       <c r="A32" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="18">
       <c r="A33" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="18">
       <c r="A34" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="18">
       <c r="A35" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="18">
       <c r="A36" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="18">
       <c r="A37" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="18">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="18">
       <c r="A39" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="18">
       <c r="A40" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="18">
       <c r="A41" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" ht="18">
       <c r="A42" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="18">
       <c r="A43" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="18">
       <c r="A44" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="18">
       <c r="A45" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="18">
       <c r="A46" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="18">
       <c r="A47" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="18">
       <c r="A48" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="18">
       <c r="A49" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="18">
       <c r="A50" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="18">
       <c r="A51" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="18">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="18">
       <c r="A53" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="18">
       <c r="A54" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="18">
       <c r="A55" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="18">
       <c r="A56" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="18">
       <c r="A57" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="18">
       <c r="A58" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="18">
       <c r="A59" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="18">
       <c r="A60" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" ht="18">
       <c r="A61" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="18">
       <c r="A62" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="18">
       <c r="A63" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="18">
       <c r="A64" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" ht="18">
       <c r="A65" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="18">
       <c r="A66" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" ht="18">
       <c r="A67" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="18">
       <c r="A68" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" ht="18">
       <c r="A69" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="18">
       <c r="A70" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="18">
       <c r="A71" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" ht="18">
       <c r="A72" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" ht="18">
       <c r="A73" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="18">
       <c r="A74" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="18">
       <c r="A75" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="18">
       <c r="A76" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="18">
       <c r="A77" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="18">
       <c r="A78" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="18">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="18">
       <c r="A80" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="18">
       <c r="A81" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" ht="18">
       <c r="A82" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="18">
       <c r="A83" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="18">
       <c r="A84" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="18">
       <c r="A85" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="18">
       <c r="A86" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="18">
       <c r="A87" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="18">
       <c r="A88" s="3"/>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="18">
       <c r="A89" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="18">
       <c r="A90" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" ht="18">
       <c r="A91" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" ht="18">
       <c r="A92" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="18">
       <c r="A93" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" ht="18">
       <c r="A94" s="3"/>
     </row>
-    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" ht="18">
       <c r="A95" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" ht="18">
       <c r="A96" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="18">
       <c r="A97" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" ht="18">
       <c r="A98" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" ht="18">
       <c r="A99" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="18">
       <c r="A100" s="3"/>
     </row>
-    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" ht="18">
       <c r="A101" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" ht="18">
       <c r="A102" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" ht="18">
       <c r="A103" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" ht="18">
       <c r="A104" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" ht="18">
       <c r="A105" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" ht="18">
       <c r="A106" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" ht="18">
       <c r="A107" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" ht="18">
       <c r="A108" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" ht="18">
       <c r="A109" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" ht="18">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" ht="18">
       <c r="A111" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" ht="18">
       <c r="A112" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" ht="18">
       <c r="A113" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" ht="18">
       <c r="A114" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" ht="18">
       <c r="A115" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" ht="18">
       <c r="A116" s="3"/>
     </row>
-    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" ht="18">
       <c r="A117" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" ht="18">
       <c r="A118" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" ht="18">
       <c r="A119" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" ht="18">
       <c r="A120" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" ht="18">
       <c r="A121" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" ht="18">
       <c r="A122" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" ht="18">
       <c r="A123" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" ht="18">
       <c r="A124" s="3"/>
     </row>
-    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" ht="18">
       <c r="A125" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" ht="18">
       <c r="A126" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" ht="18">
       <c r="A127" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" ht="18">
       <c r="A128" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" ht="18">
       <c r="A129" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" ht="18">
       <c r="A130" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" ht="18">
       <c r="A131" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" ht="18">
       <c r="A132" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" ht="18">
       <c r="A133" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" ht="18">
       <c r="A134" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" ht="18">
       <c r="A135" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" ht="18">
       <c r="A136" s="3"/>
     </row>
-    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" ht="18">
       <c r="A137" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" ht="18">
       <c r="A138" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" ht="18">
       <c r="A139" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" ht="18">
       <c r="A140" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" ht="18">
       <c r="A141" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" ht="18">
       <c r="A142" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" ht="18">
       <c r="A143" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" ht="18">
       <c r="A144" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" ht="18">
       <c r="A145" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" ht="18">
       <c r="A146" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" ht="18">
       <c r="A147" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" ht="18">
       <c r="A148" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" ht="18">
       <c r="A149" s="3" t="s">
         <v>300</v>
       </c>
@@ -5651,780 +5658,780 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="8" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="8" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="8" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="8" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="8" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="8" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="8" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="8" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="8" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="8" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="8" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" s="8" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="8" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="8" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="8" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" s="8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="8" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="8" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="8" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="9" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" s="8" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="9" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="9" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="9" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" s="8" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="9" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" s="8" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="9" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" s="8" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="9" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="9" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" s="8" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="9" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" s="8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="9" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="9" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" s="8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="9" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="9" t="s">
+    <row r="116" spans="1:1">
+      <c r="A116" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="9" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" s="8" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="9" t="s">
+    <row r="118" spans="1:1">
+      <c r="A118" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" s="8" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="9" t="s">
+    <row r="121" spans="1:1">
+      <c r="A121" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="9" t="s">
+    <row r="122" spans="1:1">
+      <c r="A122" s="8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="9" t="s">
+    <row r="123" spans="1:1">
+      <c r="A123" s="8" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="9" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="8" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="9" t="s">
+    <row r="125" spans="1:1">
+      <c r="A125" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="8" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="9" t="s">
+    <row r="127" spans="1:1">
+      <c r="A127" s="8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="9" t="s">
+    <row r="128" spans="1:1">
+      <c r="A128" s="8" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="9" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="8" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="9" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="9" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="8" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="9" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="9" t="s">
+    <row r="134" spans="1:1">
+      <c r="A134" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="9" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" s="8" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="9" t="s">
+    <row r="136" spans="1:1">
+      <c r="A136" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="9" t="s">
+    <row r="138" spans="1:1">
+      <c r="A138" s="8" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="9" t="s">
+    <row r="139" spans="1:1">
+      <c r="A139" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="9" t="s">
+    <row r="140" spans="1:1">
+      <c r="A140" s="8" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="9" t="s">
+    <row r="141" spans="1:1">
+      <c r="A141" s="8" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="9" t="s">
+    <row r="142" spans="1:1">
+      <c r="A142" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="9" t="s">
+    <row r="144" spans="1:1">
+      <c r="A144" s="8" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="9" t="s">
+    <row r="145" spans="1:1">
+      <c r="A145" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="9" t="s">
+    <row r="146" spans="1:1">
+      <c r="A146" s="8" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="9" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" s="8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="9" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="9" t="s">
+    <row r="149" spans="1:1">
+      <c r="A149" s="8" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="9" t="s">
+    <row r="150" spans="1:1">
+      <c r="A150" s="8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="9" t="s">
+    <row r="151" spans="1:1">
+      <c r="A151" s="8" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="9" t="s">
+    <row r="152" spans="1:1">
+      <c r="A152" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="9" t="s">
+    <row r="154" spans="1:1">
+      <c r="A154" s="8" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="9" t="s">
+    <row r="155" spans="1:1">
+      <c r="A155" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="9" t="s">
+    <row r="156" spans="1:1">
+      <c r="A156" s="8" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="9" t="s">
+    <row r="157" spans="1:1">
+      <c r="A157" s="8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="9" t="s">
+    <row r="158" spans="1:1">
+      <c r="A158" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="9" t="s">
+    <row r="159" spans="1:1">
+      <c r="A159" s="8" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="9" t="s">
+    <row r="160" spans="1:1">
+      <c r="A160" s="8" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="9" t="s">
+    <row r="161" spans="1:1">
+      <c r="A161" s="8" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="9" t="s">
+    <row r="162" spans="1:1">
+      <c r="A162" s="8" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="9" t="s">
+    <row r="163" spans="1:1">
+      <c r="A163" s="8" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="9" t="s">
+    <row r="164" spans="1:1">
+      <c r="A164" s="8" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="9" t="s">
+    <row r="165" spans="1:1">
+      <c r="A165" s="8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="9" t="s">
+    <row r="166" spans="1:1">
+      <c r="A166" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="9" t="s">
+    <row r="167" spans="1:1">
+      <c r="A167" s="8" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="9" t="s">
+    <row r="168" spans="1:1">
+      <c r="A168" s="8" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6434,669 +6441,669 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="58.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="18">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="18">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="18">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="18">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="18">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="18">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="18">
       <c r="A8" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="18">
       <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="18">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="18">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="18">
       <c r="A12" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="18">
       <c r="A13" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="18">
       <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="18">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="18">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="18">
       <c r="A17" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="18">
       <c r="A18" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="18">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="18">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="18">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="18">
       <c r="A22" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="18">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="18">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="18">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="18">
       <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="18">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="18">
       <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="18">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="18">
       <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="18">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="18">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="18">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="18">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="18">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="18">
       <c r="A36" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="18">
       <c r="A37" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="18">
       <c r="A38" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="18">
       <c r="A39" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="18">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="18">
       <c r="A41" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" ht="18">
       <c r="A42" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="18">
       <c r="A43" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="18">
       <c r="A44" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="18">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="18">
       <c r="A46" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="18">
       <c r="A47" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="18">
       <c r="A48" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="18">
       <c r="A49" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="18">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="18">
       <c r="A51" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="18">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="18">
       <c r="A53" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="18">
       <c r="A54" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="18">
       <c r="A55" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="18">
       <c r="A56" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="18">
       <c r="A57" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="18">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="18">
       <c r="A59" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="18">
       <c r="A60" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" ht="18">
       <c r="A61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="18">
       <c r="A62" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="18">
       <c r="A63" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="18">
       <c r="A64" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" ht="18">
       <c r="A65" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="18">
       <c r="A66" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" ht="18">
       <c r="A67" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="18">
       <c r="A68" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" ht="18">
       <c r="A69" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="18">
       <c r="A70" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="18">
       <c r="A71" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" ht="18">
       <c r="A72" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" ht="18">
       <c r="A73" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="18">
       <c r="A74" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="18">
       <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="18">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="18">
       <c r="A77" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="18">
       <c r="A78" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="18">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="18">
       <c r="A80" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="18">
       <c r="A81" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" ht="18">
       <c r="A82" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="18">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="18">
       <c r="A84" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="18">
       <c r="A85" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="18">
       <c r="A86" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="18">
       <c r="A87" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="18">
       <c r="A88" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="18">
       <c r="A89" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="18">
       <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A91" s="8"/>
-    </row>
-    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" ht="18">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" ht="18">
       <c r="A92" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="18">
       <c r="A93" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" ht="18">
       <c r="A94" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" ht="18">
       <c r="A95" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" ht="18">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="18">
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" ht="18">
       <c r="A98" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" ht="18">
       <c r="A99" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="18">
       <c r="A100" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" ht="18">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" ht="18">
       <c r="A102" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" ht="18">
       <c r="A103" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" ht="18">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" ht="18">
       <c r="A105" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" ht="18">
       <c r="A106" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" ht="18">
       <c r="A107" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" ht="18">
       <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" ht="18">
       <c r="A109" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" ht="18">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" ht="18">
       <c r="A111" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" ht="18">
       <c r="A112" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" ht="18">
       <c r="A113" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" ht="18">
       <c r="A114" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" ht="18">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" ht="18">
       <c r="A116" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" ht="18">
       <c r="A117" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" ht="18">
       <c r="A118" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" ht="18">
       <c r="A119" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" ht="18">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" ht="18">
       <c r="A121" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" ht="18">
       <c r="A122" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" ht="18">
       <c r="A123" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" ht="18">
       <c r="A124" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" ht="18">
       <c r="A125" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" ht="18">
       <c r="A126" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" ht="18">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" ht="18">
       <c r="A128" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" ht="18">
       <c r="A129" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" ht="18">
       <c r="A130" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" ht="18">
       <c r="A131" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" ht="18">
       <c r="A132" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" ht="18">
       <c r="A133" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" ht="18">
       <c r="A134" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" ht="18">
       <c r="A135" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" ht="18">
       <c r="A136" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" ht="18">
       <c r="A137" s="7" t="s">
         <v>82</v>
       </c>
@@ -7107,666 +7114,666 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="18">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="18">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="18">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="18">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="18">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="18">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="18">
       <c r="A8" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="18">
       <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="18">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="18">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="18">
       <c r="A12" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="18">
       <c r="A13" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="18">
       <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="18">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="18">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="18">
       <c r="A17" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="18">
       <c r="A18" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="18">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="18">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="18">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="18">
       <c r="A22" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="18">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="18">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="18">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="18">
       <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="18">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="18">
       <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="18">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="18">
       <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="18">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="18">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="18">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="18">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="18">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="18">
       <c r="A36" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="18">
       <c r="A37" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="18">
       <c r="A38" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="18">
       <c r="A39" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="18">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="18">
       <c r="A41" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" ht="18">
       <c r="A42" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="18">
       <c r="A43" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="18">
       <c r="A44" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="18">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="18">
       <c r="A46" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="18">
       <c r="A47" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="18">
       <c r="A48" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="18">
       <c r="A49" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="18">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="18">
       <c r="A51" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="18">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="18">
       <c r="A53" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="18">
       <c r="A54" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" ht="18">
       <c r="A55" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" ht="18">
       <c r="A56" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" ht="18">
       <c r="A57" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" ht="18">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" ht="18">
       <c r="A59" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" ht="18">
       <c r="A60" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" ht="18">
       <c r="A61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" ht="18">
       <c r="A62" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="18">
       <c r="A63" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" ht="18">
       <c r="A64" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" ht="18">
       <c r="A65" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" ht="18">
       <c r="A66" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" ht="18">
       <c r="A67" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" ht="18">
       <c r="A68" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" ht="18">
       <c r="A69" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" ht="18">
       <c r="A70" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" ht="18">
       <c r="A71" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" ht="18">
       <c r="A72" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" ht="18">
       <c r="A73" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" ht="18">
       <c r="A74" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="18">
       <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" ht="18">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" ht="18">
       <c r="A77" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" ht="18">
       <c r="A78" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" ht="18">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" ht="18">
       <c r="A80" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" ht="18">
       <c r="A81" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" ht="18">
       <c r="A82" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" ht="18">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" ht="18">
       <c r="A84" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" ht="18">
       <c r="A85" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" ht="18">
       <c r="A86" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" ht="18">
       <c r="A87" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" ht="18">
       <c r="A88" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" ht="18">
       <c r="A89" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="18">
       <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A91" s="8"/>
-    </row>
-    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" ht="18">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" ht="18">
       <c r="A92" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" ht="18">
       <c r="A93" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" ht="18">
       <c r="A94" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" ht="18">
       <c r="A95" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" ht="18">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="18">
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" ht="18">
       <c r="A98" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" ht="18">
       <c r="A99" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="18">
       <c r="A100" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" ht="18">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" ht="18">
       <c r="A102" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" ht="18">
       <c r="A103" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" ht="18">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" ht="18">
       <c r="A105" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" ht="18">
       <c r="A106" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" ht="18">
       <c r="A107" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" ht="18">
       <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" ht="18">
       <c r="A109" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" ht="18">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" ht="18">
       <c r="A111" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" ht="18">
       <c r="A112" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" ht="18">
       <c r="A113" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" ht="18">
       <c r="A114" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" ht="18">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" ht="18">
       <c r="A116" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" ht="18">
       <c r="A117" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" ht="18">
       <c r="A118" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" ht="18">
       <c r="A119" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" ht="18">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" ht="18">
       <c r="A121" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" ht="18">
       <c r="A122" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" ht="18">
       <c r="A123" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" ht="18">
       <c r="A124" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" ht="18">
       <c r="A125" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" ht="18">
       <c r="A126" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" ht="18">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" ht="18">
       <c r="A128" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" ht="18">
       <c r="A129" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" ht="18">
       <c r="A130" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" ht="18">
       <c r="A131" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" ht="18">
       <c r="A132" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" ht="18">
       <c r="A133" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" ht="18">
       <c r="A134" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" ht="18">
       <c r="A135" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" ht="18">
       <c r="A136" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" ht="18">
       <c r="A137" s="7" t="s">
         <v>82</v>
       </c>
@@ -7777,64 +7784,64 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\ipc\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_xampp\htdocs\ipc\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04698315-F013-4594-975C-ABF379D1ED2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dict" sheetId="4" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="คำขอ Script" sheetId="12" r:id="rId6"/>
     <sheet name="json example" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -721,9 +720,6 @@
     <t>ลำดับงวด(ลำดับอัตโนมัติ 1, 2, 3, ...)</t>
   </si>
   <si>
-    <t>ยอดเบิกเงินงวดสะสมถึงปัจจุบัน(ไม่รวมปัจจุบัน)(Less Previous Interim Payment)</t>
-  </si>
-  <si>
     <t>เปอร์เซ็นต์ของยอดเบิกเงินงวดสะสมถึงปัจจุบัน(ไม่รวมปัจจุบัน)</t>
   </si>
   <si>
@@ -1809,16 +1805,19 @@
   <si>
     <t>รหัส Workflow (Foreign Key อ้างอิงตาราง workflows เพื่อแค่จะบอกว่าใช้ workflow ตัวไหนเท่านั้น ถ้าไม่มี workflow นี้ในระบบแล้ว  ต้องเลือก workflow ใหม่)</t>
   </si>
+  <si>
+    <t>ยอดเบิกเงินงวดสะสมไม่รวมปัจจุบัน(Less Previous Interim Payment)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1954,13 +1953,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1971,7 +1970,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2050,6 +2049,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -2096,7 +2107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2230,11 +2241,11 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2242,25 +2253,16 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2273,6 +2275,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2563,38 +2586,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="9"/>
-    <col min="5" max="5" width="16.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="9"/>
+    <col min="1" max="1" width="34.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="9"/>
+    <col min="5" max="5" width="16.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>113</v>
       </c>
@@ -2605,7 +2628,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>71</v>
       </c>
@@ -2616,7 +2639,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -2627,14 +2650,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>137</v>
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>113</v>
       </c>
@@ -2645,7 +2668,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>72</v>
       </c>
@@ -2656,7 +2679,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -2667,14 +2690,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="58" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>113</v>
       </c>
@@ -2685,7 +2708,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>73</v>
       </c>
@@ -2696,7 +2719,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>10</v>
       </c>
@@ -2707,19 +2730,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="37"/>
       <c r="C15" s="18"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>113</v>
       </c>
@@ -2730,70 +2753,70 @@
         <v>115</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E19" s="17">
         <v>1</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E20" s="17">
         <v>2</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" s="17">
         <v>3</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>113</v>
       </c>
@@ -2804,54 +2827,54 @@
         <v>115</v>
       </c>
       <c r="E23" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E24" s="17">
         <v>0</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E25" s="17">
         <v>1</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B27" s="56"/>
       <c r="C27" s="56"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>113</v>
       </c>
@@ -2862,7 +2885,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>74</v>
       </c>
@@ -2870,12 +2893,12 @@
         <v>116</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>120</v>
@@ -2884,7 +2907,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>10</v>
       </c>
@@ -2895,7 +2918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>71</v>
       </c>
@@ -2906,7 +2929,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>72</v>
       </c>
@@ -2917,7 +2940,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>36</v>
       </c>
@@ -2928,7 +2951,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>34</v>
       </c>
@@ -2939,7 +2962,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>45</v>
       </c>
@@ -2950,7 +2973,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>6</v>
       </c>
@@ -2961,7 +2984,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="38.25">
+    <row r="38" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>38</v>
       </c>
@@ -2969,10 +2992,10 @@
         <v>127</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="38.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>37</v>
       </c>
@@ -2980,13 +3003,13 @@
         <v>127</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E39" s="10">
         <v>869161</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>9</v>
       </c>
@@ -3001,7 +3024,7 @@
         <v>56861</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>43</v>
       </c>
@@ -3016,7 +3039,7 @@
         <v>812300</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>44</v>
       </c>
@@ -3027,7 +3050,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>3</v>
       </c>
@@ -3046,7 +3069,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>4</v>
       </c>
@@ -3065,7 +3088,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>5</v>
       </c>
@@ -3084,7 +3107,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
         <v>27</v>
       </c>
@@ -3103,7 +3126,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>35</v>
       </c>
@@ -3122,7 +3145,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>29</v>
       </c>
@@ -3133,7 +3156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>30</v>
       </c>
@@ -3144,26 +3167,26 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="25.5">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>78</v>
       </c>
@@ -3171,24 +3194,24 @@
         <v>122</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25">
-      <c r="A53" s="60" t="s">
-        <v>483</v>
-      </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-    </row>
-    <row r="55" spans="1:3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>157</v>
       </c>
@@ -3199,18 +3222,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B57" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>74</v>
       </c>
@@ -3218,12 +3241,12 @@
         <v>134</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B59" s="32" t="s">
         <v>134</v>
@@ -3232,18 +3255,18 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B60" s="45" t="s">
         <v>127</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>11</v>
       </c>
@@ -3251,21 +3274,21 @@
         <v>117</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B62" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="42" t="s">
         <v>47</v>
       </c>
@@ -3276,7 +3299,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
         <v>48</v>
       </c>
@@ -3287,7 +3310,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="42" t="s">
         <v>49</v>
       </c>
@@ -3298,7 +3321,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="42" t="s">
         <v>50</v>
       </c>
@@ -3306,10 +3329,10 @@
         <v>127</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="42" t="s">
         <v>54</v>
       </c>
@@ -3320,7 +3343,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="42" t="s">
         <v>53</v>
       </c>
@@ -3328,10 +3351,10 @@
         <v>127</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="42" t="s">
         <v>55</v>
       </c>
@@ -3339,10 +3362,10 @@
         <v>127</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="42" t="s">
         <v>52</v>
       </c>
@@ -3350,10 +3373,10 @@
         <v>127</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
         <v>57</v>
       </c>
@@ -3361,10 +3384,10 @@
         <v>127</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="42" t="s">
         <v>51</v>
       </c>
@@ -3372,10 +3395,10 @@
         <v>127</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
         <v>56</v>
       </c>
@@ -3383,10 +3406,10 @@
         <v>127</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
         <v>7</v>
       </c>
@@ -3394,10 +3417,10 @@
         <v>127</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="42" t="s">
         <v>62</v>
       </c>
@@ -3408,7 +3431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
         <v>33</v>
       </c>
@@ -3419,7 +3442,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="42" t="s">
         <v>32</v>
       </c>
@@ -3430,7 +3453,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="42" t="s">
         <v>78</v>
       </c>
@@ -3441,7 +3464,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="42" t="s">
         <v>106</v>
       </c>
@@ -3449,10 +3472,10 @@
         <v>117</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
         <v>107</v>
       </c>
@@ -3460,30 +3483,30 @@
         <v>134</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="14.25">
-      <c r="A81" s="62" t="s">
-        <v>484</v>
-      </c>
-      <c r="B81" s="63"/>
-      <c r="C81" s="63"/>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="B81" s="60"/>
+      <c r="C81" s="60"/>
       <c r="E81" s="17">
         <v>2</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="55" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>157</v>
       </c>
@@ -3494,9 +3517,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B85" s="32" t="s">
         <v>116</v>
@@ -3505,29 +3528,29 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="42" t="s">
         <v>74</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>47</v>
       </c>
@@ -3538,7 +3561,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>48</v>
       </c>
@@ -3549,7 +3572,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>49</v>
       </c>
@@ -3560,95 +3583,95 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="C91" s="12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="12" t="s">
+      <c r="C91" s="66" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="66" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="66" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B95" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C95" s="64" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B93" s="32" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C96" s="64" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B94" s="32" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C97" s="64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B95" s="32" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B96" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B97" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C97" s="12" t="s">
+      <c r="C98" s="64" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>7</v>
       </c>
@@ -3656,10 +3679,10 @@
         <v>127</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>62</v>
       </c>
@@ -3670,7 +3693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>33</v>
       </c>
@@ -3681,7 +3704,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>32</v>
       </c>
@@ -3692,7 +3715,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>11</v>
       </c>
@@ -3703,7 +3726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>78</v>
       </c>
@@ -3714,7 +3737,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>106</v>
       </c>
@@ -3722,46 +3745,46 @@
         <v>117</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B106" s="32" t="s">
         <v>134</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B107" s="32" t="s">
         <v>158</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="14.25">
-      <c r="A108" s="62" t="s">
-        <v>485</v>
-      </c>
-      <c r="B108" s="63"/>
-      <c r="C108" s="63"/>
-    </row>
-    <row r="110" spans="1:3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A108" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="55" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>157</v>
       </c>
@@ -3772,29 +3795,29 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B112" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B113" s="32" t="s">
         <v>134</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>112</v>
       </c>
@@ -3805,7 +3828,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>59</v>
       </c>
@@ -3816,7 +3839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>11</v>
       </c>
@@ -3827,25 +3850,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="37"/>
       <c r="C117" s="18"/>
     </row>
-    <row r="118" spans="1:10">
-      <c r="A118" s="53" t="s">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="B118" s="50"/>
+      <c r="C118" s="50"/>
+      <c r="E118" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="B118" s="54"/>
-      <c r="C118" s="54"/>
-      <c r="E118" s="17" t="s">
+      <c r="F118" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="F118" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>113</v>
       </c>
@@ -3862,15 +3885,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B120" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E120" s="17">
         <v>2</v>
@@ -3879,9 +3902,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B121" s="32" t="s">
         <v>117</v>
@@ -3896,7 +3919,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E122" s="17">
         <v>4</v>
       </c>
@@ -3904,7 +3927,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="51" t="s">
         <v>144</v>
       </c>
@@ -3917,7 +3940,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>113</v>
       </c>
@@ -3928,7 +3951,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>69</v>
       </c>
@@ -3939,7 +3962,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>39</v>
       </c>
@@ -3950,12 +3973,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="53" t="s">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B128" s="54"/>
-      <c r="C128" s="54"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="50"/>
       <c r="E128" s="17" t="s">
         <v>89</v>
       </c>
@@ -3975,7 +3998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>113</v>
       </c>
@@ -4002,7 +4025,7 @@
       </c>
       <c r="J129" s="17"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>89</v>
       </c>
@@ -4029,7 +4052,7 @@
       </c>
       <c r="J130" s="17"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>42</v>
       </c>
@@ -4056,7 +4079,7 @@
       </c>
       <c r="J131" s="17"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>41</v>
       </c>
@@ -4083,7 +4106,7 @@
       </c>
       <c r="J132" s="17"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>63</v>
       </c>
@@ -4110,7 +4133,7 @@
       </c>
       <c r="J133" s="17"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>70</v>
       </c>
@@ -4121,7 +4144,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>69</v>
       </c>
@@ -4132,9 +4155,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B137" s="52"/>
       <c r="C137" s="52"/>
@@ -4145,7 +4168,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>113</v>
       </c>
@@ -4162,9 +4185,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B139" s="32" t="s">
         <v>116</v>
@@ -4179,15 +4202,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B140" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E140" s="17">
         <v>2</v>
@@ -4196,9 +4219,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B142" s="52"/>
       <c r="C142" s="52"/>
@@ -4209,7 +4232,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>113</v>
       </c>
@@ -4226,7 +4249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>78</v>
       </c>
@@ -4240,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>77</v>
       </c>
@@ -4254,26 +4277,26 @@
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="25.5">
-      <c r="A147" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="B147" s="54"/>
-      <c r="C147" s="54"/>
+    <row r="147" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A147" s="49" t="s">
+        <v>515</v>
+      </c>
+      <c r="B147" s="50"/>
+      <c r="C147" s="50"/>
       <c r="E147" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F147" s="46" t="s">
         <v>78</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H147" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>113</v>
       </c>
@@ -4296,15 +4319,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B149" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E149" s="26">
         <v>2</v>
@@ -4319,7 +4342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>78</v>
       </c>
@@ -4342,15 +4365,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B151" s="32" t="s">
         <v>134</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E151" s="17">
         <v>4</v>
@@ -4365,7 +4388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>65</v>
       </c>
@@ -4373,7 +4396,7 @@
         <v>117</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E152" s="17">
         <v>5</v>
@@ -4388,23 +4411,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="25.5">
+    <row r="154" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A154" s="55" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
       <c r="E154" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G154" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H154" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I154" s="12" t="s">
         <v>65</v>
@@ -4419,7 +4442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>113</v>
       </c>
@@ -4454,15 +4477,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B156" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E156" s="31">
         <v>2</v>
@@ -4489,15 +4512,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B157" s="32" t="s">
         <v>122</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E157" s="31">
         <v>3</v>
@@ -4524,7 +4547,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="42" t="s">
         <v>8</v>
       </c>
@@ -4532,7 +4555,7 @@
         <v>134</v>
       </c>
       <c r="C158" s="42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E158" s="19">
         <v>4</v>
@@ -4559,15 +4582,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B159" s="32" t="s">
         <v>122</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E159" s="19">
         <v>5</v>
@@ -4594,7 +4617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>65</v>
       </c>
@@ -4629,15 +4652,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B161" s="32" t="s">
         <v>122</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E161" s="21">
         <v>7</v>
@@ -4664,15 +4687,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B162" s="32" t="s">
         <v>131</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E162" s="21">
         <v>8</v>
@@ -4699,77 +4722,83 @@
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B163" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" s="57" t="s">
-        <v>495</v>
-      </c>
-      <c r="B165" s="50"/>
-      <c r="C165" s="50"/>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" s="50"/>
-      <c r="B166" s="50"/>
-      <c r="C166" s="50"/>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" s="50"/>
-      <c r="B167" s="50"/>
-      <c r="C167" s="50"/>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="50"/>
-      <c r="B168" s="50"/>
-      <c r="C168" s="50"/>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="50"/>
-      <c r="B169" s="50"/>
-      <c r="C169" s="50"/>
-    </row>
-    <row r="170" spans="1:12">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="B165" s="62"/>
+      <c r="C165" s="62"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="62"/>
+      <c r="B166" s="62"/>
+      <c r="C166" s="62"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="62"/>
+      <c r="B167" s="62"/>
+      <c r="C167" s="62"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="62"/>
+      <c r="B168" s="62"/>
+      <c r="C168" s="62"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="62"/>
+      <c r="B169" s="62"/>
+      <c r="C169" s="62"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="24"/>
       <c r="B170" s="38"/>
     </row>
-    <row r="171" spans="1:12">
-      <c r="A171" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="B171" s="50"/>
-      <c r="C171" s="50"/>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" s="50"/>
-      <c r="B172" s="50"/>
-      <c r="C172" s="50"/>
-    </row>
-    <row r="173" spans="1:12">
-      <c r="A173" s="50"/>
-      <c r="B173" s="50"/>
-      <c r="C173" s="50"/>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="A174" s="50"/>
-      <c r="B174" s="50"/>
-      <c r="C174" s="50"/>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="A175" s="50"/>
-      <c r="B175" s="50"/>
-      <c r="C175" s="50"/>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="B171" s="62"/>
+      <c r="C171" s="62"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="62"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="62"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="62"/>
+      <c r="B173" s="62"/>
+      <c r="C173" s="62"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="62"/>
+      <c r="B174" s="62"/>
+      <c r="C174" s="62"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="62"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A171:C175"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A165:C169"/>
     <mergeCell ref="A128:C128"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
@@ -4785,12 +4814,6 @@
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A171:C175"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A165:C169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4798,120 +4821,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.375" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="40"/>
+    <col min="1" max="1" width="35.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B6" s="39" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="41" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="40" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>165</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4921,735 +4944,735 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="179" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="18">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18">
-      <c r="A11" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="18">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="18">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18">
-      <c r="A17" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" ht="18">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18">
-      <c r="A37" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="18">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" ht="18">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18">
-      <c r="A49" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="18">
-      <c r="A50" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="18">
-      <c r="A51" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="18">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" ht="18">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18">
-      <c r="A67" s="3" t="s">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18">
-      <c r="A68" s="3" t="s">
+    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18">
-      <c r="A71" s="3" t="s">
+    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18">
-      <c r="A78" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="18">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1" ht="18">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18">
-      <c r="A86" s="3" t="s">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18">
-      <c r="A87" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="18">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" ht="18">
-      <c r="A89" s="3" t="s">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18">
-      <c r="A91" s="3" t="s">
+    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18">
-      <c r="A93" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="18">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" ht="18">
-      <c r="A95" s="3" t="s">
+    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18">
-      <c r="A98" s="3" t="s">
+    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18">
-      <c r="A99" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="18">
-      <c r="A100" s="3"/>
-    </row>
-    <row r="101" spans="1:1" ht="18">
-      <c r="A101" s="3" t="s">
+    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18">
-      <c r="A103" s="3" t="s">
+    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18">
-      <c r="A106" s="3" t="s">
+    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18">
-      <c r="A108" s="3" t="s">
+    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18">
-      <c r="A109" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="18">
-      <c r="A110" s="3"/>
-    </row>
-    <row r="111" spans="1:1" ht="18">
-      <c r="A111" s="3" t="s">
+    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18">
-      <c r="A112" s="3" t="s">
+    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18">
-      <c r="A113" s="3" t="s">
+    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18">
-      <c r="A114" s="3" t="s">
+    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18">
-      <c r="A115" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="18">
-      <c r="A116" s="3"/>
-    </row>
-    <row r="117" spans="1:1" ht="18">
-      <c r="A117" s="3" t="s">
+    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18">
-      <c r="A118" s="3" t="s">
+    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18">
-      <c r="A119" s="3" t="s">
+    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18">
-      <c r="A120" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="18">
-      <c r="A121" s="3" t="s">
+    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18">
-      <c r="A123" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="18">
-      <c r="A124" s="3"/>
-    </row>
-    <row r="125" spans="1:1" ht="18">
-      <c r="A125" s="3" t="s">
+    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18">
-      <c r="A126" s="3" t="s">
+    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18">
-      <c r="A127" s="3" t="s">
+    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="18">
-      <c r="A128" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="18">
-      <c r="A129" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="18">
-      <c r="A130" s="3" t="s">
+    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18">
-      <c r="A131" s="3" t="s">
+    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18">
-      <c r="A132" s="3" t="s">
+    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18">
-      <c r="A133" s="3" t="s">
+    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18">
-      <c r="A134" s="3" t="s">
+    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18">
-      <c r="A135" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="18">
-      <c r="A136" s="3"/>
-    </row>
-    <row r="137" spans="1:1" ht="18">
-      <c r="A137" s="3" t="s">
+    <row r="138" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="18">
-      <c r="A138" s="3" t="s">
+    <row r="139" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="18">
-      <c r="A139" s="3" t="s">
+    <row r="140" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18">
-      <c r="A140" s="3" t="s">
+    <row r="141" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18">
-      <c r="A141" s="3" t="s">
+    <row r="142" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18">
-      <c r="A142" s="3" t="s">
+    <row r="143" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18">
-      <c r="A143" s="3" t="s">
+    <row r="144" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="18">
-      <c r="A144" s="3" t="s">
+    <row r="145" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18">
-      <c r="A145" s="3" t="s">
+    <row r="146" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18">
-      <c r="A146" s="3" t="s">
+    <row r="147" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18">
-      <c r="A147" s="3" t="s">
+    <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18">
-      <c r="A148" s="3" t="s">
+    <row r="149" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="18">
-      <c r="A149" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5658,781 +5681,781 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="8" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="8" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="8" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="8" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="8" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="8" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="8" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="8" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="8" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="8" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="8" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="8" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="8" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="8" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="8" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="8" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="8" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6441,669 +6464,669 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18">
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18">
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1" ht="18">
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18">
+    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18">
+    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:1" ht="18">
+    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18">
+    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18">
+    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" ht="18">
+    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18">
+    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18">
+    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18">
+    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18">
+    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18">
+    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18">
+    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18">
+    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18">
+    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18">
+    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18">
+    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18">
+    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18">
+    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18">
+    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18">
+    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18">
+    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" ht="18">
+    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="18">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18">
+    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18">
-      <c r="A39" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="18">
+    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" ht="18">
+    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="18">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18">
+    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18">
-      <c r="A44" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="18">
+    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" ht="18">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18">
+    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18">
+    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18">
+    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18">
+    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18">
+    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18">
+    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" ht="18">
+    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18">
+    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18">
+    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18">
+    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18">
+    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18">
+    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18">
+    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18">
+    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18">
+    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18">
+    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="18">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18">
+    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="18">
+    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="18">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18">
+    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18">
-      <c r="A95" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="18">
+    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="18">
+    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18">
+    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18">
+    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18">
+    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18">
+    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="18">
+    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18">
+    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18">
+    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18">
+    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18">
+    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18">
+    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18">
+    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18">
+    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18">
+    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="18">
+    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="18">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18">
+    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18">
+    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18">
+    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="18">
+    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="18">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18">
+    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18">
+    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18">
+    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="18">
+    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="18">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18">
+    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18">
+    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18">
+    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18">
+    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18">
+    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="18">
+    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="18">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18">
+    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18">
+    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18">
+    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18">
+    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18">
+    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18">
+    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18">
+    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18">
+    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>82</v>
       </c>
@@ -7114,666 +7137,666 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18">
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18">
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18">
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1" ht="18">
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18">
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18">
+    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18">
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18">
+    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:1" ht="18">
+    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18">
+    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18">
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18">
+    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18">
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" ht="18">
+    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18">
+    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18">
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18">
+    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18">
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18">
+    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18">
+    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18">
+    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18">
+    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18">
+    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18">
+    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18">
+    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18">
+    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18">
+    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18">
+    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18">
+    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18">
+    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18">
+    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" ht="18">
+    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="18">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18">
+    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18">
-      <c r="A39" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="18">
+    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" ht="18">
+    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="18">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18">
+    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18">
-      <c r="A44" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="18">
+    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" ht="18">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18">
+    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18">
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18">
+    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18">
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18">
+    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18">
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18">
+    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18">
+    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18">
+    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" ht="18">
+    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18">
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18">
+    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18">
+    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18">
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18">
+    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18">
+    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18">
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18">
+    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18">
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18">
+    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18">
+    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18">
+    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18">
+    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18">
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18">
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18">
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18">
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18">
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="18">
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18">
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18">
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18">
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18">
+    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="18">
+    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="18">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18">
+    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18">
-      <c r="A95" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="18">
+    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="18">
+    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18">
+    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18">
+    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18">
+    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18">
+    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="18">
+    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18">
+    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18">
+    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18">
+    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18">
+    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18">
+    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18">
+    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18">
+    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="18">
+    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="18">
+    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="18">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="18">
+    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18">
+    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="18">
+    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="18">
+    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="18">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18">
+    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="18">
+    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18">
+    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="18">
+    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="18">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18">
+    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18">
+    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18">
+    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18">
+    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18">
+    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="18">
+    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="18">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18">
+    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18">
+    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18">
+    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18">
+    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18">
+    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18">
+    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18">
+    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18">
+    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>82</v>
       </c>
@@ -7784,64 +7807,64 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="523">
   <si>
     <t>supplier_name</t>
   </si>
@@ -1807,6 +1807,21 @@
   </si>
   <si>
     <t>ยอดเบิกเงินงวดสะสมไม่รวมปัจจุบัน(Less Previous Interim Payment)</t>
+  </si>
+  <si>
+    <t>ปริมาณงานที่วางแผนไว้(%)</t>
+  </si>
+  <si>
+    <t>ปริมาณงานที่ทำเสร็จจริง(%)</t>
+  </si>
+  <si>
+    <t>ปริมาณงานที่เหลือ(%)</t>
+  </si>
+  <si>
+    <t>ปริมาณงานสะสม(%)</t>
+  </si>
+  <si>
+    <t>workload_accumulated_percent</t>
   </si>
 </sst>
 </file>
@@ -2241,11 +2256,23 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2253,16 +2280,25 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2275,27 +2311,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2587,15 +2602,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L175"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="9"/>
@@ -2611,11 +2626,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -2651,11 +2666,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -2691,11 +2706,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -2736,11 +2751,11 @@
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="55" t="s">
         <v>485</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -2810,11 +2825,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -2868,11 +2883,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="59" t="s">
         <v>453</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -3198,18 +3213,18 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="59" t="s">
         <v>450</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
@@ -3487,11 +3502,11 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="59" t="s">
+      <c r="A81" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
       <c r="E81" s="17">
         <v>2</v>
       </c>
@@ -3500,11 +3515,11 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
@@ -3558,7 +3573,7 @@
         <v>127</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>159</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3569,7 +3584,7 @@
         <v>127</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>160</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3580,915 +3595,891 @@
         <v>127</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>161</v>
+        <v>520</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="66" t="s">
+      <c r="A91" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="67" t="s">
+      <c r="B92" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C91" s="66" t="s">
+      <c r="C92" s="51" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="66" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="67" t="s">
+      <c r="B93" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C92" s="66" t="s">
+      <c r="C93" s="51" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="66" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B93" s="67" t="s">
+      <c r="B94" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C93" s="66" t="s">
+      <c r="C94" s="51" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="66" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B94" s="67" t="s">
+      <c r="B95" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="66" t="s">
+      <c r="C95" s="51" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="64" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="65" t="s">
+      <c r="B96" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C95" s="64" t="s">
+      <c r="C96" s="49" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="64" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B96" s="65" t="s">
+      <c r="B97" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C96" s="64" t="s">
+      <c r="C97" s="49" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="64" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B97" s="65" t="s">
+      <c r="B98" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C97" s="64" t="s">
+      <c r="C98" s="49" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="64" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B98" s="65" t="s">
+      <c r="B99" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C98" s="64" t="s">
+      <c r="C99" s="49" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B102" s="32" t="s">
         <v>158</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>513</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="B106" s="32" t="s">
+      <c r="B107" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C107" s="12" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B108" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C108" s="18" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A108" s="59" t="s">
+    <row r="109" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A109" s="66" t="s">
         <v>484</v>
       </c>
-      <c r="B108" s="60"/>
-      <c r="C108" s="60"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="55" t="s">
+      <c r="B109" s="67"/>
+      <c r="C109" s="67"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="59" t="s">
         <v>475</v>
       </c>
-      <c r="B110" s="56"/>
-      <c r="C110" s="56"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="B111" s="60"/>
+      <c r="C111" s="60"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B111" s="33" t="s">
+      <c r="B112" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C112" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B113" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C113" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
         <v>474</v>
-      </c>
-      <c r="B113" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="B114" s="32" t="s">
         <v>134</v>
       </c>
       <c r="C114" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="B115" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="B116" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C116" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="18"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="18"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="49" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="18"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="18"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="B118" s="50"/>
-      <c r="C118" s="50"/>
-      <c r="E118" s="17" t="s">
+      <c r="B119" s="58"/>
+      <c r="C119" s="58"/>
+      <c r="E119" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="F118" s="17" t="s">
+      <c r="F119" s="17" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B119" s="33" t="s">
+      <c r="B120" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C120" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E119" s="17">
+      <c r="E120" s="17">
         <v>1</v>
       </c>
-      <c r="F119" s="17" t="s">
+      <c r="F120" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="B121" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C121" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="E120" s="17">
+      <c r="E121" s="17">
         <v>2</v>
       </c>
-      <c r="F120" s="12" t="s">
+      <c r="F121" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B121" s="32" t="s">
+      <c r="B122" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C122" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E121" s="17">
+      <c r="E122" s="17">
         <v>3</v>
       </c>
-      <c r="F121" s="12" t="s">
+      <c r="F122" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E122" s="17">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="17">
         <v>4</v>
       </c>
-      <c r="F122" s="12" t="s">
+      <c r="F123" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="51" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
-      <c r="E123" s="17">
+      <c r="B124" s="56"/>
+      <c r="C124" s="56"/>
+      <c r="E124" s="17">
         <v>5</v>
       </c>
-      <c r="F123" s="17" t="s">
+      <c r="F124" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="33" t="s">
+      <c r="B125" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C125" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B125" s="32" t="s">
+      <c r="B126" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C126" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="B127" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C127" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="49" t="s">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="B128" s="50"/>
-      <c r="C128" s="50"/>
-      <c r="E128" s="17" t="s">
+      <c r="B129" s="58"/>
+      <c r="C129" s="58"/>
+      <c r="E129" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="17" t="s">
+      <c r="F129" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G128" s="17" t="s">
+      <c r="G129" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H128" s="17" t="s">
+      <c r="H129" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I128" s="17" t="s">
+      <c r="I129" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J128" s="17" t="s">
+      <c r="J129" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B129" s="33" t="s">
+      <c r="B130" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C130" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E129" s="17">
+      <c r="E130" s="17">
         <v>1001</v>
       </c>
-      <c r="F129" s="17" t="s">
+      <c r="F130" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="G129" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H129" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I129" s="17">
-        <v>1</v>
-      </c>
-      <c r="J129" s="17"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B130" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E130" s="17">
-        <v>1002</v>
-      </c>
-      <c r="F130" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="G130" s="17" t="s">
         <v>92</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="I130" s="12">
-        <v>2</v>
+        <v>93</v>
+      </c>
+      <c r="I130" s="17">
+        <v>1</v>
       </c>
       <c r="J130" s="17"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="E131" s="17">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F131" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G131" s="17" t="s">
         <v>92</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I131" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J131" s="17"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="E132" s="17">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G132" s="17" t="s">
         <v>92</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I132" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J132" s="17"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B133" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E133" s="17">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G133" s="17" t="s">
         <v>92</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I133" s="17">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="I133" s="12">
+        <v>4</v>
       </c>
       <c r="J133" s="17"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>150</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E134" s="17">
+        <v>1005</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G134" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H134" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I134" s="17">
+        <v>5</v>
+      </c>
+      <c r="J134" s="17"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B135" s="32" t="s">
+      <c r="B136" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C136" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="51" t="s">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="B137" s="52"/>
-      <c r="C137" s="52"/>
-      <c r="E137" s="47" t="s">
+      <c r="B138" s="56"/>
+      <c r="C138" s="56"/>
+      <c r="E138" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="F137" s="16" t="s">
+      <c r="F138" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B138" s="33" t="s">
+      <c r="B139" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C139" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E138" s="17">
+      <c r="E139" s="17">
         <v>0</v>
       </c>
-      <c r="F138" s="17" t="s">
+      <c r="F139" s="17" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="B139" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E139" s="17">
-        <v>1</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E140" s="17">
+        <v>1</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="B140" s="32" t="s">
+      <c r="B141" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C141" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="E140" s="17">
+      <c r="E141" s="17">
         <v>2</v>
       </c>
-      <c r="F140" s="17" t="s">
+      <c r="F141" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="51" t="s">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="B142" s="52"/>
-      <c r="C142" s="52"/>
-      <c r="E142" s="46" t="s">
+      <c r="B143" s="56"/>
+      <c r="C143" s="56"/>
+      <c r="E143" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F142" s="16" t="s">
+      <c r="F143" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B144" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C144" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E143" s="29">
+      <c r="E144" s="29">
         <v>1</v>
       </c>
-      <c r="F143" s="30" t="s">
+      <c r="F144" s="30" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B144" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E144" s="17">
-        <v>2</v>
-      </c>
-      <c r="F144" s="17" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E145" s="17">
+        <v>2</v>
+      </c>
+      <c r="F145" s="17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B145" s="32" t="s">
+      <c r="B146" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C146" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A147" s="49" t="s">
+    <row r="148" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A148" s="57" t="s">
         <v>515</v>
       </c>
-      <c r="B147" s="50"/>
-      <c r="C147" s="50"/>
-      <c r="E147" s="21" t="s">
+      <c r="B148" s="58"/>
+      <c r="C148" s="58"/>
+      <c r="E148" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="F147" s="46" t="s">
+      <c r="F148" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="G147" s="12" t="s">
+      <c r="G148" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="H147" s="12" t="s">
+      <c r="H148" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B149" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C149" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E148" s="26">
+      <c r="E149" s="26">
         <v>1</v>
-      </c>
-      <c r="F148" s="29">
-        <v>1</v>
-      </c>
-      <c r="G148" s="27">
-        <v>1</v>
-      </c>
-      <c r="H148" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="B149" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="E149" s="26">
-        <v>2</v>
       </c>
       <c r="F149" s="29">
         <v>1</v>
       </c>
       <c r="G149" s="27">
+        <v>1</v>
+      </c>
+      <c r="H149" s="27">
         <v>2</v>
-      </c>
-      <c r="H149" s="27">
-        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="B150" s="32" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E150" s="25">
-        <v>3</v>
+        <v>495</v>
+      </c>
+      <c r="E150" s="26">
+        <v>2</v>
       </c>
       <c r="F150" s="29">
         <v>1</v>
       </c>
-      <c r="G150" s="28">
+      <c r="G150" s="27">
+        <v>2</v>
+      </c>
+      <c r="H150" s="27">
         <v>3</v>
-      </c>
-      <c r="H150" s="27">
-        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>493</v>
+        <v>78</v>
       </c>
       <c r="B151" s="32" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="E151" s="17">
-        <v>4</v>
-      </c>
-      <c r="F151" s="17">
-        <v>2</v>
-      </c>
-      <c r="G151" s="17">
+        <v>164</v>
+      </c>
+      <c r="E151" s="25">
+        <v>3</v>
+      </c>
+      <c r="F151" s="29">
         <v>1</v>
       </c>
-      <c r="H151" s="12">
+      <c r="G151" s="28">
+        <v>3</v>
+      </c>
+      <c r="H151" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
-        <v>65</v>
+        <v>493</v>
       </c>
       <c r="B152" s="32" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E152" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F152" s="17">
         <v>2</v>
       </c>
       <c r="G152" s="17">
+        <v>1</v>
+      </c>
+      <c r="H152" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B153" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E153" s="17">
+        <v>5</v>
+      </c>
+      <c r="F153" s="17">
         <v>2</v>
       </c>
-      <c r="H152" s="17">
+      <c r="G153" s="17">
+        <v>2</v>
+      </c>
+      <c r="H153" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A154" s="55" t="s">
+    <row r="155" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A155" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="B154" s="56"/>
-      <c r="C154" s="56"/>
-      <c r="E154" s="12" t="s">
+      <c r="B155" s="60"/>
+      <c r="C155" s="60"/>
+      <c r="E155" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="F154" s="12" t="s">
+      <c r="F155" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="G154" s="12" t="s">
+      <c r="G155" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H154" s="21" t="s">
+      <c r="H155" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="I154" s="12" t="s">
+      <c r="I155" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J154" s="48" t="s">
+      <c r="J155" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="K154" s="12" t="s">
+      <c r="K155" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L154" s="12" t="s">
+      <c r="L155" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B155" s="33" t="s">
+      <c r="B156" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C156" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E155" s="31">
+      <c r="E156" s="31">
         <v>1</v>
-      </c>
-      <c r="F155" s="31">
-        <v>1</v>
-      </c>
-      <c r="G155" s="31">
-        <v>1</v>
-      </c>
-      <c r="H155" s="26">
-        <v>1</v>
-      </c>
-      <c r="I155" s="31">
-        <v>1002</v>
-      </c>
-      <c r="J155" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="K155" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="L155" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="B156" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="E156" s="31">
-        <v>2</v>
       </c>
       <c r="F156" s="31">
         <v>1</v>
@@ -4497,10 +4488,10 @@
         <v>1</v>
       </c>
       <c r="H156" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" s="31">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J156" s="31" t="s">
         <v>84</v>
@@ -4514,16 +4505,16 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="E157" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F157" s="31">
         <v>1</v>
@@ -4532,10 +4523,10 @@
         <v>1</v>
       </c>
       <c r="H157" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" s="31">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J157" s="31" t="s">
         <v>84</v>
@@ -4548,52 +4539,52 @@
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="42" t="s">
+      <c r="A158" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B158" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="E158" s="31">
+        <v>3</v>
+      </c>
+      <c r="F158" s="31">
+        <v>1</v>
+      </c>
+      <c r="G158" s="31">
+        <v>1</v>
+      </c>
+      <c r="H158" s="26">
+        <v>3</v>
+      </c>
+      <c r="I158" s="31">
+        <v>1004</v>
+      </c>
+      <c r="J158" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K158" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L158" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B158" s="43" t="s">
+      <c r="B159" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C158" s="42" t="s">
+      <c r="C159" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="E158" s="19">
+      <c r="E159" s="19">
         <v>4</v>
-      </c>
-      <c r="F158" s="19">
-        <v>1</v>
-      </c>
-      <c r="G158" s="19">
-        <v>2</v>
-      </c>
-      <c r="H158" s="19">
-        <v>1</v>
-      </c>
-      <c r="I158" s="19">
-        <v>1002</v>
-      </c>
-      <c r="J158" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K158" s="20">
-        <v>45500.625</v>
-      </c>
-      <c r="L158" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="B159" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="E159" s="19">
-        <v>5</v>
       </c>
       <c r="F159" s="19">
         <v>1</v>
@@ -4602,16 +4593,16 @@
         <v>2</v>
       </c>
       <c r="H159" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" s="19">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J159" s="19" t="s">
         <v>85</v>
       </c>
       <c r="K159" s="20">
-        <v>45500.645833333336</v>
+        <v>45500.625</v>
       </c>
       <c r="L159" s="19" t="s">
         <v>85</v>
@@ -4619,16 +4610,16 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
-        <v>65</v>
+        <v>493</v>
       </c>
       <c r="B160" s="32" t="s">
         <v>122</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>156</v>
+        <v>509</v>
       </c>
       <c r="E160" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F160" s="19">
         <v>1</v>
@@ -4637,68 +4628,68 @@
         <v>2</v>
       </c>
       <c r="H160" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" s="19">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J160" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="K160" s="19" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="K160" s="20">
+        <v>45500.645833333336</v>
       </c>
       <c r="L160" s="19" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
-        <v>507</v>
+        <v>65</v>
       </c>
       <c r="B161" s="32" t="s">
         <v>122</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="E161" s="21">
-        <v>7</v>
-      </c>
-      <c r="F161" s="21">
+        <v>156</v>
+      </c>
+      <c r="E161" s="19">
+        <v>6</v>
+      </c>
+      <c r="F161" s="19">
+        <v>1</v>
+      </c>
+      <c r="G161" s="19">
         <v>2</v>
       </c>
-      <c r="G161" s="21">
-        <v>1</v>
-      </c>
-      <c r="H161" s="22">
-        <v>4</v>
-      </c>
-      <c r="I161" s="22">
+      <c r="H161" s="19">
+        <v>3</v>
+      </c>
+      <c r="I161" s="19">
         <v>1004</v>
       </c>
-      <c r="J161" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="K161" s="23">
-        <v>45500.625</v>
-      </c>
-      <c r="L161" s="21" t="s">
-        <v>85</v>
+      <c r="J161" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K161" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L161" s="19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B162" s="32" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E162" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F162" s="21">
         <v>2</v>
@@ -4707,99 +4698,128 @@
         <v>1</v>
       </c>
       <c r="H162" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I162" s="22">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K162" s="21" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="K162" s="23">
+        <v>45500.625</v>
       </c>
       <c r="L162" s="21" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B163" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E163" s="21">
+        <v>8</v>
+      </c>
+      <c r="F163" s="21">
+        <v>2</v>
+      </c>
+      <c r="G163" s="21">
+        <v>1</v>
+      </c>
+      <c r="H163" s="22">
+        <v>5</v>
+      </c>
+      <c r="I163" s="22">
+        <v>1005</v>
+      </c>
+      <c r="J163" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K163" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L163" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="B163" s="32" t="s">
+      <c r="B164" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="C164" s="12" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="63" t="s">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="61" t="s">
         <v>494</v>
       </c>
-      <c r="B165" s="62"/>
-      <c r="C165" s="62"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="62"/>
-      <c r="B166" s="62"/>
-      <c r="C166" s="62"/>
+      <c r="B166" s="54"/>
+      <c r="C166" s="54"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="62"/>
-      <c r="B167" s="62"/>
-      <c r="C167" s="62"/>
+      <c r="A167" s="54"/>
+      <c r="B167" s="54"/>
+      <c r="C167" s="54"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="62"/>
-      <c r="B168" s="62"/>
-      <c r="C168" s="62"/>
+      <c r="A168" s="54"/>
+      <c r="B168" s="54"/>
+      <c r="C168" s="54"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="62"/>
-      <c r="B169" s="62"/>
-      <c r="C169" s="62"/>
+      <c r="A169" s="54"/>
+      <c r="B169" s="54"/>
+      <c r="C169" s="54"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="24"/>
-      <c r="B170" s="38"/>
+      <c r="A170" s="54"/>
+      <c r="B170" s="54"/>
+      <c r="C170" s="54"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="61" t="s">
+      <c r="A171" s="24"/>
+      <c r="B171" s="38"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="B171" s="62"/>
-      <c r="C171" s="62"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="62"/>
-      <c r="B172" s="62"/>
-      <c r="C172" s="62"/>
+      <c r="B172" s="54"/>
+      <c r="C172" s="54"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="62"/>
-      <c r="B173" s="62"/>
-      <c r="C173" s="62"/>
+      <c r="A173" s="54"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="54"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="62"/>
-      <c r="B174" s="62"/>
-      <c r="C174" s="62"/>
+      <c r="A174" s="54"/>
+      <c r="B174" s="54"/>
+      <c r="C174" s="54"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="62"/>
-      <c r="B175" s="62"/>
-      <c r="C175" s="62"/>
+      <c r="A175" s="54"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="54"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="54"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A171:C175"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A165:C169"/>
-    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A11:C11"/>
@@ -4807,13 +4827,19 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A124:C124"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A172:C176"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A166:C170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -2268,11 +2268,11 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2280,25 +2280,16 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2312,6 +2303,15 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2604,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2706,11 +2706,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -3213,11 +3213,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="61" t="s">
         <v>482</v>
       </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="s">
@@ -3502,11 +3502,11 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="66" t="s">
+      <c r="A81" s="63" t="s">
         <v>483</v>
       </c>
-      <c r="B81" s="67"/>
-      <c r="C81" s="67"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
       <c r="E81" s="17">
         <v>2</v>
       </c>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="B101" s="32" t="s">
         <v>117</v>
@@ -3797,11 +3797,11 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A109" s="66" t="s">
+      <c r="A109" s="63" t="s">
         <v>484</v>
       </c>
-      <c r="B109" s="67"/>
-      <c r="C109" s="67"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="64"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="59" t="s">
@@ -3882,11 +3882,11 @@
       <c r="C118" s="18"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="57" t="s">
+      <c r="A119" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="B119" s="58"/>
-      <c r="C119" s="58"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="54"/>
       <c r="E119" s="17" t="s">
         <v>318</v>
       </c>
@@ -4000,11 +4000,11 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="57" t="s">
+      <c r="A129" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="B129" s="58"/>
-      <c r="C129" s="58"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="54"/>
       <c r="E129" s="17" t="s">
         <v>89</v>
       </c>
@@ -4304,11 +4304,11 @@
       </c>
     </row>
     <row r="148" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A148" s="57" t="s">
+      <c r="A148" s="53" t="s">
         <v>515</v>
       </c>
-      <c r="B148" s="58"/>
-      <c r="C148" s="58"/>
+      <c r="B148" s="54"/>
+      <c r="C148" s="54"/>
       <c r="E148" s="21" t="s">
         <v>493</v>
       </c>
@@ -4760,65 +4760,71 @@
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="61" t="s">
+      <c r="A166" s="67" t="s">
         <v>494</v>
       </c>
-      <c r="B166" s="54"/>
-      <c r="C166" s="54"/>
+      <c r="B166" s="66"/>
+      <c r="C166" s="66"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="54"/>
-      <c r="B167" s="54"/>
-      <c r="C167" s="54"/>
+      <c r="A167" s="66"/>
+      <c r="B167" s="66"/>
+      <c r="C167" s="66"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="54"/>
-      <c r="B168" s="54"/>
-      <c r="C168" s="54"/>
+      <c r="A168" s="66"/>
+      <c r="B168" s="66"/>
+      <c r="C168" s="66"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="54"/>
-      <c r="B169" s="54"/>
-      <c r="C169" s="54"/>
+      <c r="A169" s="66"/>
+      <c r="B169" s="66"/>
+      <c r="C169" s="66"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="54"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="54"/>
+      <c r="A170" s="66"/>
+      <c r="B170" s="66"/>
+      <c r="C170" s="66"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="24"/>
       <c r="B171" s="38"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="53" t="s">
+      <c r="A172" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="B172" s="54"/>
-      <c r="C172" s="54"/>
+      <c r="B172" s="66"/>
+      <c r="C172" s="66"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="54"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="54"/>
+      <c r="A173" s="66"/>
+      <c r="B173" s="66"/>
+      <c r="C173" s="66"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="54"/>
-      <c r="B174" s="54"/>
-      <c r="C174" s="54"/>
+      <c r="A174" s="66"/>
+      <c r="B174" s="66"/>
+      <c r="C174" s="66"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="54"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="54"/>
+      <c r="A175" s="66"/>
+      <c r="B175" s="66"/>
+      <c r="C175" s="66"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="54"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="54"/>
+      <c r="A176" s="66"/>
+      <c r="B176" s="66"/>
+      <c r="C176" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A172:C176"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A166:C170"/>
     <mergeCell ref="A129:C129"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
@@ -4834,12 +4840,6 @@
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A172:C176"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A166:C170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database/ipcdb rev02.xlsx
+++ b/database/ipcdb rev02.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="531">
   <si>
     <t>supplier_name</t>
   </si>
@@ -501,9 +501,6 @@
     <t>ชื่อ Workflow (เช่น "การอนุมัติ Inspect ทั่วไป", "การอนุมัติ Inspect แบบพิเศษ")</t>
   </si>
   <si>
-    <t>การอนุมัติ Inspect ทั่วไป</t>
-  </si>
-  <si>
     <t>ไม่อนุมัติ</t>
   </si>
   <si>
@@ -1194,9 +1191,6 @@
 "height":175,
 }
 </t>
-  </si>
-  <si>
-    <t>การอนุมัติ Inspect ที่มีวงเงินมากกว่า 50000 บาท</t>
   </si>
   <si>
     <t>ขอคำสั่งในการสร้างตารางบน mySQL โดยมีข้อมูลตามนี้</t>
@@ -1692,9 +1686,6 @@
     <t>period_status</t>
   </si>
   <si>
-    <t>สถานะ (เช่น "รอตรวจ", "ตรวจแล้ว", "ผ่าน", "ไม่ผ่าน")</t>
-  </si>
-  <si>
     <t xml:space="preserve">Note: ต้องมี status บอกว่าไม่สามารถทำการเพิ่ม, แก้ไข, ลบ period ได้แล้ว  แต่ยังแก้ไขข้อมูลทั่วไปของ po ได้  ยกเว้นข้อมูลที่เป็นจำนวนเงิน </t>
   </si>
   <si>
@@ -1717,12 +1708,6 @@
   </si>
   <si>
     <t>รหัสการตรวจสอบ (Foreign Key อ้างอิงตาราง inspection_period)</t>
-  </si>
-  <si>
-    <t>งวดการตรวจสอบ (เช่น งวดที่ 1, 2, 3)(เชื่อมโยงกับตาราง inspection_period)</t>
-  </si>
-  <si>
-    <t>สถานะ po (เช่น "completed", "open", "pending")</t>
   </si>
   <si>
     <t>ตาราง: workflows (ชื่อ workflow)</t>
@@ -1822,6 +1807,45 @@
   </si>
   <si>
     <t>workload_accumulated_percent</t>
+  </si>
+  <si>
+    <t>สถานะ (เช่น "closed", "open", "pending")</t>
+  </si>
+  <si>
+    <t>สถานะ po (เช่น "close", "open", "pending")</t>
+  </si>
+  <si>
+    <t>inspection_status</t>
+  </si>
+  <si>
+    <t>document_type_id</t>
+  </si>
+  <si>
+    <t>รหัส document_type_id (Foreign Key อ้างอิงตาราง document_type)</t>
+  </si>
+  <si>
+    <t>ตาราง: document_type (ประเภทเอกสาร)</t>
+  </si>
+  <si>
+    <t>document_type_name</t>
+  </si>
+  <si>
+    <t>รหัสประเภทเอกสาร (Primary Key, Auto Increment)</t>
+  </si>
+  <si>
+    <t>ชื่อประเภทเอกสาร (เช่น ตรวจรับงาน, IPC)</t>
+  </si>
+  <si>
+    <t>ตรวจรับงาน</t>
+  </si>
+  <si>
+    <t>IPC</t>
+  </si>
+  <si>
+    <t>ตรวจรับงานทั่วไป</t>
+  </si>
+  <si>
+    <t>IPC ทั่วไป</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2268,11 +2292,11 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2280,16 +2304,25 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2304,14 +2337,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2602,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2614,485 +2641,504 @@
     <col min="2" max="2" width="16.88671875" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="9"/>
-    <col min="5" max="5" width="16.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="C7" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="C12" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="37"/>
       <c r="C15" s="18"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="C17" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="B18" s="32" t="s">
+      <c r="C18" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17" t="s">
+      <c r="E19" s="17">
+        <v>2</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="12" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E20" s="17">
+        <v>3</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="E19" s="17">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="17">
-        <v>2</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="17">
-        <v>3</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="E23" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="C24" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>324</v>
       </c>
       <c r="E24" s="17">
         <v>0</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>441</v>
+        <v>323</v>
       </c>
       <c r="E25" s="17">
         <v>1</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="E26" s="17">
+        <v>2</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="C29" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="B30" s="32" t="s">
+      <c r="C30" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>169</v>
-      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="B38" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>455</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="E39" s="10">
-        <v>869161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>126</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="15">
-        <f>E39*7/107</f>
-        <v>56861</v>
+        <v>454</v>
+      </c>
+      <c r="E40" s="10">
+        <v>869161</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E41" s="15">
-        <f>E39-E40</f>
-        <v>812300</v>
+        <f>E40*7/107</f>
+        <v>56861</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>127</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>129</v>
+        <v>142</v>
+      </c>
+      <c r="E42" s="15">
+        <f>E40-E41</f>
+        <v>812300</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -3105,13 +3151,13 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -3123,14 +3169,14 @@
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>171</v>
+      <c r="A46" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -3142,14 +3188,14 @@
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>172</v>
+      <c r="A47" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>170</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -3162,1485 +3208,1362 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>130</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B50" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="61" t="s">
-        <v>482</v>
-      </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="59" t="s">
-        <v>450</v>
-      </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
+      <c r="B53" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" s="33" t="s">
+      <c r="A56" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>74</v>
+        <v>464</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>467</v>
+        <v>74</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>174</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
-        <v>470</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="44" t="s">
-        <v>471</v>
+      <c r="A60" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="A61" s="44" t="s">
         <v>468</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>480</v>
+        <v>11</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>159</v>
+      <c r="A63" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>458</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>135</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>459</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>175</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>469</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>176</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="42" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="42" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="42" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="42" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>449</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="63" t="s">
-        <v>483</v>
-      </c>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="E81" s="17">
-        <v>2</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="59" t="s">
-        <v>473</v>
-      </c>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="66" t="s">
+        <v>480</v>
+      </c>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B84" s="33" t="s">
+      <c r="A84" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>462</v>
+        <v>115</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>488</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="42" t="s">
+      <c r="A87" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B87" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="C87" s="42" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>518</v>
+      <c r="B88" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>48</v>
+        <v>465</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>519</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>522</v>
+        <v>48</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>460</v>
+      <c r="A92" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B93" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C93" s="51" t="s">
+      <c r="A93" s="12" t="s">
         <v>517</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C94" s="51" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B95" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C95" s="51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C96" s="49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B97" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C97" s="49" t="s">
-        <v>175</v>
+      <c r="B97" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="51" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C98" s="49" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B99" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C99" s="49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B101" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>31</v>
+      <c r="B101" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="49" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>32</v>
+        <v>314</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>513</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>512</v>
+        <v>78</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>514</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
-        <v>479</v>
+      <c r="A108" s="12" t="s">
+        <v>520</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A109" s="63" t="s">
-        <v>484</v>
-      </c>
-      <c r="B109" s="64"/>
-      <c r="C109" s="64"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="59" t="s">
-        <v>475</v>
-      </c>
-      <c r="B111" s="60"/>
-      <c r="C111" s="60"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="B110" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B112" s="33" t="s">
+      <c r="C110" s="18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A111" s="66" t="s">
+        <v>481</v>
+      </c>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B113" s="60"/>
+      <c r="C113" s="60"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="B113" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B114" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>112</v>
+        <v>474</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>59</v>
+        <v>472</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>60</v>
+        <v>475</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C117" s="12" t="s">
+      <c r="B119" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="18"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="18"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="53" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="18"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="18"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="B121" s="58"/>
+      <c r="C121" s="58"/>
+      <c r="E121" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B119" s="54"/>
-      <c r="C119" s="54"/>
-      <c r="E119" s="17" t="s">
+      <c r="F121" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="F119" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B120" s="33" t="s">
+      <c r="C122" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="E122" s="17">
+        <v>1</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B123" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E120" s="17">
-        <v>1</v>
-      </c>
-      <c r="F120" s="17" t="s">
+      <c r="C123" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E123" s="17">
+        <v>2</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E124" s="17">
+        <v>3</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E125" s="17">
+        <v>4</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" s="56"/>
+      <c r="C126" s="56"/>
+      <c r="E126" s="17">
+        <v>5</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131" s="58"/>
+      <c r="C131" s="58"/>
+      <c r="E131" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F131" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I131" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J131" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E132" s="17">
+        <v>1001</v>
+      </c>
+      <c r="F132" s="17" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B121" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="E121" s="17">
-        <v>2</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B122" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E122" s="17">
-        <v>3</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E123" s="17">
-        <v>4</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="B124" s="56"/>
-      <c r="C124" s="56"/>
-      <c r="E124" s="17">
-        <v>5</v>
-      </c>
-      <c r="F124" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B125" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B126" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B127" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="B129" s="54"/>
-      <c r="C129" s="54"/>
-      <c r="E129" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G129" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H129" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I129" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J129" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E130" s="17">
-        <v>1001</v>
-      </c>
-      <c r="F130" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G130" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H130" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I130" s="17">
-        <v>1</v>
-      </c>
-      <c r="J130" s="17"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B131" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E131" s="17">
-        <v>1002</v>
-      </c>
-      <c r="F131" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G131" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H131" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="I131" s="12">
-        <v>2</v>
-      </c>
-      <c r="J131" s="17"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B132" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E132" s="17">
-        <v>1003</v>
-      </c>
-      <c r="F132" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="G132" s="17" t="s">
         <v>92</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I132" s="12">
-        <v>3</v>
+        <v>93</v>
+      </c>
+      <c r="I132" s="17">
+        <v>1</v>
       </c>
       <c r="J132" s="17"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E133" s="17">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G133" s="17" t="s">
         <v>92</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I133" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J133" s="17"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="E134" s="17">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G134" s="17" t="s">
         <v>92</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I134" s="17">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="I134" s="12">
+        <v>3</v>
       </c>
       <c r="J134" s="17"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>150</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E135" s="17">
+        <v>1004</v>
+      </c>
+      <c r="F135" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I135" s="12">
+        <v>4</v>
+      </c>
+      <c r="J135" s="17"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E136" s="17">
+        <v>1005</v>
+      </c>
+      <c r="F136" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I136" s="17">
+        <v>5</v>
+      </c>
+      <c r="J136" s="17"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B136" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="55" t="s">
-        <v>326</v>
-      </c>
-      <c r="B138" s="56"/>
-      <c r="C138" s="56"/>
-      <c r="E138" s="47" t="s">
+      <c r="B138" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="B140" s="56"/>
+      <c r="C140" s="56"/>
+      <c r="E140" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F140" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F138" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B141" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B139" s="33" t="s">
+      <c r="C141" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="E141" s="17">
+        <v>0</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B142" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="E139" s="17">
-        <v>0</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="B140" s="32" t="s">
+      <c r="C142" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" s="17">
+        <v>1</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B143" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C140" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E140" s="17">
+      <c r="C143" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="E143" s="17">
+        <v>2</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="55" t="s">
+        <v>523</v>
+      </c>
+      <c r="B145" s="56"/>
+      <c r="C145" s="56"/>
+      <c r="E145" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E146" s="17">
         <v>1</v>
       </c>
-      <c r="F140" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="B141" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C141" s="12" t="s">
+      <c r="F146" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="E147" s="17">
+        <v>2</v>
+      </c>
+      <c r="F147" s="17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B148" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="B150" s="56"/>
+      <c r="C150" s="56"/>
+      <c r="E150" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E151" s="29">
+        <v>1</v>
+      </c>
+      <c r="F151" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="G151" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E152" s="17">
+        <v>2</v>
+      </c>
+      <c r="F152" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="G152" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B153" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B154" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="57" t="s">
         <v>510</v>
       </c>
-      <c r="E141" s="17">
+      <c r="B156" s="58"/>
+      <c r="C156" s="58"/>
+      <c r="E156" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="F156" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="H156" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E157" s="26">
+        <v>1</v>
+      </c>
+      <c r="F157" s="29">
+        <v>1</v>
+      </c>
+      <c r="G157" s="27">
+        <v>1</v>
+      </c>
+      <c r="H157" s="27">
         <v>2</v>
       </c>
-      <c r="F141" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="55" t="s">
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="B158" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E158" s="26">
+        <v>2</v>
+      </c>
+      <c r="F158" s="29">
+        <v>1</v>
+      </c>
+      <c r="G158" s="27">
+        <v>2</v>
+      </c>
+      <c r="H158" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B159" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E159" s="25">
+        <v>3</v>
+      </c>
+      <c r="F159" s="29">
+        <v>1</v>
+      </c>
+      <c r="G159" s="28">
+        <v>3</v>
+      </c>
+      <c r="H159" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B160" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C160" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="B143" s="56"/>
-      <c r="C143" s="56"/>
-      <c r="E143" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F143" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B144" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E144" s="29">
+      <c r="E160" s="17">
+        <v>4</v>
+      </c>
+      <c r="F160" s="17">
+        <v>2</v>
+      </c>
+      <c r="G160" s="17">
         <v>1</v>
       </c>
-      <c r="F144" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B145" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E145" s="17">
-        <v>2</v>
-      </c>
-      <c r="F145" s="17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B146" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A148" s="53" t="s">
-        <v>515</v>
-      </c>
-      <c r="B148" s="54"/>
-      <c r="C148" s="54"/>
-      <c r="E148" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="F148" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="G148" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="H148" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B149" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E149" s="26">
-        <v>1</v>
-      </c>
-      <c r="F149" s="29">
-        <v>1</v>
-      </c>
-      <c r="G149" s="27">
-        <v>1</v>
-      </c>
-      <c r="H149" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="B150" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="E150" s="26">
-        <v>2</v>
-      </c>
-      <c r="F150" s="29">
-        <v>1</v>
-      </c>
-      <c r="G150" s="27">
-        <v>2</v>
-      </c>
-      <c r="H150" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B151" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E151" s="25">
-        <v>3</v>
-      </c>
-      <c r="F151" s="29">
-        <v>1</v>
-      </c>
-      <c r="G151" s="28">
-        <v>3</v>
-      </c>
-      <c r="H151" s="27">
+      <c r="H160" s="12">
         <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="B152" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="E152" s="17">
-        <v>4</v>
-      </c>
-      <c r="F152" s="17">
-        <v>2</v>
-      </c>
-      <c r="G152" s="17">
-        <v>1</v>
-      </c>
-      <c r="H152" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B153" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="E153" s="17">
-        <v>5</v>
-      </c>
-      <c r="F153" s="17">
-        <v>2</v>
-      </c>
-      <c r="G153" s="17">
-        <v>2</v>
-      </c>
-      <c r="H153" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A155" s="59" t="s">
-        <v>499</v>
-      </c>
-      <c r="B155" s="60"/>
-      <c r="C155" s="60"/>
-      <c r="E155" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="G155" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H155" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="I155" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J155" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="K155" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L155" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B156" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E156" s="31">
-        <v>1</v>
-      </c>
-      <c r="F156" s="31">
-        <v>1</v>
-      </c>
-      <c r="G156" s="31">
-        <v>1</v>
-      </c>
-      <c r="H156" s="26">
-        <v>1</v>
-      </c>
-      <c r="I156" s="31">
-        <v>1002</v>
-      </c>
-      <c r="J156" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="K156" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="L156" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="B157" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="E157" s="31">
-        <v>2</v>
-      </c>
-      <c r="F157" s="31">
-        <v>1</v>
-      </c>
-      <c r="G157" s="31">
-        <v>1</v>
-      </c>
-      <c r="H157" s="26">
-        <v>2</v>
-      </c>
-      <c r="I157" s="31">
-        <v>1003</v>
-      </c>
-      <c r="J157" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="K157" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="L157" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="B158" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="E158" s="31">
-        <v>3</v>
-      </c>
-      <c r="F158" s="31">
-        <v>1</v>
-      </c>
-      <c r="G158" s="31">
-        <v>1</v>
-      </c>
-      <c r="H158" s="26">
-        <v>3</v>
-      </c>
-      <c r="I158" s="31">
-        <v>1004</v>
-      </c>
-      <c r="J158" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="K158" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="L158" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C159" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="E159" s="19">
-        <v>4</v>
-      </c>
-      <c r="F159" s="19">
-        <v>1</v>
-      </c>
-      <c r="G159" s="19">
-        <v>2</v>
-      </c>
-      <c r="H159" s="19">
-        <v>1</v>
-      </c>
-      <c r="I159" s="19">
-        <v>1002</v>
-      </c>
-      <c r="J159" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K159" s="20">
-        <v>45500.625</v>
-      </c>
-      <c r="L159" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="B160" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="E160" s="19">
-        <v>5</v>
-      </c>
-      <c r="F160" s="19">
-        <v>1</v>
-      </c>
-      <c r="G160" s="19">
-        <v>2</v>
-      </c>
-      <c r="H160" s="19">
-        <v>2</v>
-      </c>
-      <c r="I160" s="19">
-        <v>1003</v>
-      </c>
-      <c r="J160" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K160" s="20">
-        <v>45500.645833333336</v>
-      </c>
-      <c r="L160" s="19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -4648,198 +4571,450 @@
         <v>65</v>
       </c>
       <c r="B161" s="32" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E161" s="19">
+        <v>493</v>
+      </c>
+      <c r="E161" s="17">
+        <v>5</v>
+      </c>
+      <c r="F161" s="17">
+        <v>2</v>
+      </c>
+      <c r="G161" s="17">
+        <v>2</v>
+      </c>
+      <c r="H161" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="59" t="s">
+        <v>494</v>
+      </c>
+      <c r="B163" s="60"/>
+      <c r="C163" s="60"/>
+      <c r="E163" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J163" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K163" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L163" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B164" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E164" s="31">
+        <v>1</v>
+      </c>
+      <c r="F164" s="31">
+        <v>1</v>
+      </c>
+      <c r="G164" s="31">
+        <v>1</v>
+      </c>
+      <c r="H164" s="26">
+        <v>1</v>
+      </c>
+      <c r="I164" s="31">
+        <v>1002</v>
+      </c>
+      <c r="J164" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K164" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L164" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="B165" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="E165" s="31">
+        <v>2</v>
+      </c>
+      <c r="F165" s="31">
+        <v>1</v>
+      </c>
+      <c r="G165" s="31">
+        <v>1</v>
+      </c>
+      <c r="H165" s="26">
+        <v>2</v>
+      </c>
+      <c r="I165" s="31">
+        <v>1003</v>
+      </c>
+      <c r="J165" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K165" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L165" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B166" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="E166" s="31">
+        <v>3</v>
+      </c>
+      <c r="F166" s="31">
+        <v>1</v>
+      </c>
+      <c r="G166" s="31">
+        <v>1</v>
+      </c>
+      <c r="H166" s="26">
+        <v>3</v>
+      </c>
+      <c r="I166" s="31">
+        <v>1004</v>
+      </c>
+      <c r="J166" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K166" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L166" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B167" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="E167" s="19">
+        <v>4</v>
+      </c>
+      <c r="F167" s="19">
+        <v>1</v>
+      </c>
+      <c r="G167" s="19">
+        <v>2</v>
+      </c>
+      <c r="H167" s="19">
+        <v>1</v>
+      </c>
+      <c r="I167" s="19">
+        <v>1002</v>
+      </c>
+      <c r="J167" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K167" s="20">
+        <v>45500.625</v>
+      </c>
+      <c r="L167" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B168" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="C168" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="E168" s="19">
+        <v>5</v>
+      </c>
+      <c r="F168" s="19">
+        <v>1</v>
+      </c>
+      <c r="G168" s="19">
+        <v>2</v>
+      </c>
+      <c r="H168" s="19">
+        <v>2</v>
+      </c>
+      <c r="I168" s="19">
+        <v>1003</v>
+      </c>
+      <c r="J168" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K168" s="20">
+        <v>45500.645833333336</v>
+      </c>
+      <c r="L168" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B169" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E169" s="19">
         <v>6</v>
       </c>
-      <c r="F161" s="19">
+      <c r="F169" s="19">
         <v>1</v>
       </c>
-      <c r="G161" s="19">
+      <c r="G169" s="19">
         <v>2</v>
       </c>
-      <c r="H161" s="19">
+      <c r="H169" s="19">
         <v>3</v>
       </c>
-      <c r="I161" s="19">
+      <c r="I169" s="19">
         <v>1004</v>
       </c>
-      <c r="J161" s="19" t="s">
+      <c r="J169" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="K161" s="19" t="s">
+      <c r="K169" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="L161" s="19" t="s">
+      <c r="L169" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="B162" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C162" s="12" t="s">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B170" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C170" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="E162" s="21">
+      <c r="E170" s="21">
         <v>7</v>
       </c>
-      <c r="F162" s="21">
+      <c r="F170" s="21">
         <v>2</v>
       </c>
-      <c r="G162" s="21">
+      <c r="G170" s="21">
         <v>1</v>
       </c>
-      <c r="H162" s="22">
+      <c r="H170" s="22">
         <v>4</v>
       </c>
-      <c r="I162" s="22">
+      <c r="I170" s="22">
         <v>1004</v>
       </c>
-      <c r="J162" s="21" t="s">
+      <c r="J170" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K162" s="23">
+      <c r="K170" s="23">
         <v>45500.625</v>
       </c>
-      <c r="L162" s="21" t="s">
+      <c r="L170" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="B163" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C163" s="12" t="s">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B171" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E171" s="21">
+        <v>8</v>
+      </c>
+      <c r="F171" s="21">
+        <v>2</v>
+      </c>
+      <c r="G171" s="21">
+        <v>1</v>
+      </c>
+      <c r="H171" s="22">
+        <v>5</v>
+      </c>
+      <c r="I171" s="22">
+        <v>1005</v>
+      </c>
+      <c r="J171" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K171" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L171" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B172" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="E163" s="21">
-        <v>8</v>
-      </c>
-      <c r="F163" s="21">
-        <v>2</v>
-      </c>
-      <c r="G163" s="21">
-        <v>1</v>
-      </c>
-      <c r="H163" s="22">
-        <v>5</v>
-      </c>
-      <c r="I163" s="22">
-        <v>1005</v>
-      </c>
-      <c r="J163" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K163" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="L163" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="B164" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="67" t="s">
-        <v>494</v>
-      </c>
-      <c r="B166" s="66"/>
-      <c r="C166" s="66"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="66"/>
-      <c r="B167" s="66"/>
-      <c r="C167" s="66"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="66"/>
-      <c r="B168" s="66"/>
-      <c r="C168" s="66"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="66"/>
-      <c r="B169" s="66"/>
-      <c r="C169" s="66"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="66"/>
-      <c r="B170" s="66"/>
-      <c r="C170" s="66"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="24"/>
-      <c r="B171" s="38"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="B172" s="66"/>
-      <c r="C172" s="66"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="66"/>
-      <c r="B173" s="66"/>
-      <c r="C173" s="66"/>
+      <c r="B173" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="66"/>
-      <c r="B174" s="66"/>
-      <c r="C174" s="66"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="66"/>
-      <c r="B175" s="66"/>
-      <c r="C175" s="66"/>
+      <c r="A174" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B174" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="66"/>
-      <c r="B176" s="66"/>
-      <c r="C176" s="66"/>
+      <c r="A176" s="61" t="s">
+        <v>489</v>
+      </c>
+      <c r="B176" s="54"/>
+      <c r="C176" s="54"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="54"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="54"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="54"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="54"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="54"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="54"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="54"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="54"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="24"/>
+      <c r="B181" s="38"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="B182" s="54"/>
+      <c r="C182" s="54"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="54"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="54"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="54"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="54"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="54"/>
+      <c r="B185" s="54"/>
+      <c r="C185" s="54"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="54"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A172:C176"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A166:C170"/>
-    <mergeCell ref="A129:C129"/>
+  <mergeCells count="22">
+    <mergeCell ref="A131:C131"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A82:C82"/>
     <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A182:C186"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A176:C180"/>
+    <mergeCell ref="A145:C145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4863,104 +5038,104 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4984,27 +5159,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5012,27 +5187,27 @@
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5040,27 +5215,27 @@
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5068,97 +5243,97 @@
     </row>
     <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5166,67 +5341,67 @@
     </row>
     <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5234,132 +5409,132 @@
     </row>
     <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5367,42 +5542,42 @@
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5410,27 +5585,27 @@
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5438,27 +5613,27 @@
     </row>
     <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5466,47 +5641,47 @@
     </row>
     <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5514,27 +5689,27 @@
     </row>
     <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5542,37 +5717,37 @@
     </row>
     <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5580,57 +5755,57 @@
     </row>
     <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5638,67 +5813,67 @@
     </row>
     <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5721,767 +5896,767 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dy